--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
     <sheet name="20250112" sheetId="5" r:id="rId2"/>
+    <sheet name="20250216" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -926,6 +927,625 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Keep it down</t>
+  </si>
+  <si>
+    <t>A: 我们前面的人真是太吵了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Those people in front of us are </t>
+  </si>
+  <si>
+    <t>真的不考虑别人。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">marking so much </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>noise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. it’s so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF407927"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>inconsiderate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ men qián miàn de rén zhēn shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>tài chǎo le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhēn de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF407927"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bú kǎo lǜ bié rén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 别在意，这不是什么大事情。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B:  Don’t worry about it, it’s not such </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>big deal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bié </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zài yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，zhè bú shi shen me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dà shì qíng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>care about something</t>
+  </si>
+  <si>
+    <t>A: 哦，我听不清楚，不好意思，</t>
+  </si>
+  <si>
+    <t>A:  oh, I can’t hear a thing, Excuse me, can you</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>你们能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>小点声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>吗？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>keep it down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>ò ，wǒ tīng bú qīng chǔ ，bú hǎo yì sī ，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nǐ men néng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xiǎo diǎn shēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 当然，实在是不好意思。</t>
+  </si>
+  <si>
+    <t>B: Sure, sorry about that.</t>
+  </si>
+  <si>
+    <t>dāng rán ，shí zài shì bú hǎo yì sī 。</t>
+  </si>
+  <si>
+    <t>A: 有人电话响了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A: Someone’s phone is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ringing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yǒu rén diàn huà </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 亲爱的，我想是你的电话，你是不是忘记</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: honey， I think it’s your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>phone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, Did you forget</t>
+    </r>
+  </si>
+  <si>
+    <t>静音了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF407927"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>switch it of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>f.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>qīn ài de ，wǒ xiǎng shì nǐ de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> diàn huà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ shì bú shì wàng jì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF407927"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> jìng yīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> le </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 哦，不，你是对的，太不好意思了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A: Oh on, You’re right. That’s so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF407927"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>embarrassing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ò ，bú ，nǐ shì duì de ，tài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF407927"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bú hǎo yì sī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 能麻烦你小点声吗？我正在看电影。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Do you mind keeping it down? I’m trying to </t>
+  </si>
+  <si>
+    <t>néng má fán nǐ xiǎo diǎn shēng ma ？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">watch a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>movie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF407927"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhèng zài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> kàn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>diàn yǐng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
     </r>
   </si>
 </sst>
@@ -939,7 +1559,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,9 +1580,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1B75BC"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -982,12 +1602,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="6.4"/>
-      <color rgb="FF4C4C4C"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00864B"/>
       <name val="等线"/>
@@ -1008,6 +1622,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -1506,137 +2132,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1651,15 +2277,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1979,192 +2611,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="13" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="13" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="13" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="14"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="3:26">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="Z7" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="13" t="s">
+      <c r="AA8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:26">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="13" t="s">
+      <c r="Z10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:27">
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AA11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:26">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="13" t="s">
+      <c r="Z13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:26">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="Z16" s="13" t="s">
+      <c r="D16" s="17"/>
+      <c r="Z16" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="18"/>
+      <c r="W17" s="24"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="18"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="3:26">
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="Z19" s="13" t="s">
+      <c r="D19" s="17"/>
+      <c r="Z19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="27:27">
-      <c r="AA21" s="14"/>
+      <c r="AA21" s="13"/>
     </row>
     <row r="22" spans="3:26">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="Z22" s="13" t="s">
+      <c r="D22" s="25"/>
+      <c r="Z22" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="18"/>
+      <c r="W23" s="24"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="16"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="Z25" s="13" t="s">
+      <c r="D25" s="17"/>
+      <c r="Z25" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:26">
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="13" t="s">
+      <c r="Z28" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="4:27">
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AA29" s="13" t="s">
+      <c r="AA29" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:26">
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="Z32" s="13" t="s">
+      <c r="D32" s="17"/>
+      <c r="Z32" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2180,8 +2812,277 @@
   <sheetPr/>
   <dimension ref="C1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="12" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:26">
+      <c r="C2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="15"/>
+    </row>
+    <row r="3" spans="3:19">
+      <c r="C3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="4:20">
+      <c r="D4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="4:20">
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="4:27">
+      <c r="D7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="19"/>
+    </row>
+    <row r="8" spans="3:27">
+      <c r="C8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="S8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA8" s="19"/>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="3:24">
+      <c r="C11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X11" s="20"/>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="C14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="M14" s="15"/>
+      <c r="Q14" s="20"/>
+      <c r="S14" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="4:26">
+      <c r="D16" s="13"/>
+      <c r="Z16" s="22"/>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="S17" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20">
+      <c r="D18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20">
+      <c r="D20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19">
+      <c r="C22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="S22" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20">
+      <c r="D23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22">
+      <c r="D24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V24" s="21"/>
+    </row>
+    <row r="25" spans="3:19">
+      <c r="C25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="L25" s="19"/>
+      <c r="S25" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20">
+      <c r="D26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="17"/>
+      <c r="D28" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="C29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19">
+      <c r="C32" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19">
+      <c r="C35" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="I35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19">
+      <c r="C38" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AA41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2201,242 +3102,193 @@
     </row>
     <row r="2" spans="3:26">
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="3:19">
+    <row r="3" spans="3:18">
       <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="4:20">
+        <v>89</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="4:19">
       <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="4:20">
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4">
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="4:27">
-      <c r="D7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA7" s="9"/>
+        <v>91</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="3:27">
+      <c r="C7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA7" s="8"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="1" t="s">
-        <v>47</v>
+      <c r="C8" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="S8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA8" s="9"/>
+      <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18">
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="3:24">
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X11" s="10"/>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4">
+      <c r="R10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="4:24">
+      <c r="D11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="3:19">
+    <row r="14" spans="3:18">
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D14" s="6"/>
       <c r="M14" s="5"/>
-      <c r="Q14" s="10"/>
-      <c r="S14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="4:26">
       <c r="D16" s="3"/>
-      <c r="Z16" s="12"/>
-    </row>
-    <row r="17" spans="3:19">
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="17" spans="3:18">
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="S17" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="4:20">
-      <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="4:20">
+      <c r="R17" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="C19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19">
       <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19">
+        <v>113</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="3:4">
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="S22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="4:20">
-      <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="4:22">
-      <c r="D24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="V24" s="11"/>
-    </row>
-    <row r="25" spans="3:19">
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
+    </row>
+    <row r="23" spans="3:18">
+      <c r="C23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22">
+      <c r="C24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="V24" s="10"/>
+    </row>
+    <row r="25" spans="4:12">
       <c r="D25" s="3"/>
-      <c r="L25" s="9"/>
-      <c r="S25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="4:20">
-      <c r="D26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="7"/>
-      <c r="D28" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="3:19">
-      <c r="C29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="3:19">
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="3:19">
-      <c r="C35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="I35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="3:19">
-      <c r="C38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="3:18">
+      <c r="C26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="C27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" ht="17.85" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
     <sheet name="20250112" sheetId="5" r:id="rId2"/>
     <sheet name="20250216" sheetId="6" r:id="rId3"/>
+    <sheet name="20250223" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -1547,6 +1548,632 @@
       </rPr>
       <t xml:space="preserve"> 。</t>
     </r>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>A: Jone, 你小时候有过什么梦想吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Jone，did you have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> when you was </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Jone, nǐ xiǎo shí hòu yǒu guò shen me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>mèng xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>a little boy?</t>
+  </si>
+  <si>
+    <t>B: 当然有了，我梦想长大后做一名飞行员，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Of course, I did. I dreamed to be a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pilot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> when I grow up.</t>
+    </r>
+  </si>
+  <si>
+    <t>不过遗憾的是，我没有实现儿时的梦想。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">But </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>unfortunately</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, I didn’t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>realize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dāng rán yǒu le ，wǒ mèng xiǎng zhǎng dà hòu zuò yī míng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fēi xing yuán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bú guò </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yí hàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de shì ，wǒ méi yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shí xiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ér shí de mèng xiǎng 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我也是如此，我小时候的梦想是做一名伟大的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I had the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>same experience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with you. When I was a little boy.</t>
+    </r>
+  </si>
+  <si>
+    <t>科学家，但是现在只是普通的办公职员。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I Dreamed to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a great</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>scientist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. But now you see, i’m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">just a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>common</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> office clerk.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ yě shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>rú cǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ xiǎo shí hòu de mèng xiǎng shì zuò yī míng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wěi dà de </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kē xué jiā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，dàn shì xiàn zài zhī shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pǔ tōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de bàn gōng zhí yuán 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好了，忘记这些吧，对了，Steven，你目前有</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: OK, forget about that. Steven, do you have some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>practical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dreams </t>
+    </r>
+  </si>
+  <si>
+    <t>什么实际的梦想吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>at present</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo le ，wàng jì zhè xiē ba ，duì le ，Steven，nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mù qián</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shen me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shí jì de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mèng xiǎng ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 有，我正在努力学习英文，我想成为一名翻译。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I do. Now i’m working hard to learn English, and I want to be an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>interpreter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> someday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yǒu ，wǒ zhèng zài nǔ lì xué xí yīng wén ，wǒ xiǎng chéng wéi yī míng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fān yì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 嗯，你是大有前途的。追逐你的梦想，永不放弃。</t>
+  </si>
+  <si>
+    <t>B: you’re promising, Just follow your dreams and never give up.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">èn ，nǐ shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dà yǒu qián tú de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhuī zhú nǐ de mèng xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yǒng bú fàng qì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1559,13 +2186,83 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF72BF44"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1804,6 +2501,30 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2132,142 +2853,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2277,21 +2997,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2611,192 +3334,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="13"/>
+    <col min="1" max="8" width="2.63888888888889" style="13" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="13" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="13" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="17"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="3:26">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="Z7" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="AA8" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:26">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="12" t="s">
+      <c r="Z10" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:27">
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AA11" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:26">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="12" t="s">
+      <c r="Z13" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:26">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="Z16" s="12" t="s">
+      <c r="D16" s="18"/>
+      <c r="Z16" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="24"/>
+      <c r="W17" s="26"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="24"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="3:26">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="Z19" s="12" t="s">
+      <c r="D19" s="18"/>
+      <c r="Z19" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="27:27">
-      <c r="AA21" s="13"/>
+      <c r="AA21" s="14"/>
     </row>
     <row r="22" spans="3:26">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="Z22" s="12" t="s">
+      <c r="D22" s="27"/>
+      <c r="Z22" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="24"/>
+      <c r="W23" s="26"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="17"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="Z25" s="12" t="s">
+      <c r="D25" s="18"/>
+      <c r="Z25" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:26">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="12" t="s">
+      <c r="Z28" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="4:27">
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AA29" s="12" t="s">
+      <c r="AA29" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:26">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="Z32" s="12" t="s">
+      <c r="D32" s="18"/>
+      <c r="Z32" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2818,254 +3541,254 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="12" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="12" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="12" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="12" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="13"/>
+    <col min="1" max="2" width="2.62962962962963" style="13" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="13" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="13" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="13" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="13" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="15"/>
+      <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="4:20">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="23" t="s">
         <v>46</v>
       </c>
       <c r="AA7" s="19"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="S8" s="12" t="s">
+      <c r="D8" s="14"/>
+      <c r="S8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="AA8" s="19"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="14" t="s">
         <v>51</v>
       </c>
       <c r="X11" s="20"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="M14" s="15"/>
+      <c r="D14" s="17"/>
+      <c r="M14" s="16"/>
       <c r="Q14" s="20"/>
-      <c r="S14" s="12" t="s">
+      <c r="S14" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="S17" s="13" t="s">
+      <c r="D17" s="16"/>
+      <c r="S17" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="12" t="s">
+      <c r="S20" s="16"/>
+      <c r="T20" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="S22" s="12" t="s">
+      <c r="D22" s="16"/>
+      <c r="S22" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="4:20">
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="23" t="s">
         <v>67</v>
       </c>
       <c r="V24" s="21"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="L25" s="19"/>
-      <c r="S25" s="12" t="s">
+      <c r="S25" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="T26" s="12" t="s">
+      <c r="T26" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="17"/>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="S29" s="12" t="s">
+      <c r="S29" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="S32" s="12" t="s">
+      <c r="S32" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="3:19">
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="I35" s="12" t="s">
+      <c r="E35" s="24"/>
+      <c r="I35" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="S35" s="12" t="s">
+      <c r="S35" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="3:19">
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S38" s="12" t="s">
+      <c r="S38" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3081,210 +3804,210 @@
   <sheetPr/>
   <dimension ref="C1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="13" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="13" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="13" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="13" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="13" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="5"/>
+      <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="4:19">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="R7" s="3" t="s">
+      <c r="D7" s="14"/>
+      <c r="R7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AA7" s="8"/>
+      <c r="AA7" s="19"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="AA8" s="8"/>
+      <c r="D8" s="14"/>
+      <c r="AA8" s="19"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="R10" s="1" t="s">
+      <c r="D10" s="16"/>
+      <c r="R10" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="X11" s="9"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="M14" s="5"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="1" t="s">
+      <c r="D14" s="17"/>
+      <c r="M14" s="16"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="3"/>
-      <c r="Z16" s="11"/>
+      <c r="D16" s="14"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="R17" s="3" t="s">
+      <c r="D17" s="16"/>
+      <c r="R17" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="V24" s="10"/>
+      <c r="V24" s="21"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="3"/>
-      <c r="L25" s="8"/>
+      <c r="D25" s="14"/>
+      <c r="L25" s="19"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="18" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3294,4 +4017,186 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AB25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22">
+      <c r="C4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="V4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="4:23">
+      <c r="D5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="3:22">
+      <c r="C7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="V7" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="4:22">
+      <c r="D8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22">
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="4:23">
+      <c r="D12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="4:23">
+      <c r="D13" s="4"/>
+      <c r="W13" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24">
+      <c r="D14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22">
+      <c r="C16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="V16" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="4:23">
+      <c r="D17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="4:28">
+      <c r="D18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB18" s="2"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24">
+      <c r="C20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="V20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X20" s="12"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="4"/>
+      <c r="D21" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="5"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="C23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="V23" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
     <sheet name="20250112" sheetId="5" r:id="rId2"/>
     <sheet name="20250216" sheetId="6" r:id="rId3"/>
     <sheet name="20250223" sheetId="7" r:id="rId4"/>
+    <sheet name="20250309" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="197">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -2174,6 +2175,509 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>A: 怎么了？</t>
+  </si>
+  <si>
+    <t>A: What happened?</t>
+  </si>
+  <si>
+    <t>zěn me le ？</t>
+  </si>
+  <si>
+    <t>B: 是这样的，我的房租快要到期了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: That's it, My </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is up. i have to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>我要搬家了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shì zhè yàng de ，wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fáng zū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> kuài yào dào qī le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bān jiā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 什么？为什么？不能续租吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: What? Why? Can't you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>renew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shen me ？wéi shen me ？bu néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xù zū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 很明显，房东要把这里卖出去赚些钱建</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apparently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is selling this place to </t>
+    </r>
+  </si>
+  <si>
+    <t>停车场。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">make way for the construction of a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>parking lot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hěn míng xiǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fáng dōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yào bǎ zhè lǐ mài chū qù zuàn xiē qián jiàn </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tíng chē chǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 好吧，我可以帮你打包，我们要尽快帮你</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  Well, i can help you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, we should start looking </t>
+    </r>
+  </si>
+  <si>
+    <t>找个新房子。</t>
+  </si>
+  <si>
+    <t>for a new place for you ASAP.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo ba ，wǒ kě yǐ bāng nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dǎ bāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ men yào jìn kuài bāng nǐ </t>
+    </r>
+  </si>
+  <si>
+    <t>zhǎo gè xīn fáng zǐ 。</t>
+  </si>
+  <si>
+    <t>B: 我觉得我可能要搬去跟我的父母住几个月，</t>
+  </si>
+  <si>
+    <t>B:  I think i might move in with my parents for a couple</t>
+  </si>
+  <si>
+    <t>直到我找到房子。</t>
+  </si>
+  <si>
+    <t>of months until i can find something.</t>
+  </si>
+  <si>
+    <t>wǒ jue dé wǒ kě néng yào bān qù gēn wǒ de fù mǔ zhù jǐ gè yuè ，</t>
+  </si>
+  <si>
+    <t>zhí dào wǒ zhǎo dào fáng zǐ 。</t>
+  </si>
+  <si>
+    <t>A: 好的，如果有什么需要我帮忙，你跟我说。</t>
+  </si>
+  <si>
+    <t>A:  Well, let me know if there's anything i can do for you.</t>
+  </si>
+  <si>
+    <t>hǎo de ，rú guǒ yǒu shen me xū yào wǒ bāng máng ，nǐ gēn wǒ shuō 。</t>
+  </si>
+  <si>
+    <t>B: 嗯，你介意帮我照看一下我的宠物蛇几个星期吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Actually, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Would you mind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> looking after my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pet snake</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> èn ，nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiè yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bāng wǒ zhào kàn yī xià wǒ de</t>
+    </r>
+  </si>
+  <si>
+    <t>for a couple of weeks?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chǒng wù shé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jǐ gè xīng qī ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>三人行，必有我师。</t>
+  </si>
+  <si>
+    <t>sān rén xing ，bì yǒu wǒ shī 。</t>
+  </si>
+  <si>
+    <t>Among any three people walking, I will find something to learn for sure.</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2690,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2204,6 +2708,24 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2227,12 +2749,6 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2266,35 +2782,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF1B75BC"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00599D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -2319,42 +2813,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="6.4"/>
-      <color rgb="FF4C4C4C"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -2504,18 +2962,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006C3B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFED1C24"/>
       <name val="等线"/>
       <charset val="1"/>
@@ -2529,6 +2975,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF407927"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006C3B"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -2853,137 +3305,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2992,6 +3444,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3007,14 +3461,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3334,192 +3780,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="13" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="13" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="13" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="14"/>
+    <col min="1" max="8" width="2.63888888888889" style="6" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="6" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="6" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="18"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="3:26">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="Z7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="13" t="s">
+      <c r="AA8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:26">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="13" t="s">
+      <c r="Z10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:27">
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AA11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:26">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="13" t="s">
+      <c r="Z13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:26">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="Z16" s="13" t="s">
+      <c r="D16" s="9"/>
+      <c r="Z16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="26"/>
+      <c r="W17" s="16"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="26"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="3:26">
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="Z19" s="13" t="s">
+      <c r="D19" s="9"/>
+      <c r="Z19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="27:27">
-      <c r="AA21" s="14"/>
+      <c r="AA21" s="7"/>
     </row>
     <row r="22" spans="3:26">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="Z22" s="13" t="s">
+      <c r="D22" s="14"/>
+      <c r="Z22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="26"/>
+      <c r="W23" s="16"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="18"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="Z25" s="13" t="s">
+      <c r="D25" s="9"/>
+      <c r="Z25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:26">
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="13" t="s">
+      <c r="Z28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="4:27">
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AA29" s="13" t="s">
+      <c r="AA29" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:26">
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="Z32" s="13" t="s">
+      <c r="D32" s="9"/>
+      <c r="Z32" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3541,254 +3987,254 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="13" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="13" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="13" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="13" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="13" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="14"/>
+    <col min="1" max="2" width="2.62962962962963" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="6" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="6" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="6" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="6" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="16"/>
+      <c r="Z2" s="13"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="4:20">
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="AA7" s="19"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="S8" s="13" t="s">
+      <c r="D8" s="7"/>
+      <c r="S8" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AA8" s="19"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="16"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="7" t="s">
         <v>51</v>
       </c>
       <c r="X11" s="20"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="14"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="M14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="M14" s="13"/>
       <c r="Q14" s="20"/>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="14"/>
+      <c r="D16" s="7"/>
       <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="S17" s="14" t="s">
+      <c r="D17" s="13"/>
+      <c r="S17" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="14" t="s">
+      <c r="T18" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="13" t="s">
+      <c r="S20" s="13"/>
+      <c r="T20" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="S22" s="13" t="s">
+      <c r="D22" s="13"/>
+      <c r="S22" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="4:20">
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T23" s="16" t="s">
+      <c r="T23" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="11" t="s">
         <v>67</v>
       </c>
       <c r="V24" s="21"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="7"/>
       <c r="L25" s="19"/>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="T26" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="18"/>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="S32" s="13" t="s">
+      <c r="S32" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="3:19">
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="I35" s="13" t="s">
+      <c r="E35" s="10"/>
+      <c r="I35" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="S35" s="13" t="s">
+      <c r="S35" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="3:19">
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S38" s="13" t="s">
+      <c r="S38" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3810,204 +4256,204 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="13" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="13" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="13" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="13" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="13" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="14"/>
+    <col min="1" max="2" width="2.62962962962963" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="6" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="6" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="6" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="6" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="16"/>
+      <c r="Z2" s="13"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="4:19">
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="R7" s="14" t="s">
+      <c r="D7" s="7"/>
+      <c r="R7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="AA7" s="19"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="7"/>
       <c r="AA8" s="19"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="R10" s="13" t="s">
+      <c r="D10" s="13"/>
+      <c r="R10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="S11" s="13" t="s">
         <v>102</v>
       </c>
       <c r="X11" s="20"/>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="M14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="M14" s="13"/>
       <c r="Q14" s="20"/>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="14"/>
+      <c r="D16" s="7"/>
       <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="R17" s="14" t="s">
+      <c r="D17" s="13"/>
+      <c r="R17" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="R19" s="14" t="s">
+      <c r="R19" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="S20" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="14" t="s">
+      <c r="R23" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="7" t="s">
         <v>119</v>
       </c>
       <c r="V24" s="21"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="14"/>
+      <c r="D25" s="7"/>
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="9" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4024,54 +4470,54 @@
   <sheetPr/>
   <dimension ref="C2:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="6" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="6" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="6" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="V4" s="1" t="s">
+      <c r="D4" s="8"/>
+      <c r="V4" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="4:23">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="5"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="V7" s="1" t="s">
+      <c r="D7" s="11"/>
+      <c r="V7" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4079,120 +4525,335 @@
       <c r="D8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="3:22">
+      <c r="C11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="4:23">
+      <c r="D12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="4:23">
+      <c r="D13" s="9"/>
+      <c r="W13" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24">
+      <c r="D14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="W14" s="7"/>
+      <c r="X14" s="16"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22">
+      <c r="C16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="V16" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="4:23">
+      <c r="D17" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="4:28">
+      <c r="D18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24">
+      <c r="C20" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="V20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="X20" s="16"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="9"/>
+      <c r="D21" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="10"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="C23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="V23" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AA33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="4:23">
-      <c r="D12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="4:23">
-      <c r="D13" s="4"/>
-      <c r="W13" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="4:24">
-      <c r="D14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="12"/>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22">
-      <c r="C16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="V16" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="4:23">
-      <c r="D17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="4:28">
-      <c r="D18" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="3:24">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="C18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
       <c r="C20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="V20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="X20" s="12"/>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="4"/>
-      <c r="D21" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="5"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="3:22">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="C22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="V23" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25">
+      <c r="B28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="C29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="2:25">
+      <c r="B33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="20250216" sheetId="6" r:id="rId3"/>
     <sheet name="20250223" sheetId="7" r:id="rId4"/>
     <sheet name="20250309" sheetId="8" r:id="rId5"/>
+    <sheet name="20250316" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="243">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -2678,6 +2679,616 @@
   </si>
   <si>
     <t>Among any three people walking, I will find something to learn for sure.</t>
+  </si>
+  <si>
+    <t>A: 下午好，我能为你做些什么吗？</t>
+  </si>
+  <si>
+    <t>A: good afternoon, What can i do for you?</t>
+  </si>
+  <si>
+    <t>xià wǔ hǎo ，wǒ néng wéi nǐ zuò xiē shen me ma ？</t>
+  </si>
+  <si>
+    <t>B: 我想要办理登记入住手续，我用</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: i'd like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>check in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> please. I have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>reservation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Roberts的名字，做了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>预定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>under the name Roberts.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ xiǎng yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bàn lǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dēng jì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>rù zhù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> shǒu xù ，wǒ yòng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Roberts de míng zì ，zuò le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yù dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 好的，R.O.B.E.R.T.S, 找到了。Boberts</t>
+  </si>
+  <si>
+    <t>A: All right. ROBERTS, Oh Mr Roberts, we've been</t>
+  </si>
+  <si>
+    <t>先生，我们一直期盼你的到来。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>expecting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> you... and here is you key card to the </t>
+    </r>
+  </si>
+  <si>
+    <t>这是你总统套房的门卡。</t>
+  </si>
+  <si>
+    <t>presidential suite.</t>
+  </si>
+  <si>
+    <t>hǎo de ，R.O.B.E.R.T.S, zhǎo dào le 。Boberts</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">xiān shēng ，wǒ men yī zhí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>qī pàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ de dào lái 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhè shì nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zǒng tǒng tào fáng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de mén kǎ</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 这一定弄错了，我预定的是标间。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: But there </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> be some mistake. My reservation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yī dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nòng cuò le ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">was for a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>stand room</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ yù dìng de shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>biāo jiān</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你确定吗？我在核对一下。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A:  Are you sure? Let me double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ què dìng ma ？wǒ zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hé duì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 嗯，你看。这是我的预定验证码。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: Yeah. here. This is my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>confirmation number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">èn ，nǐ kàn 。zhè shì wǒ de yù dìng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yàn zhèng mǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 是这样的，Roberts，很遗憾，我们的标间</t>
+  </si>
+  <si>
+    <t>A:  You're right, unfortunately, we are overbooked</t>
+  </si>
+  <si>
+    <t>现在已经客房满了。</t>
+  </si>
+  <si>
+    <t>at the moment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shì zhè yàng de ，Roberts，hěn yí hàn ，wǒ men de biāo jiān </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiàn zài yǐ jīng kè fáng mǎn le </t>
+  </si>
+  <si>
+    <t>B: 那么。。。</t>
+  </si>
+  <si>
+    <t>B: So...</t>
+  </si>
+  <si>
+    <t>nà me 。。。</t>
+  </si>
+  <si>
+    <t>A: 不用担心，我们很高兴为你提供免费升级。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  not to worry. we're pleased to offer you a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>complimentary</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bú yòng dān xīn ，wǒ men hěn gāo xìng </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>upgrade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wéi nǐ tí gòng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>miǎn fèi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shēng jí </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 总统套房啊。</t>
+  </si>
+  <si>
+    <t>B: Presidential suite baby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zǒng tǒng tào fáng ā </t>
   </si>
 </sst>
 </file>
@@ -2690,7 +3301,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2711,27 +3322,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FFCE181E"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2746,7 +3345,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF407927"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A65D"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -2755,12 +3408,6 @@
       <color rgb="FF72BF44"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2789,30 +3436,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00599D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00864B"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF407927"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00A65D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -2962,7 +3585,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
+      <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -2980,9 +3609,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006C3B"/>
+      <color rgb="FFED1C24"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3305,147 +3934,146 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3454,13 +4082,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3780,192 +4421,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="6" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="6" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="6" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="7"/>
+    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="9"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="3:26">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="Z7" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AA8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:26">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="6" t="s">
+      <c r="Z10" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:27">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="6" t="s">
+      <c r="AA11" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:26">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="6" t="s">
+      <c r="Z13" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:26">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="Z16" s="6" t="s">
+      <c r="D16" s="21"/>
+      <c r="Z16" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="16"/>
+      <c r="W17" s="28"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="16"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="3:26">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="Z19" s="6" t="s">
+      <c r="D19" s="21"/>
+      <c r="Z19" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="27:27">
-      <c r="AA21" s="7"/>
+      <c r="AA21" s="16"/>
     </row>
     <row r="22" spans="3:26">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="Z22" s="6" t="s">
+      <c r="D22" s="26"/>
+      <c r="Z22" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="16"/>
+      <c r="W23" s="28"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="9"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="Z25" s="6" t="s">
+      <c r="D25" s="21"/>
+      <c r="Z25" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:26">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="6" t="s">
+      <c r="Z28" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="4:27">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA29" s="6" t="s">
+      <c r="AA29" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:26">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="Z32" s="6" t="s">
+      <c r="D32" s="21"/>
+      <c r="Z32" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3987,254 +4628,254 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="6" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="6" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="6" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="6" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="15" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="13"/>
+      <c r="Z2" s="25"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="4:20">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="19"/>
+      <c r="AA7" s="31"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="S8" s="6" t="s">
+      <c r="D8" s="16"/>
+      <c r="S8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="31"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="13"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="X11" s="20"/>
+      <c r="X11" s="32"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="M14" s="13"/>
-      <c r="Q14" s="20"/>
-      <c r="S14" s="6" t="s">
+      <c r="D14" s="30"/>
+      <c r="M14" s="25"/>
+      <c r="Q14" s="32"/>
+      <c r="S14" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="7"/>
-      <c r="Z16" s="22"/>
+      <c r="D16" s="16"/>
+      <c r="Z16" s="34"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="S17" s="7" t="s">
+      <c r="D17" s="25"/>
+      <c r="S17" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="6" t="s">
+      <c r="S20" s="25"/>
+      <c r="T20" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="S22" s="6" t="s">
+      <c r="D22" s="25"/>
+      <c r="S22" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="4:20">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="V24" s="21"/>
+      <c r="V24" s="33"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="L25" s="19"/>
-      <c r="S25" s="6" t="s">
+      <c r="D25" s="16"/>
+      <c r="L25" s="31"/>
+      <c r="S25" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="T26" s="6" t="s">
+      <c r="T26" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="9"/>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="S29" s="6" t="s">
+      <c r="S29" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="S32" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="3:19">
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="I35" s="6" t="s">
+      <c r="E35" s="22"/>
+      <c r="I35" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="S35" s="6" t="s">
+      <c r="S35" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="3:19">
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="S38" s="6" t="s">
+      <c r="S38" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4256,204 +4897,204 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="6" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="6" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="6" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="6" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="15" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="13"/>
+      <c r="Z2" s="25"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="4:19">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="R7" s="7" t="s">
+      <c r="D7" s="16"/>
+      <c r="R7" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="AA7" s="19"/>
+      <c r="AA7" s="31"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="AA8" s="19"/>
+      <c r="D8" s="16"/>
+      <c r="AA8" s="31"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="R10" s="6" t="s">
+      <c r="D10" s="25"/>
+      <c r="R10" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="X11" s="20"/>
+      <c r="X11" s="32"/>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="M14" s="13"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="6" t="s">
+      <c r="D14" s="30"/>
+      <c r="M14" s="25"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="7"/>
-      <c r="Z16" s="22"/>
+      <c r="D16" s="16"/>
+      <c r="Z16" s="34"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="R17" s="7" t="s">
+      <c r="D17" s="25"/>
+      <c r="R17" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="S20" s="25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="V24" s="21"/>
+      <c r="V24" s="33"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="7"/>
-      <c r="L25" s="19"/>
+      <c r="D25" s="16"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="R26" s="15" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="S27" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="21" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4476,167 +5117,167 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="6" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="6" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="6" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="7"/>
+    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="V4" s="6" t="s">
+      <c r="D4" s="20"/>
+      <c r="V4" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="4:23">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="V7" s="6" t="s">
+      <c r="D7" s="23"/>
+      <c r="V7" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="4:22">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="15" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="4:23">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="W12" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="9"/>
-      <c r="W13" s="6" t="s">
+      <c r="D13" s="21"/>
+      <c r="W13" s="15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="W14" s="7"/>
-      <c r="X14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="28"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="3:22">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="V16" s="6" t="s">
+      <c r="D16" s="25"/>
+      <c r="V16" s="15" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="W17" s="16" t="s">
+      <c r="W17" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="18" spans="4:28">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="AB18" s="7"/>
+      <c r="AB18" s="16"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="V20" s="6" t="s">
+      <c r="D20" s="27"/>
+      <c r="V20" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="16"/>
+      <c r="X20" s="28"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="9"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="10"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="22"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="3:22">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="V23" s="6" t="s">
+      <c r="D23" s="21"/>
+      <c r="V23" s="15" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="15" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4652,209 +5293,465 @@
   <sheetPr/>
   <dimension ref="B1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="15" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
+      <c r="C2" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="W13" s="19"/>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="C18" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA18" s="17"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="C22" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25">
+      <c r="B28" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="T28" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y28" s="17"/>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="C29" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="S32" s="17"/>
+    </row>
+    <row r="33" spans="2:25">
+      <c r="B33" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y33" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AC47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1027" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:20">
       <c r="C2" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
+        <v>197</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="3:29">
+      <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="T5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC5" s="8"/>
+    </row>
+    <row r="6" spans="4:29">
+      <c r="D6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC6" s="8"/>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26">
       <c r="C9" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20">
-      <c r="B10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23">
-      <c r="B13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="3:21">
-      <c r="C14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27">
+        <v>206</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" spans="4:21">
+      <c r="D10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="4:21">
+      <c r="D11" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19">
+      <c r="D12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="4:28">
+      <c r="D14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB14" s="14"/>
+    </row>
+    <row r="15" spans="3:20">
+      <c r="C15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="T15" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="4:21">
+      <c r="D16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21">
       <c r="C18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA18" s="3"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21">
-      <c r="C22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
+        <v>220</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="T18" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="3:22">
+      <c r="C21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="4:24">
+      <c r="D22" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" s="12"/>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="D23" s="3"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="3:20">
       <c r="C24" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25">
-      <c r="B28" s="1" t="s">
-        <v>189</v>
+        <v>226</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21">
+      <c r="C25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="6"/>
+      <c r="D26" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20">
+      <c r="C28" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="3:21">
-      <c r="C29" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="B32" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="S32" s="3"/>
-    </row>
-    <row r="33" spans="2:25">
-      <c r="B33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y33" s="3"/>
-    </row>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20">
+      <c r="C31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="4:21">
+      <c r="D32" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="3:20">
+      <c r="C34" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" ht="17.85" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="5"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="20250223" sheetId="7" r:id="rId4"/>
     <sheet name="20250309" sheetId="8" r:id="rId5"/>
     <sheet name="20250316" sheetId="9" r:id="rId6"/>
+    <sheet name="20250323" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="276">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -3289,6 +3290,372 @@
   </si>
   <si>
     <t xml:space="preserve">zǒng tǒng tào fáng ā </t>
+  </si>
+  <si>
+    <t>hen-pecked husband</t>
+  </si>
+  <si>
+    <t>A: 你的妻子上班吗？</t>
+  </si>
+  <si>
+    <t>A:Does your wife work?</t>
+  </si>
+  <si>
+    <t>nǐ de qī zǐ shàng bān ma ？</t>
+  </si>
+  <si>
+    <t>B: 是的。她在家里上班。</t>
+  </si>
+  <si>
+    <t>B: Yes, she does. She works at home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shì de 。tā zài jiā lǐ shàng bān 。</t>
+  </si>
+  <si>
+    <t>A: 喔，我明白了。她做饭，打扫卫生，照顾孩子，是吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Oh, i understand. She cooks, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cleans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and take care</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>wō ，wǒ míng bái le 。tā zuò fàn ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dǎ sǎo wèi shēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t>of the children. Is that right?</t>
+  </si>
+  <si>
+    <t>zhào gù hái zǐ ，shì ma ？</t>
+  </si>
+  <si>
+    <t>B: 喔不， 大多数时间是我干这些活。她是一个作家。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Oh, no. Most of the time i do these things. She is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>writer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>wō bú ， dà duō shù shí jiān shì wǒ gàn zhè xiē huó 。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tā shì yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zuò jiā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你真是一个妻管严。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: You are really a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hen-pecked husband</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ zhēn shì yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>qī guǎn yán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>Hard nut</t>
+  </si>
+  <si>
+    <t>A: Bob 拒绝了班上所有人的邀请。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:Bob refused all his classmate's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>invitation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bob jù jué le bān shàng suǒ yǒu rén de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yāo qǐng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。 </t>
+    </r>
+  </si>
+  <si>
+    <t>B:我真的不明白他这个人。</t>
+  </si>
+  <si>
+    <t>B: i really could not understand him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ zhēn de bú míng bái tā zhè gè rén </t>
+  </si>
+  <si>
+    <t>A:他真的是一个脑子不开窍的人，没人愿意接近她。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: He's surely a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hard nut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. Nobody likes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>approaching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> him.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tā zhēn de shì yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nǎo zǐ bú kāi qiào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de rén ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">méi rén yuàn yì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiē jìn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tā 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B:我们最好别惹他。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: We'd better also </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>leave him alone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ men zuì hǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bié rě tā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3585,12 +3952,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006C3B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
@@ -3603,15 +3964,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF407927"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006C3B"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
+      <color rgb="FF407927"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4064,12 +4431,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -4082,26 +4448,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4421,192 +4776,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="21"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="3:26">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="15" t="s">
+      <c r="Z7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AA8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:26">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="15" t="s">
+      <c r="Z10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:27">
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="15" t="s">
+      <c r="AA11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:26">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="15" t="s">
+      <c r="Z13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:26">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="Z16" s="15" t="s">
+      <c r="D16" s="5"/>
+      <c r="Z16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="28"/>
+      <c r="W17" s="20"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="28"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="3:26">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="Z19" s="15" t="s">
+      <c r="D19" s="5"/>
+      <c r="Z19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="27:27">
-      <c r="AA21" s="16"/>
+      <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="3:26">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="Z22" s="15" t="s">
+      <c r="D22" s="18"/>
+      <c r="Z22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="28"/>
+      <c r="W23" s="20"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="21"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="Z25" s="15" t="s">
+      <c r="D25" s="5"/>
+      <c r="Z25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:26">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="15" t="s">
+      <c r="Z28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="4:27">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA29" s="15" t="s">
+      <c r="AA29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:26">
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="Z32" s="15" t="s">
+      <c r="D32" s="5"/>
+      <c r="Z32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4628,254 +4983,254 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="15" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="25"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="4:20">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="31"/>
+      <c r="AA7" s="7"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="S8" s="15" t="s">
+      <c r="D8" s="2"/>
+      <c r="S8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA8" s="31"/>
+      <c r="AA8" s="7"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="25"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="S11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="X11" s="32"/>
+      <c r="X11" s="10"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="16"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="M14" s="25"/>
-      <c r="Q14" s="32"/>
-      <c r="S14" s="15" t="s">
+      <c r="D14" s="22"/>
+      <c r="M14" s="4"/>
+      <c r="Q14" s="10"/>
+      <c r="S14" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="16"/>
-      <c r="Z16" s="34"/>
+      <c r="D16" s="2"/>
+      <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="S17" s="16" t="s">
+      <c r="D17" s="4"/>
+      <c r="S17" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="T18" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S20" s="25"/>
-      <c r="T20" s="15" t="s">
+      <c r="S20" s="4"/>
+      <c r="T20" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="S22" s="15" t="s">
+      <c r="D22" s="4"/>
+      <c r="S22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="4:20">
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="T23" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="V24" s="33"/>
+      <c r="V24" s="11"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="L25" s="31"/>
-      <c r="S25" s="15" t="s">
+      <c r="D25" s="2"/>
+      <c r="L25" s="7"/>
+      <c r="S25" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="T26" s="15" t="s">
+      <c r="T26" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="21"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S29" s="15" t="s">
+      <c r="S29" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S32" s="15" t="s">
+      <c r="S32" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="3:19">
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="I35" s="15" t="s">
+      <c r="E35" s="6"/>
+      <c r="I35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S35" s="15" t="s">
+      <c r="S35" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="3:19">
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S38" s="15" t="s">
+      <c r="S38" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4897,204 +5252,204 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="15" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="25"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="4:19">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="R7" s="16" t="s">
+      <c r="D7" s="2"/>
+      <c r="R7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AA7" s="31"/>
+      <c r="AA7" s="7"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="AA8" s="31"/>
+      <c r="D8" s="2"/>
+      <c r="AA8" s="7"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="R10" s="15" t="s">
+      <c r="D10" s="4"/>
+      <c r="R10" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="X11" s="32"/>
+      <c r="X11" s="10"/>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="M14" s="25"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="15" t="s">
+      <c r="D14" s="22"/>
+      <c r="M14" s="4"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="16"/>
-      <c r="Z16" s="34"/>
+      <c r="D16" s="2"/>
+      <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="R17" s="16" t="s">
+      <c r="D17" s="4"/>
+      <c r="R17" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R19" s="16" t="s">
+      <c r="R19" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="16" t="s">
+      <c r="R23" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="V24" s="33"/>
+      <c r="V24" s="11"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="16"/>
-      <c r="L25" s="31"/>
+      <c r="D25" s="2"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="15" t="s">
+      <c r="R26" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="15" t="s">
+      <c r="S27" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="5" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5117,167 +5472,167 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="V4" s="15" t="s">
+      <c r="D4" s="16"/>
+      <c r="V4" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="4:23">
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="22"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="V7" s="15" t="s">
+      <c r="D7" s="3"/>
+      <c r="V7" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="4:22">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="V8" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="4:23">
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="W12" s="15" t="s">
+      <c r="W12" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="21"/>
-      <c r="W13" s="15" t="s">
+      <c r="D13" s="5"/>
+      <c r="W13" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="W14" s="16"/>
-      <c r="X14" s="28"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="20"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="3:22">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="V16" s="15" t="s">
+      <c r="D16" s="4"/>
+      <c r="V16" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="W17" s="28" t="s">
+      <c r="W17" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="18" spans="4:28">
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AB18" s="16"/>
+      <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="V20" s="15" t="s">
+      <c r="D20" s="19"/>
+      <c r="V20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="28"/>
+      <c r="X20" s="20"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="21"/>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="22"/>
-      <c r="F22" s="16"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="3:22">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="V23" s="15" t="s">
+      <c r="D23" s="5"/>
+      <c r="V23" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5299,202 +5654,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="15" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="W13" s="19"/>
+      <c r="W13" s="12"/>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="3:27">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="U18" s="15" t="s">
+      <c r="U18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AA18" s="17"/>
+      <c r="AA18" s="14"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="22" spans="3:21">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="U22" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="T25" s="15" t="s">
+      <c r="T25" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="28" spans="2:25">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="T28" s="15" t="s">
+      <c r="T28" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Y28" s="17"/>
+      <c r="Y28" s="14"/>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="U29" s="15" t="s">
+      <c r="U29" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="S32" s="17"/>
+      <c r="S32" s="14"/>
     </row>
     <row r="33" spans="2:25">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Y33" s="17"/>
+      <c r="Y33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5508,7 +5863,7 @@
   <sheetPr/>
   <dimension ref="C1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -5536,39 +5891,39 @@
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="3:29">
       <c r="C5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="T5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="T5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AC5" s="8"/>
+      <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="4:29">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>202</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AC6" s="8"/>
+      <c r="AC6" s="7"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5579,62 +5934,62 @@
       <c r="T9" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="U9" s="3"/>
-      <c r="Z9" s="11"/>
+      <c r="U9" s="2"/>
+      <c r="Z9" s="10"/>
     </row>
     <row r="10" spans="4:21">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="4:21">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="S12" s="11"/>
+      <c r="M12" s="4"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="14" spans="4:28">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AB14" s="14"/>
+      <c r="AB14" s="13"/>
     </row>
     <row r="15" spans="3:20">
       <c r="C15" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="T15" s="3" t="s">
+      <c r="D15" s="4"/>
+      <c r="T15" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="U16" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5642,39 +5997,39 @@
       <c r="C18" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="T18" s="3" t="s">
+      <c r="D18" s="2"/>
+      <c r="T18" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="U18" s="5"/>
+      <c r="U18" s="4"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="3:22">
       <c r="C21" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="V21" s="5"/>
+      <c r="V21" s="4"/>
     </row>
     <row r="22" spans="4:24">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="X22" s="12"/>
+      <c r="X22" s="11"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="3"/>
-      <c r="L23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="3:20">
       <c r="C24" s="1" t="s">
@@ -5693,7 +6048,7 @@
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
         <v>230</v>
       </c>
@@ -5728,7 +6083,7 @@
       <c r="D32" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="U32" s="13" t="s">
+      <c r="U32" s="12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5736,7 +6091,7 @@
       <c r="D33" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="3:20">
       <c r="C34" s="1" t="s">
@@ -5750,6 +6105,226 @@
       <c r="D35" s="1" t="s">
         <v>242</v>
       </c>
+    </row>
+    <row r="47" ht="17.85" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AC47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1027" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="3:23">
+      <c r="C3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="W3" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="4:29">
+      <c r="D5" s="3"/>
+      <c r="T5" s="2"/>
+      <c r="AC5" s="7"/>
+    </row>
+    <row r="6" spans="3:29">
+      <c r="C6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="W6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC6" s="7"/>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="3:26">
+      <c r="C9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="W9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z9" s="10"/>
+    </row>
+    <row r="10" spans="4:24">
+      <c r="D10" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="U10" s="8"/>
+      <c r="X10" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="4:21">
+      <c r="D11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="3:23">
+      <c r="C12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="M12" s="4"/>
+      <c r="S12" s="10"/>
+      <c r="W12" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="4:28">
+      <c r="D14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB14" s="13"/>
+    </row>
+    <row r="15" spans="3:23">
+      <c r="C15" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="T15" s="2"/>
+      <c r="W15" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="4:21">
+      <c r="D16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:21">
+      <c r="D18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="3:23">
+      <c r="C19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="W19" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="2"/>
+      <c r="D20" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="20:22">
+      <c r="T21" s="2"/>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="3:24">
+      <c r="C22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="W22" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="X22" s="11"/>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="D23" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="25" spans="3:23">
+      <c r="C25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="5"/>
+      <c r="D26" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23">
+      <c r="C28" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="21:21">
+      <c r="U32" s="12"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="6"/>
     </row>
     <row r="47" ht="17.85" customHeight="1"/>
   </sheetData>

--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="6"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="20250309" sheetId="8" r:id="rId5"/>
     <sheet name="20250316" sheetId="9" r:id="rId6"/>
     <sheet name="20250323" sheetId="10" r:id="rId7"/>
+    <sheet name="20250330" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="293">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -3317,6 +3318,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Oh, i understand. She cooks, </t>
     </r>
     <r>
@@ -3339,6 +3345,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t>wō ，wǒ míng bái le 。tā zuò fàn ，</t>
     </r>
     <r>
@@ -3371,6 +3383,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Oh, no. Most of the time i do these things. She is a </t>
     </r>
     <r>
@@ -3396,6 +3413,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">tā shì yī gè </t>
     </r>
     <r>
@@ -3422,6 +3445,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: You are really a </t>
     </r>
     <r>
@@ -3444,6 +3472,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">nǐ zhēn shì yī gè </t>
     </r>
     <r>
@@ -3473,6 +3507,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:Bob refused all his classmate's </t>
     </r>
     <r>
@@ -3495,6 +3534,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Bob jù jué le bān shàng suǒ yǒu rén de </t>
     </r>
     <r>
@@ -3529,6 +3573,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: He's surely a </t>
     </r>
     <r>
@@ -3568,6 +3617,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tā zhēn de shì yī gè </t>
     </r>
     <r>
@@ -3590,6 +3644,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">méi rén yuàn yì </t>
     </r>
     <r>
@@ -3615,6 +3674,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: We'd better also </t>
     </r>
     <r>
@@ -3637,6 +3701,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ men zuì hǎo </t>
     </r>
     <r>
@@ -3656,6 +3725,429 @@
       </rPr>
       <t xml:space="preserve"> 。</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>啊，有段时间没有看到你了。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tiān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ā ，yǒu duàn shí jiān méi yǒu kàn dào nǐ le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B: 是啊，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>离开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了两个月。很高兴见到你，你最近怎么样。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Yeah. i’ve </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">been away </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">for the past two months. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shì ā ，wǒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> lí kāi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le liǎng gè yuè 。hěn gāo xìng jiàn dào nǐ ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A: 我很好，谢谢。你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晒黑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了，你看起来很健康，你这段时间去哪了？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A: Very well. Thanks. And you’re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> looking brown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ hěn hǎo ，xiè xiè 。nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shài hēi le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，ni kàn qǐ lái hěn jiàn kāng ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B: 杭州，我在那儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的很开心。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">háng zhōu ，wǒ zài nà ér </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de hěn kāi xīn 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B: 我每天都去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游泳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和跑步。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: I went </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>swimming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and jogging everyday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ měi tiān dōu qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yóu yǒng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hé pǎo bù </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B: 是的，我有时候还去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爬山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Yes, and sometimes I went </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>climbing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shì de ，wǒ yǒu shí hòu hái qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>pá shān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>zhēn yǒu yì sī ，huí tóu nǐ dé3i gěi wǒ hǎo hǎo jiǎng jiǎng 。</t>
   </si>
 </sst>
 </file>
@@ -3668,13 +4160,65 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3952,15 +4496,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3970,13 +4520,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006C3B"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF407927"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -4301,149 +4857,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -4457,6 +5013,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4776,192 +5341,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="10" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="5"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:26">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:26">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Z10" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:27">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:26">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Z13" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:26">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="Z16" s="1" t="s">
+      <c r="D16" s="14"/>
+      <c r="Z16" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="20"/>
+      <c r="W17" s="29"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="20"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="3:26">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="Z19" s="1" t="s">
+      <c r="D19" s="14"/>
+      <c r="Z19" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="27:27">
-      <c r="AA21" s="2"/>
+      <c r="AA21" s="11"/>
     </row>
     <row r="22" spans="3:26">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="Z22" s="1" t="s">
+      <c r="D22" s="27"/>
+      <c r="Z22" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="20"/>
+      <c r="W23" s="29"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="5"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="Z25" s="1" t="s">
+      <c r="D25" s="14"/>
+      <c r="Z25" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:26">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Z28" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="4:27">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AA29" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:26">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="Z32" s="1" t="s">
+      <c r="D32" s="14"/>
+      <c r="Z32" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4983,254 +5548,254 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="10" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="4"/>
+      <c r="Z2" s="13"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="4:20">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="S8" s="1" t="s">
+      <c r="D8" s="11"/>
+      <c r="S8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="4"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="X11" s="10"/>
+      <c r="X11" s="19"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="M14" s="4"/>
-      <c r="Q14" s="10"/>
-      <c r="S14" s="1" t="s">
+      <c r="D14" s="31"/>
+      <c r="M14" s="13"/>
+      <c r="Q14" s="19"/>
+      <c r="S14" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2"/>
-      <c r="Z16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="S17" s="2" t="s">
+      <c r="D17" s="13"/>
+      <c r="S17" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="1" t="s">
+      <c r="S20" s="13"/>
+      <c r="T20" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="S22" s="1" t="s">
+      <c r="D22" s="13"/>
+      <c r="S22" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="4:20">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="T23" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="V24" s="11"/>
+      <c r="V24" s="20"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="L25" s="7"/>
-      <c r="S25" s="1" t="s">
+      <c r="D25" s="11"/>
+      <c r="L25" s="16"/>
+      <c r="S25" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="5"/>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="3:19">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="I35" s="1" t="s">
+      <c r="E35" s="15"/>
+      <c r="I35" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="S35" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="3:19">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="S38" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5252,204 +5817,204 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="10" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="4"/>
+      <c r="Z2" s="13"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="4:19">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="R7" s="2" t="s">
+      <c r="D7" s="11"/>
+      <c r="R7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="AA8" s="7"/>
+      <c r="D8" s="11"/>
+      <c r="AA8" s="16"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="R10" s="1" t="s">
+      <c r="D10" s="13"/>
+      <c r="R10" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="X11" s="10"/>
+      <c r="X11" s="19"/>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="M14" s="4"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="1" t="s">
+      <c r="D14" s="31"/>
+      <c r="M14" s="13"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2"/>
-      <c r="Z16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="R17" s="2" t="s">
+      <c r="D17" s="13"/>
+      <c r="R17" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="V24" s="11"/>
+      <c r="V24" s="20"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="2"/>
-      <c r="L25" s="7"/>
+      <c r="D25" s="11"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="14" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5472,167 +6037,167 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="10" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="V4" s="1" t="s">
+      <c r="D4" s="25"/>
+      <c r="V4" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="4:23">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="6"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="V7" s="1" t="s">
+      <c r="D7" s="12"/>
+      <c r="V7" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="4:22">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="4:23">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="5"/>
-      <c r="W13" s="1" t="s">
+      <c r="D13" s="14"/>
+      <c r="W13" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="20"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="29"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="26" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="3:22">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="V16" s="1" t="s">
+      <c r="D16" s="13"/>
+      <c r="V16" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="W17" s="20" t="s">
+      <c r="W17" s="29" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="18" spans="4:28">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="11"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="27" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="V20" s="1" t="s">
+      <c r="D20" s="28"/>
+      <c r="V20" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="20"/>
+      <c r="X20" s="29"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="5"/>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="6"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="15"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="3:22">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="V23" s="1" t="s">
+      <c r="D23" s="14"/>
+      <c r="V23" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="10" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5654,202 +6219,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="10" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="10" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="W13" s="12"/>
+      <c r="W13" s="21"/>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="23" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="24" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="3:27">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="AA18" s="14"/>
+      <c r="AA18" s="23"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="22" spans="3:21">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="28" spans="2:25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="Y28" s="14"/>
+      <c r="Y28" s="23"/>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="S32" s="14"/>
+      <c r="S32" s="23"/>
     </row>
     <row r="33" spans="2:25">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="Y33" s="14"/>
+      <c r="Y33" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5869,240 +6434,240 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1027" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="10" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
+    <col min="10" max="1027" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:20">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="3"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="3:29">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="T5" s="2" t="s">
+      <c r="D5" s="12"/>
+      <c r="T5" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="AC5" s="7"/>
+      <c r="AC5" s="16"/>
     </row>
     <row r="6" spans="4:29">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="16"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="3:26">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="Z9" s="10"/>
+      <c r="U9" s="11"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="4:21">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="U10" s="17" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="4:21">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="18" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="S12" s="10"/>
+      <c r="M12" s="13"/>
+      <c r="S12" s="19"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="14" spans="4:28">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="AB14" s="13"/>
+      <c r="AB14" s="22"/>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="T15" s="2" t="s">
+      <c r="D15" s="13"/>
+      <c r="T15" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="11" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="T18" s="2" t="s">
+      <c r="D18" s="11"/>
+      <c r="T18" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="U18" s="4"/>
+      <c r="U18" s="13"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="11" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="V21" s="4"/>
+      <c r="V21" s="13"/>
     </row>
     <row r="22" spans="4:24">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="X22" s="11"/>
+      <c r="X22" s="20"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="2"/>
-      <c r="L23" s="7"/>
+      <c r="D23" s="11"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="25" spans="3:21">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="U25" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="5"/>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:20">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="32" spans="4:21">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="U32" s="12" t="s">
+      <c r="U32" s="21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="10" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6119,212 +6684,212 @@
   <sheetPr/>
   <dimension ref="C1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1027" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="10" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
+    <col min="10" max="1027" width="2.62962962962963" style="10" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="3" spans="3:23">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="W3" s="1" t="s">
+      <c r="D3" s="11"/>
+      <c r="W3" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="4:29">
-      <c r="D5" s="3"/>
-      <c r="T5" s="2"/>
-      <c r="AC5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="T5" s="11"/>
+      <c r="AC5" s="16"/>
     </row>
     <row r="6" spans="3:29">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="W6" s="1" t="s">
+      <c r="D6" s="11"/>
+      <c r="W6" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="16"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="3:26">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="W9" s="1" t="s">
+      <c r="U9" s="11"/>
+      <c r="W9" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="Z9" s="10"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="4:24">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="U10" s="8"/>
-      <c r="X10" s="1" t="s">
+      <c r="U10" s="17"/>
+      <c r="X10" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="11" spans="4:21">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="U11" s="9"/>
+      <c r="U11" s="18"/>
     </row>
     <row r="12" spans="3:23">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="M12" s="4"/>
-      <c r="S12" s="10"/>
-      <c r="W12" s="1" t="s">
+      <c r="D12" s="11"/>
+      <c r="M12" s="13"/>
+      <c r="S12" s="19"/>
+      <c r="W12" s="10" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="11" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="14" spans="4:28">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="AB14" s="13"/>
+      <c r="AB14" s="22"/>
     </row>
     <row r="15" spans="3:23">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="T15" s="2"/>
-      <c r="W15" s="1" t="s">
+      <c r="D15" s="13"/>
+      <c r="T15" s="11"/>
+      <c r="W15" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="U16" s="2"/>
+      <c r="U16" s="11"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="4"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="13"/>
     </row>
     <row r="19" spans="3:23">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="W19" s="1" t="s">
+      <c r="D19" s="11"/>
+      <c r="W19" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="2"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="14" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="21" spans="20:22">
-      <c r="T21" s="2"/>
-      <c r="V21" s="4"/>
+      <c r="T21" s="11"/>
+      <c r="V21" s="13"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="W22" s="1" t="s">
+      <c r="D22" s="12"/>
+      <c r="W22" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="X22" s="11"/>
+      <c r="X22" s="20"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="25" spans="3:23">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="5"/>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="10" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="28" spans="3:23">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="32" spans="21:21">
-      <c r="U32" s="12"/>
+      <c r="U32" s="21"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="6"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="47" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -6332,4 +6897,211 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AA33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26">
+      <c r="C4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="3:26">
+      <c r="C7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="4:27">
+      <c r="D8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26">
+      <c r="C10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="4:27">
+      <c r="D11" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26">
+      <c r="C13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26">
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="Z16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="4:23">
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="3:26">
+      <c r="C19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="Z19" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="27:27">
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="3:26">
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="Z22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="4:23">
+      <c r="D23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="3:26">
+      <c r="C25" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="Z25" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26">
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="4:27">
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26">
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="Z32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="7"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="20250316" sheetId="9" r:id="rId6"/>
     <sheet name="20250323" sheetId="10" r:id="rId7"/>
     <sheet name="20250330" sheetId="11" r:id="rId8"/>
+    <sheet name="20250413" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="327">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -3730,185 +3731,10 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">A: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>啊，有段时间没有看到你了。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tiān</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ā ，yǒu duàn shí jiān méi yǒu kàn dào nǐ le 。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>B: 是啊，我</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>离开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>了两个月。很高兴见到你，你最近怎么样。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">B:  Yeah. i’ve </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">been away </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">for the past two months. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>shì ā ，wǒ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> lí kāi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> le liǎng gè yuè 。hěn gāo xìng jiàn dào nǐ ，</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A: 我很好，谢谢。你</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晒黑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>了，你看起来很健康，你这段时间去哪了？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A: Very well. Thanks. And you’re</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> looking brown</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> and</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ hěn hǎo ，xiè xiè 。nǐ </t>
     </r>
     <r>
@@ -3931,184 +3757,208 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>B: 杭州，我在那儿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的很开心。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">háng zhōu ，wǒ zài nà ér </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wán</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> de hěn kāi xīn 。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>B: 我每天都去</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>游泳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和跑步。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">B: I went </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>swimming</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> and jogging everyday.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">wǒ měi tiān dōu qù </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>yóu yǒng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> hé pǎo bù </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>B: 是的，我有时候还去</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>爬山</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">B: Yes, and sometimes I went </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>climbing</t>
+    <t>zhēn yǒu yì sī ，huí tóu nǐ dé3i gěi wǒ hǎo hǎo jiǎng jiǎng 。</t>
+  </si>
+  <si>
+    <t>Gossip</t>
+  </si>
+  <si>
+    <t>A: 我听到一些你的八卦，Eve.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I have heard a lot of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gossips</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> about you,Eve.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ tīng dào yī xiē nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bā guà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，Eve.</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 真的？什么八卦？</t>
+  </si>
+  <si>
+    <t>B: Really? What gossip?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhēn de ？shen me bā guà </t>
+  </si>
+  <si>
+    <t>A: 你真的想知道？</t>
+  </si>
+  <si>
+    <t>A: You really want to know?</t>
+  </si>
+  <si>
+    <t>nǐ zhēn de xiǎng zhī dào</t>
+  </si>
+  <si>
+    <t>B: 有何不可？知道别人在你背后说你什么不是</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Why not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">? it’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF407927"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>interesting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to know what people</t>
+    </r>
+  </si>
+  <si>
+    <t>很好玩嘛？</t>
+  </si>
+  <si>
+    <t>say behind my back, isn’t it?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yǒu hé bú kě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？zhī dào bié rén zài nǐ bèi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hòu shuō nǐ shen me bú shì hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF407927"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hǎo wán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ma</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 好。 他们说你和 Cindy的未婚夫约会哦。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A; Alright, They said that you’re going out with Cindy’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fiance</t>
     </r>
     <r>
       <rPr>
@@ -4123,31 +3973,397 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">shì de ，wǒ yǒu shí hòu hái qù </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>pá shān</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 。</t>
-    </r>
-  </si>
-  <si>
-    <t>zhēn yǒu yì sī ，huí tóu nǐ dé3i gěi wǒ hǎo hǎo jiǎng jiǎng 。</t>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo 。 tā men shuō nǐ hé  Cindyde </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wèi hūn fū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yuē huì ò</t>
+    </r>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>B: 你不会信以为真吧？</t>
+  </si>
+  <si>
+    <t>B: Oh, you don’t believe that, do you?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ bú huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xìn yǐ wéi zhēn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ba</t>
+    </r>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>A: 我不会，所以我才来这儿，我想听听你对这个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: I don’t, and that’s why I came here. i’d like to </t>
+  </si>
+  <si>
+    <t>事情怎么解释。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">know what you have to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">say about </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this.</t>
+    </r>
+  </si>
+  <si>
+    <t>wǒ bú huì ，suǒ yǐ wǒ cái lái zhè ér ，</t>
+  </si>
+  <si>
+    <t>wǒ xiǎng tīng tīng nǐ duì zhè gè</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shì qíng zěn me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiě shì</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我没有什么好说的，我绝对不会做出这种事的。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Nothing. i’d never ever do such a thing. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Believe it or not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>信不信由你。</t>
+  </si>
+  <si>
+    <t>wǒ méi yǒu shen me hǎo shuō de ，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ jué duì bú huì zuò chū zhè zhǒng shì de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xìn bú xìn yóu nǐ </t>
+  </si>
+  <si>
+    <t>A: 我相信你Eve，你听我说，我不是来指控你的，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I believe you. Eve. Listen. l’m not to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>accuse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you , But you</t>
+    </r>
+  </si>
+  <si>
+    <t>但是你要记住，谣言不会空穴来风的。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">have to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B274"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keep it in mind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rumors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> don’t come from nowhere.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ xiàng xìn nǐ Eve，nǐ tīng wǒ shuō ，wǒ bú shì lái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhǐ kòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ de </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dàn shì nǐ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B274"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jì zhù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yáo yán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bú huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kōng xué lái fēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我懂你的意思，我会和Cindy的未婚夫保持距离</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: I know what you mean. i’ll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keep away</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> from Cindy’s fiance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ dǒng nǐ de yì sī ，wǒ huì hé Cindyde wèi hūn fū </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bǎo chí jù lí</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 很好，我就知道你会听的。</t>
+  </si>
+  <si>
+    <t>A: Good. I knew you would listen to reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hěn hǎo ，wǒ jiù zhī dào nǐ huì tīng de </t>
   </si>
 </sst>
 </file>
@@ -4160,7 +4376,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4187,6 +4403,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -4222,12 +4444,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -4241,10 +4480,23 @@
       <sz val="11"/>
       <color rgb="FFCE181E"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -4310,31 +4562,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF72BF44"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -4496,31 +4724,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006C3B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFED1C24"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF407927"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -4532,9 +4736,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B274"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFED1C24"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF407927"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4857,160 +5097,164 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -5021,7 +5265,13 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5341,192 +5591,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="10" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="11"/>
+    <col min="1" max="8" width="2.63888888888889" style="20" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="20" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="3:26">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="Z7" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AA8" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:26">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="10" t="s">
+      <c r="Z10" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:27">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="10" t="s">
+      <c r="AA11" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:26">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="10" t="s">
+      <c r="Z13" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:26">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="Z16" s="10" t="s">
+      <c r="D16" s="24"/>
+      <c r="Z16" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="29"/>
+      <c r="W17" s="39"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="29"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="3:26">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="Z19" s="10" t="s">
+      <c r="D19" s="24"/>
+      <c r="Z19" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="27:27">
-      <c r="AA21" s="11"/>
+      <c r="AA21" s="21"/>
     </row>
     <row r="22" spans="3:26">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="Z22" s="10" t="s">
+      <c r="D22" s="37"/>
+      <c r="Z22" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="29"/>
+      <c r="W23" s="39"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="14"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="Z25" s="10" t="s">
+      <c r="D25" s="24"/>
+      <c r="Z25" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:26">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="10" t="s">
+      <c r="Z28" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="4:27">
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AA29" s="10" t="s">
+      <c r="AA29" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:26">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="Z32" s="10" t="s">
+      <c r="D32" s="24"/>
+      <c r="Z32" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5548,254 +5798,254 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="10" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="11"/>
+    <col min="1" max="2" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="20" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="13"/>
+      <c r="Z2" s="23"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="4:20">
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="26"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="S8" s="10" t="s">
+      <c r="D8" s="21"/>
+      <c r="S8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="26"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="13"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="X11" s="19"/>
+      <c r="X11" s="29"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="11"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="M14" s="13"/>
-      <c r="Q14" s="19"/>
-      <c r="S14" s="10" t="s">
+      <c r="D14" s="41"/>
+      <c r="M14" s="23"/>
+      <c r="Q14" s="29"/>
+      <c r="S14" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="11"/>
-      <c r="Z16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="S17" s="11" t="s">
+      <c r="D17" s="23"/>
+      <c r="S17" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="10" t="s">
+      <c r="S20" s="23"/>
+      <c r="T20" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="S22" s="10" t="s">
+      <c r="D22" s="23"/>
+      <c r="S22" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="4:20">
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="V24" s="20"/>
+      <c r="V24" s="30"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="L25" s="16"/>
-      <c r="S25" s="10" t="s">
+      <c r="D25" s="21"/>
+      <c r="L25" s="26"/>
+      <c r="S25" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="T26" s="10" t="s">
+      <c r="T26" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="14"/>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="S29" s="10" t="s">
+      <c r="S29" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="S32" s="10" t="s">
+      <c r="S32" s="20" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="3:19">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="I35" s="10" t="s">
+      <c r="E35" s="25"/>
+      <c r="I35" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="S35" s="10" t="s">
+      <c r="S35" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="3:19">
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="S38" s="10" t="s">
+      <c r="S38" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5817,204 +6067,204 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="10" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="11"/>
+    <col min="1" max="2" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="20" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="13"/>
+      <c r="Z2" s="23"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="4:19">
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="R7" s="11" t="s">
+      <c r="D7" s="21"/>
+      <c r="R7" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="26"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="AA8" s="16"/>
+      <c r="D8" s="21"/>
+      <c r="AA8" s="26"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="R10" s="10" t="s">
+      <c r="D10" s="23"/>
+      <c r="R10" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="X11" s="19"/>
+      <c r="X11" s="29"/>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="M14" s="13"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="10" t="s">
+      <c r="D14" s="41"/>
+      <c r="M14" s="23"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="11"/>
-      <c r="Z16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="R17" s="11" t="s">
+      <c r="D17" s="23"/>
+      <c r="R17" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="S20" s="23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="21" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="V24" s="20"/>
+      <c r="V24" s="30"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="11"/>
-      <c r="L25" s="16"/>
+      <c r="D25" s="21"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="10" t="s">
+      <c r="S27" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="24" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6037,167 +6287,167 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="10" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="11"/>
+    <col min="1" max="8" width="2.63888888888889" style="20" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="20" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="V4" s="10" t="s">
+      <c r="D4" s="35"/>
+      <c r="V4" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="4:23">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="15"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="V7" s="10" t="s">
+      <c r="D7" s="22"/>
+      <c r="V7" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="4:22">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" s="20" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="20" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="4:23">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="W12" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="14"/>
-      <c r="W13" s="10" t="s">
+      <c r="D13" s="24"/>
+      <c r="W13" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="29"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="39"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="36" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="3:22">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="V16" s="10" t="s">
+      <c r="D16" s="23"/>
+      <c r="V16" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="W17" s="29" t="s">
+      <c r="W17" s="39" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="18" spans="4:28">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="AB18" s="11"/>
+      <c r="AB18" s="21"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="37" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="V20" s="10" t="s">
+      <c r="D20" s="38"/>
+      <c r="V20" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="29"/>
+      <c r="X20" s="39"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="14"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="20" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="15"/>
-      <c r="F22" s="11"/>
+      <c r="D22" s="25"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="3:22">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="V23" s="10" t="s">
+      <c r="D23" s="24"/>
+      <c r="V23" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="20" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6219,202 +6469,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="10" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="10" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="20" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="20" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="20" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="20" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="20" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="20" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="T13" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="W13" s="21"/>
+      <c r="W13" s="31"/>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" s="20" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="33" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="34" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="T17" s="10" t="s">
+      <c r="T17" s="20" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="3:27">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="U18" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="AA18" s="23"/>
+      <c r="AA18" s="33"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="20" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="T21" s="10" t="s">
+      <c r="T21" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="22" spans="3:21">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="T25" s="10" t="s">
+      <c r="T25" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="20" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="28" spans="2:25">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="T28" s="10" t="s">
+      <c r="T28" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="Y28" s="23"/>
+      <c r="Y28" s="33"/>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="U29" s="10" t="s">
+      <c r="U29" s="20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="S32" s="23"/>
+      <c r="S32" s="33"/>
     </row>
     <row r="33" spans="2:25">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="Y33" s="23"/>
+      <c r="Y33" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6434,240 +6684,240 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="10" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
-    <col min="10" max="1027" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="1028" max="16384" width="9" style="11"/>
+    <col min="1" max="2" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="20" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
+    <col min="10" max="1027" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:20">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="20" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="21" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="12"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="3:29">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="T5" s="11" t="s">
+      <c r="D5" s="22"/>
+      <c r="T5" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="AC5" s="16"/>
+      <c r="AC5" s="26"/>
     </row>
     <row r="6" spans="4:29">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="AC6" s="16"/>
+      <c r="AC6" s="26"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="21" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="21" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="3:26">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T9" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="Z9" s="19"/>
+      <c r="U9" s="21"/>
+      <c r="Z9" s="29"/>
     </row>
     <row r="10" spans="4:21">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="U10" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="4:21">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="U11" s="28" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="S12" s="19"/>
+      <c r="M12" s="23"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="21" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="14" spans="4:28">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="AB14" s="22"/>
+      <c r="AB14" s="32"/>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="T15" s="11" t="s">
+      <c r="D15" s="23"/>
+      <c r="T15" s="21" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="21" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="T18" s="11" t="s">
+      <c r="D18" s="21"/>
+      <c r="T18" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="U18" s="13"/>
+      <c r="U18" s="23"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="21" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="11"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="V21" s="13"/>
+      <c r="V21" s="23"/>
     </row>
     <row r="22" spans="4:24">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="X22" s="20"/>
+      <c r="X22" s="30"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="11"/>
-      <c r="L23" s="16"/>
+      <c r="D23" s="21"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="T24" s="10" t="s">
+      <c r="T24" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="25" spans="3:21">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="U25" s="10" t="s">
+      <c r="U25" s="20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="14"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="20" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:20">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="T28" s="10" t="s">
+      <c r="T28" s="20" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="20" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="T31" s="10" t="s">
+      <c r="T31" s="20" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="32" spans="4:21">
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="U32" s="21" t="s">
+      <c r="U32" s="31" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="T34" s="10" t="s">
+      <c r="T34" s="20" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="20" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6690,206 +6940,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="10" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="10" customWidth="1"/>
-    <col min="10" max="1027" width="2.62962962962963" style="10" customWidth="1"/>
-    <col min="1028" max="16384" width="9" style="11"/>
+    <col min="1" max="2" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="20" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
+    <col min="10" max="1027" width="2.62962962962963" style="20" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="20" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="3" spans="3:23">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="W3" s="10" t="s">
+      <c r="D3" s="21"/>
+      <c r="W3" s="20" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="22" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="4:29">
-      <c r="D5" s="12"/>
-      <c r="T5" s="11"/>
-      <c r="AC5" s="16"/>
+      <c r="D5" s="22"/>
+      <c r="T5" s="21"/>
+      <c r="AC5" s="26"/>
     </row>
     <row r="6" spans="3:29">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="W6" s="10" t="s">
+      <c r="D6" s="21"/>
+      <c r="W6" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AC6" s="16"/>
+      <c r="AC6" s="26"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="21" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="11"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="3:26">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="W9" s="10" t="s">
+      <c r="U9" s="21"/>
+      <c r="W9" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="Z9" s="19"/>
+      <c r="Z9" s="29"/>
     </row>
     <row r="10" spans="4:24">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="U10" s="17"/>
-      <c r="X10" s="10" t="s">
+      <c r="U10" s="27"/>
+      <c r="X10" s="20" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="11" spans="4:21">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="U11" s="18"/>
+      <c r="U11" s="28"/>
     </row>
     <row r="12" spans="3:23">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="M12" s="13"/>
-      <c r="S12" s="19"/>
-      <c r="W12" s="10" t="s">
+      <c r="D12" s="21"/>
+      <c r="M12" s="23"/>
+      <c r="S12" s="29"/>
+      <c r="W12" s="20" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="21" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="14" spans="4:28">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="AB14" s="22"/>
+      <c r="AB14" s="32"/>
     </row>
     <row r="15" spans="3:23">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="T15" s="11"/>
-      <c r="W15" s="10" t="s">
+      <c r="D15" s="23"/>
+      <c r="T15" s="21"/>
+      <c r="W15" s="20" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="U16" s="11"/>
+      <c r="U16" s="21"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="11"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="T18" s="11"/>
-      <c r="U18" s="13"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="23"/>
     </row>
     <row r="19" spans="3:23">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="W19" s="10" t="s">
+      <c r="D19" s="21"/>
+      <c r="W19" s="20" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="11"/>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="24" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="21" spans="20:22">
-      <c r="T21" s="11"/>
-      <c r="V21" s="13"/>
+      <c r="T21" s="21"/>
+      <c r="V21" s="23"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="W22" s="10" t="s">
+      <c r="D22" s="22"/>
+      <c r="W22" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="X22" s="20"/>
+      <c r="X22" s="30"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="L23" s="16"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="25" spans="3:23">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="W25" s="10" t="s">
+      <c r="W25" s="20" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="14"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="20" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="20" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="28" spans="3:23">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="W28" s="10" t="s">
+      <c r="W28" s="20" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="20" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="32" spans="21:21">
-      <c r="U32" s="21"/>
+      <c r="U32" s="31"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="15"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="47" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -6904,8 +7154,215 @@
   <sheetPr/>
   <dimension ref="C2:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26">
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="3:26">
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:27">
+      <c r="D8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26">
+      <c r="C10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:27">
+      <c r="D11" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26">
+      <c r="C13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26">
+      <c r="C16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="Z16" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="4:23">
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="3:26">
+      <c r="C19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="Z19" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="27:27">
+      <c r="AA21" s="13"/>
+    </row>
+    <row r="22" spans="3:26">
+      <c r="C22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="Z22" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="4:23">
+      <c r="D23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="3:26">
+      <c r="C25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="Z25" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26">
+      <c r="C28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z28" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="4:27">
+      <c r="D29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA29" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26">
+      <c r="C32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="Z32" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AO41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -6921,182 +7378,243 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:26">
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22">
       <c r="C4" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="4:4">
-      <c r="D5" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="V4" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="3:26">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="4:27">
-      <c r="D8" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:26">
+        <v>282</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="V7" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22">
       <c r="C10" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="4:27">
-      <c r="D11" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>12</v>
+        <v>285</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="3:26">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="3:22">
       <c r="C13" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="3:26">
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="Z16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="4:23">
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="3:26">
-      <c r="C19" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="Z19" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="21" spans="27:27">
-      <c r="AA21" s="2"/>
-    </row>
-    <row r="22" spans="3:26">
-      <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="Z22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="4:23">
-      <c r="D23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="W23" s="7"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="3:26">
-      <c r="C25" s="1" t="s">
+      <c r="D13" s="4"/>
+      <c r="V13" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="Z25" s="1" t="s">
+    </row>
+    <row r="14" spans="4:24">
+      <c r="D14" s="4" t="s">
         <v>290</v>
       </c>
+      <c r="W14" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23">
+      <c r="C17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18" spans="4:28">
+      <c r="D18" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB18" s="2"/>
+    </row>
+    <row r="19" spans="4:20">
+      <c r="D19" s="9"/>
+      <c r="T19" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24">
+      <c r="C20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="V20" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="4:24">
+      <c r="D21" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="C22" s="4"/>
+      <c r="H22" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="C23" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="V23" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="4:23">
+      <c r="D24" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26">
+      <c r="D26" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22">
       <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="4:27">
+        <v>309</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="V28" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="4:41">
       <c r="D29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="4" t="s">
-        <v>292</v>
+      <c r="D30" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="3:26">
-      <c r="C32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="Z32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="5" t="s">
-        <v>37</v>
+      <c r="D31" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22">
+      <c r="C33" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="4:23">
+      <c r="D34" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22">
+      <c r="C37" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22">
+      <c r="C40" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="20250323" sheetId="10" r:id="rId7"/>
     <sheet name="20250330" sheetId="11" r:id="rId8"/>
     <sheet name="20250413" sheetId="12" r:id="rId9"/>
+    <sheet name="20250504" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="370">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -4364,6 +4365,373 @@
   </si>
   <si>
     <t xml:space="preserve">hěn hǎo ，wǒ jiù zhī dào nǐ huì tīng de </t>
+  </si>
+  <si>
+    <t>Taking some time off</t>
+  </si>
+  <si>
+    <t>A: McKenna先生，你有空吗？我有事情</t>
+  </si>
+  <si>
+    <t>A: Mr. McKenna, do you have a second?</t>
+  </si>
+  <si>
+    <t>想和你谈一下？</t>
+  </si>
+  <si>
+    <t>I need to talk to you about something.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McKenna xiān shēng ，nǐ yǒu ko4ng ma ？wǒ yǒu shì qíng </t>
+  </si>
+  <si>
+    <t>xiǎng hé nǐ tán yī xià ？</t>
+  </si>
+  <si>
+    <t>B:可以，Liv。 有什么事情吗？</t>
+  </si>
+  <si>
+    <t>B: Sure, Liv, what can i do for you?</t>
+  </si>
+  <si>
+    <t>kě yǐ ，Liv。 yǒu shen me shì qíng ma ？</t>
+  </si>
+  <si>
+    <t>A: 我只是想...是这样，我知道我已经用完了今年</t>
+  </si>
+  <si>
+    <t>A: Well, I was just wondering... you see, i know</t>
+  </si>
+  <si>
+    <t>的年假，但是我的妹妹结婚，婚礼在海外举行，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i've used up all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>my vacation days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this year,</t>
+    </r>
+  </si>
+  <si>
+    <t>所以。。。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But my sister is getting married and the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ zhī shì xiǎng ...shì zhè yàng ，wǒ zhī dào wǒ yǐ jīng </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wedding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>overseas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and well...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yòng wán le jīn nián de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nián jia4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，dàn shì wǒ de mèi mèi jié hūn ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hūn lǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hǎi wài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jǔ xing ，suǒ yǐ...</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 你想请假，对吗？</t>
+  </si>
+  <si>
+    <t>B:  you want to take some time off, is that right?</t>
+  </si>
+  <si>
+    <t>nǐ xiǎng qǐng jia4 ，duì ma ？</t>
+  </si>
+  <si>
+    <t>A: 先生，是的。我只是希望我今年可以请几天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  Well, sir. i was just hoping that i might be able </t>
+  </si>
+  <si>
+    <t>的无薪假。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to take some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>unpaid leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this year.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">xiān shēng ，shì de 。wǒ zhī shì xī wàng wǒ jīn nián kě yǐ qǐng jǐ tiān </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wú xīn jia4</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 你打算请哪几天？至少要提前两个月告知，这样我才能</t>
+  </si>
+  <si>
+    <t>B:  What dates are you planning on takeing off? i'll</t>
+  </si>
+  <si>
+    <t>为你请假做安排。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">need at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>least</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> two month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>notice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> so that i can plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nǐ dǎ suàn qǐng nǎ jǐ tiān ？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhì shǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yào tí qián </t>
+    </r>
+  </si>
+  <si>
+    <t>for your absence.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">liǎng gè yuè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gào zhī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，zhè yàng wǒ cái néng wéi nǐ qǐng jiǎ zuò ān pái </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我打算9月1号到30号，这样可以吗？</t>
+  </si>
+  <si>
+    <t>A: I was thinking of taking off from September first</t>
+  </si>
+  <si>
+    <t>wǒ dǎ suàn 9yuè 1hào dào 30hào ，zhè yàng kě yǐ ma</t>
+  </si>
+  <si>
+    <t>until the thirtieth. Would you be okay with that?</t>
+  </si>
+  <si>
+    <t>B:好的，应该可以。</t>
+  </si>
+  <si>
+    <t>B: Well, i guess so.</t>
+  </si>
+  <si>
+    <t>hǎo de ，yīng gāi kě yǐ</t>
   </si>
 </sst>
 </file>
@@ -4376,7 +4744,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4397,6 +4765,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4409,64 +4789,6 @@
     <font>
       <sz val="6.4"/>
       <color rgb="FF4C4C4C"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006C3B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -4496,13 +4818,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE181E"/>
+      <color rgb="FF006C3B"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="6.4"/>
-      <color rgb="FF4C4C4C"/>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -4538,21 +4860,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4724,24 +5034,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF407927"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF407927"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B274"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4760,21 +5052,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006C3B"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF407927"/>
       <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -5097,137 +5383,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5235,6 +5521,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -5242,36 +5530,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5591,194 +5871,418 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="20" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="21"/>
+    <col min="1" max="8" width="2.63888888888889" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="5" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="Z4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="24"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="3:26">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="Z7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="20" t="s">
+      <c r="AA8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:26">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="Z10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:27">
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="20" t="s">
+      <c r="AA11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:26">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="20" t="s">
+      <c r="Z13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:26">
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="Z16" s="20" t="s">
+      <c r="D16" s="8"/>
+      <c r="Z16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="39"/>
+      <c r="W17" s="11"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="39"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="3:26">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="Z19" s="20" t="s">
+      <c r="D19" s="8"/>
+      <c r="Z19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="27:27">
-      <c r="AA21" s="21"/>
+      <c r="AA21" s="6"/>
     </row>
     <row r="22" spans="3:26">
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="Z22" s="20" t="s">
+      <c r="D22" s="12"/>
+      <c r="Z22" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="39"/>
+      <c r="W23" s="11"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="24"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="Z25" s="20" t="s">
+      <c r="D25" s="8"/>
+      <c r="Z25" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:26">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="20" t="s">
+      <c r="Z28" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="4:27">
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA29" s="20" t="s">
+      <c r="AA29" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:26">
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="Z32" s="20" t="s">
+      <c r="D32" s="8"/>
+      <c r="Z32" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="10" t="s">
         <v>37</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AA33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="C4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="C11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23">
+      <c r="C12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="27:27">
+      <c r="AA18" s="4"/>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="V19" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23">
+      <c r="C20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23">
+      <c r="C25" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23">
+      <c r="C26" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25">
+      <c r="C27" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23">
+      <c r="C29" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="V31" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19">
+      <c r="C32" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="25:25">
+      <c r="Y33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5798,72 +6302,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="20" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="21"/>
+    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="Z2" s="23"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="4:20">
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="4:20">
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="26"/>
+      <c r="AA7" s="24"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="S8" s="20" t="s">
+      <c r="D8" s="6"/>
+      <c r="S8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AA8" s="26"/>
+      <c r="AA8" s="24"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5871,84 +6375,84 @@
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="3:24">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="X11" s="29"/>
+      <c r="X11" s="27"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="21"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="35"/>
       <c r="M14" s="23"/>
-      <c r="Q14" s="29"/>
-      <c r="S14" s="20" t="s">
+      <c r="Q14" s="27"/>
+      <c r="S14" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="21"/>
-      <c r="Z16" s="32"/>
+      <c r="D16" s="6"/>
+      <c r="Z16" s="30"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="23"/>
-      <c r="S17" s="21" t="s">
+      <c r="S17" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="21" t="s">
+      <c r="T18" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="6" t="s">
         <v>61</v>
       </c>
       <c r="S20" s="23"/>
-      <c r="T20" s="20" t="s">
+      <c r="T20" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="23"/>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="4:20">
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="5" t="s">
         <v>65</v>
       </c>
       <c r="T23" s="23" t="s">
@@ -5956,96 +6460,96 @@
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="V24" s="30"/>
+      <c r="V24" s="28"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="L25" s="26"/>
-      <c r="S25" s="20" t="s">
+      <c r="D25" s="6"/>
+      <c r="L25" s="24"/>
+      <c r="S25" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="T26" s="20" t="s">
+      <c r="T26" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="24"/>
-      <c r="D28" s="20" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="S29" s="20" t="s">
+      <c r="S29" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="S32" s="20" t="s">
+      <c r="S32" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="3:19">
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="I35" s="20" t="s">
+      <c r="E35" s="9"/>
+      <c r="I35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="S35" s="20" t="s">
+      <c r="S35" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="3:19">
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S38" s="20" t="s">
+      <c r="S38" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6067,150 +6571,150 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="20" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="21"/>
+    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:26">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="5" t="s">
         <v>88</v>
       </c>
       <c r="Z2" s="23"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="4:19">
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="R7" s="21" t="s">
+      <c r="D7" s="6"/>
+      <c r="R7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AA7" s="26"/>
+      <c r="AA7" s="24"/>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="AA8" s="26"/>
+      <c r="D8" s="6"/>
+      <c r="AA8" s="24"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D10" s="23"/>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="6" t="s">
         <v>101</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="X11" s="29"/>
+      <c r="X11" s="27"/>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="35"/>
       <c r="M14" s="23"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="20" t="s">
+      <c r="Q14" s="27"/>
+      <c r="R14" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="21"/>
-      <c r="Z16" s="32"/>
+      <c r="D16" s="6"/>
+      <c r="Z16" s="30"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="23"/>
-      <c r="R17" s="21" t="s">
+      <c r="R17" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="R19" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="6" t="s">
         <v>113</v>
       </c>
       <c r="S20" s="23" t="s">
@@ -6218,53 +6722,53 @@
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D21" s="23"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="6" t="s">
         <v>116</v>
       </c>
       <c r="D22" s="23"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="V24" s="30"/>
+      <c r="V24" s="28"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="21"/>
-      <c r="L25" s="26"/>
+      <c r="D25" s="6"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="20" t="s">
+      <c r="R26" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="20" t="s">
+      <c r="S27" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="8" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6287,167 +6791,167 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="20" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="20" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="21"/>
+    <col min="1" max="8" width="2.63888888888889" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="5" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="V4" s="20" t="s">
+      <c r="D4" s="7"/>
+      <c r="V4" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="4:23">
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="W5" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="25"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="V7" s="20" t="s">
+      <c r="D7" s="10"/>
+      <c r="V7" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="4:22">
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="V8" s="20" t="s">
+      <c r="V8" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="V11" s="20" t="s">
+      <c r="V11" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="4:23">
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="W12" s="20" t="s">
+      <c r="W12" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="24"/>
-      <c r="W13" s="20" t="s">
+      <c r="D13" s="8"/>
+      <c r="W13" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="39"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="33" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="3:22">
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D16" s="23"/>
-      <c r="V16" s="20" t="s">
+      <c r="V16" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="W17" s="39" t="s">
+      <c r="W17" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="18" spans="4:28">
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="AB18" s="21"/>
+      <c r="AB18" s="6"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="V20" s="20" t="s">
+      <c r="D20" s="13"/>
+      <c r="V20" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="39"/>
+      <c r="X20" s="11"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="24"/>
-      <c r="D21" s="20" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="25"/>
-      <c r="F22" s="21"/>
+      <c r="D22" s="9"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="3:22">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="V23" s="20" t="s">
+      <c r="D23" s="8"/>
+      <c r="V23" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="5" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6469,202 +6973,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="20" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="20" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="5" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="W13" s="31"/>
+      <c r="W13" s="29"/>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="U14" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="32" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="T17" s="20" t="s">
+      <c r="T17" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="3:27">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="U18" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AA18" s="33"/>
+      <c r="AA18" s="31"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="22" spans="3:21">
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="U22" s="20" t="s">
+      <c r="U22" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="T25" s="20" t="s">
+      <c r="T25" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="28" spans="2:25">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="T28" s="20" t="s">
+      <c r="T28" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="Y28" s="33"/>
+      <c r="Y28" s="31"/>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="U29" s="20" t="s">
+      <c r="U29" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S32" s="33"/>
+      <c r="S32" s="31"/>
     </row>
     <row r="33" spans="2:25">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="Y33" s="33"/>
+      <c r="Y33" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6684,240 +7188,240 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="20" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
-    <col min="10" max="1027" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="1028" max="16384" width="9" style="21"/>
+    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1027" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:20">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="22"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="3:29">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="T5" s="21" t="s">
+      <c r="D5" s="10"/>
+      <c r="T5" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AC5" s="26"/>
+      <c r="AC5" s="24"/>
     </row>
     <row r="6" spans="4:29">
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AC6" s="26"/>
+      <c r="AC6" s="24"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="3:26">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="T9" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="U9" s="21"/>
-      <c r="Z9" s="29"/>
+      <c r="U9" s="6"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="4:21">
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="25" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="4:21">
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="28" t="s">
+      <c r="U11" s="26" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="6" t="s">
         <v>212</v>
       </c>
       <c r="M12" s="23"/>
-      <c r="S12" s="29"/>
+      <c r="S12" s="27"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="14" spans="4:28">
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="AB14" s="32"/>
+      <c r="AB14" s="30"/>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="5" t="s">
         <v>215</v>
       </c>
       <c r="D15" s="23"/>
-      <c r="T15" s="21" t="s">
+      <c r="T15" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="U16" s="21" t="s">
+      <c r="U16" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="T18" s="21" t="s">
+      <c r="D18" s="6"/>
+      <c r="T18" s="6" t="s">
         <v>221</v>
       </c>
       <c r="U18" s="23"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="21"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="T21" s="21" t="s">
+      <c r="T21" s="6" t="s">
         <v>224</v>
       </c>
       <c r="V21" s="23"/>
     </row>
     <row r="22" spans="4:24">
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="X22" s="30"/>
+      <c r="X22" s="28"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="21"/>
-      <c r="L23" s="26"/>
+      <c r="D23" s="6"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="T24" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="25" spans="3:21">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="U25" s="20" t="s">
+      <c r="U25" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="24"/>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:20">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="T28" s="20" t="s">
+      <c r="T28" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="T31" s="20" t="s">
+      <c r="T31" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="32" spans="4:21">
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="U32" s="31" t="s">
+      <c r="U32" s="29" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="T34" s="20" t="s">
+      <c r="T34" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="5" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6940,206 +7444,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="20" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="20" customWidth="1"/>
-    <col min="10" max="1027" width="2.62962962962963" style="20" customWidth="1"/>
-    <col min="1028" max="16384" width="9" style="21"/>
+    <col min="1" max="2" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="5" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1027" width="2.62962962962963" style="5" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="3" spans="3:23">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="W3" s="20" t="s">
+      <c r="D3" s="6"/>
+      <c r="W3" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="4:29">
-      <c r="D5" s="22"/>
-      <c r="T5" s="21"/>
-      <c r="AC5" s="26"/>
+      <c r="D5" s="10"/>
+      <c r="T5" s="6"/>
+      <c r="AC5" s="24"/>
     </row>
     <row r="6" spans="3:29">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="W6" s="20" t="s">
+      <c r="D6" s="6"/>
+      <c r="W6" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AC6" s="26"/>
+      <c r="AC6" s="24"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="6" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="21"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="3:26">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="U9" s="21"/>
-      <c r="W9" s="20" t="s">
+      <c r="U9" s="6"/>
+      <c r="W9" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="Z9" s="29"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="4:24">
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="U10" s="27"/>
-      <c r="X10" s="20" t="s">
+      <c r="U10" s="25"/>
+      <c r="X10" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="11" spans="4:21">
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="U11" s="28"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" spans="3:23">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="6"/>
       <c r="M12" s="23"/>
-      <c r="S12" s="29"/>
-      <c r="W12" s="20" t="s">
+      <c r="S12" s="27"/>
+      <c r="W12" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="14" spans="4:28">
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="AB14" s="32"/>
+      <c r="AB14" s="30"/>
     </row>
     <row r="15" spans="3:23">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D15" s="23"/>
-      <c r="T15" s="21"/>
-      <c r="W15" s="20" t="s">
+      <c r="T15" s="6"/>
+      <c r="W15" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="U16" s="21"/>
+      <c r="U16" s="6"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="21"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="T18" s="21"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="23"/>
     </row>
     <row r="19" spans="3:23">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="W19" s="20" t="s">
+      <c r="D19" s="6"/>
+      <c r="W19" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="21"/>
-      <c r="D20" s="24" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="21" spans="20:22">
-      <c r="T21" s="21"/>
+      <c r="T21" s="6"/>
       <c r="V21" s="23"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="W22" s="20" t="s">
+      <c r="D22" s="10"/>
+      <c r="W22" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="X22" s="30"/>
+      <c r="X22" s="28"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="L23" s="26"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="25" spans="3:23">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="W25" s="20" t="s">
+      <c r="W25" s="5" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="24"/>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="28" spans="3:23">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="W28" s="20" t="s">
+      <c r="W28" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="5" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="32" spans="21:21">
-      <c r="U32" s="31"/>
+      <c r="U32" s="29"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="25"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="47" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -7160,192 +7664,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="13"/>
+    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:26">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="15"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="3:26">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="Z7" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="AA8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:26">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="12" t="s">
+      <c r="Z10" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:27">
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AA11" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:26">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="12" t="s">
+      <c r="Z13" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:26">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="Z16" s="12" t="s">
+      <c r="D16" s="18"/>
+      <c r="Z16" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="4:23">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="17"/>
+      <c r="W17" s="20"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="17"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="3:26">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="Z19" s="12" t="s">
+      <c r="D19" s="18"/>
+      <c r="Z19" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="27:27">
-      <c r="AA21" s="13"/>
+      <c r="AA21" s="16"/>
     </row>
     <row r="22" spans="3:26">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="Z22" s="12" t="s">
+      <c r="D22" s="21"/>
+      <c r="Z22" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="17"/>
+      <c r="W23" s="20"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="15"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="Z25" s="12" t="s">
+      <c r="D25" s="18"/>
+      <c r="Z25" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:26">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="12" t="s">
+      <c r="Z28" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="4:27">
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA29" s="12" t="s">
+      <c r="AA29" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="18" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:26">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="Z32" s="12" t="s">
+      <c r="D32" s="18"/>
+      <c r="Z32" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7361,259 +7865,259 @@
   <sheetPr/>
   <dimension ref="C2:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="5" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="5" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="V4" s="1" t="s">
+      <c r="D4" s="7"/>
+      <c r="V4" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="5"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="V7" s="1" t="s">
+      <c r="D7" s="10"/>
+      <c r="V7" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="10" spans="3:22">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="5" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="3:22">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="V13" s="1" t="s">
+      <c r="D13" s="8"/>
+      <c r="V13" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="W14" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="X14" s="8"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="17" spans="3:23">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="W17" s="8"/>
+      <c r="W17" s="11"/>
     </row>
     <row r="18" spans="4:28">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="6"/>
     </row>
     <row r="19" spans="4:20">
-      <c r="D19" s="9"/>
-      <c r="T19" s="1" t="s">
+      <c r="D19" s="12"/>
+      <c r="T19" s="5" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="V20" s="1" t="s">
+      <c r="D20" s="13"/>
+      <c r="V20" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="X20" s="8"/>
+      <c r="X20" s="11"/>
     </row>
     <row r="21" spans="4:24">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="X21" s="8"/>
+      <c r="X21" s="11"/>
     </row>
     <row r="22" spans="3:21">
-      <c r="C22" s="4"/>
-      <c r="H22" s="1" t="s">
+      <c r="C22" s="8"/>
+      <c r="H22" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="U22" s="2"/>
+      <c r="U22" s="6"/>
     </row>
     <row r="23" spans="3:22">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="V23" s="1" t="s">
+      <c r="D23" s="8"/>
+      <c r="V23" s="5" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="28" spans="3:22">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="V28" s="1" t="s">
+      <c r="D28" s="14"/>
+      <c r="V28" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="29" spans="4:41">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="11" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="33" spans="3:22">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="34" spans="4:23">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W34" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="37" spans="3:22">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="V37" s="5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="40" spans="3:22">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="V40" s="5" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="5" t="s">
         <v>326</v>
       </c>
     </row>

--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="12" activeTab="19"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="20250706" sheetId="22" r:id="rId18"/>
     <sheet name="20250713" sheetId="23" r:id="rId19"/>
     <sheet name="20250727" sheetId="24" r:id="rId20"/>
+    <sheet name="20250803" sheetId="25" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="786">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -10231,6 +10232,81 @@
   </si>
   <si>
     <t>Dāng rán, tā de yíng xiāo cè lüè shì yī liú de</t>
+  </si>
+  <si>
+    <t>nine-to-five job</t>
+  </si>
+  <si>
+    <t>A:我真的很讨厌我的朝九晚五的工作，</t>
+  </si>
+  <si>
+    <t>A: I‘m really tired of my nine-to-five job.</t>
+  </si>
+  <si>
+    <t>它太无聊了。</t>
+  </si>
+  <si>
+    <t>it's so monotonous.</t>
+  </si>
+  <si>
+    <t>wǒ zhēn de hěn tǎo yàn wǒ de zhao jiǔ wǎn wǔ de gōng zuò,</t>
+  </si>
+  <si>
+    <t>tā tài wú liáo le.</t>
+  </si>
+  <si>
+    <t>B:也许你应该考虑一些更有成就感的工作。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Maybe you should consider looking for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yě xǔ nǐ yīng gāi kǎo lǜ </t>
+  </si>
+  <si>
+    <t>something more fulfilling.</t>
+  </si>
+  <si>
+    <t>yī xiē gèng yǒu chéng jiù gǎn de gōng zuò.</t>
+  </si>
+  <si>
+    <t>A:我考虑过这个问题，但现在换工作很有风险。</t>
+  </si>
+  <si>
+    <t>A: i've thought about that, but it's risky to change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ kǎo lǜ guò zhè ge wèn tí, </t>
+  </si>
+  <si>
+    <t>jobs now.</t>
+  </si>
+  <si>
+    <t>dàn xiàn zài huàn gōng zuò hěn yǒu fēng xiǎn.</t>
+  </si>
+  <si>
+    <t>B:没错，但有时你必须冒险去寻找幸福。</t>
+  </si>
+  <si>
+    <t>B: True, but sometimes you have to take risks to find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">méi cuò, dàn yǒu shí nǐ bì xū </t>
+  </si>
+  <si>
+    <t>happiness.</t>
+  </si>
+  <si>
+    <t>mào xiǎn qù xún zhǎo xìng fú.</t>
+  </si>
+  <si>
+    <t>骑驴找马</t>
+  </si>
+  <si>
+    <t>ride a donkey while looking for a horse</t>
+  </si>
+  <si>
+    <t>[qí lǘ zhǎo mǎ]</t>
   </si>
 </sst>
 </file>
@@ -10264,24 +10340,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6.4"/>
-      <color rgb="FF4C4C4C"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -10314,12 +10402,6 @@
       <color rgb="FF00A65D"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10374,12 +10456,6 @@
       <color rgb="FF00A933"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10569,15 +10645,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0066B3"/>
+      <color rgb="FF72BF44"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF00864B"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B75BC"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10593,13 +10675,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00A933"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF72BF44"/>
+      <color rgb="FF006C3B"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -10617,8 +10699,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006C3B"/>
+      <color theme="9"/>
       <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A933"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF58220"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B274"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
       <charset val="1"/>
     </font>
     <font>
@@ -10629,45 +10741,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00864B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
+      <color rgb="FF0066B3"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B274"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFF58220"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1B75BC"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10677,8 +10753,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -11139,7 +11215,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -11157,20 +11235,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -11521,12 +11597,12 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="3:26">
       <c r="C7" s="1" t="s">
@@ -11545,7 +11621,7 @@
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11558,7 +11634,7 @@
       </c>
     </row>
     <row r="11" spans="4:27">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AA11" s="1" t="s">
@@ -11587,7 +11663,7 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
       <c r="Z16" s="1" t="s">
         <v>18</v>
       </c>
@@ -11596,16 +11672,16 @@
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="18"/>
+      <c r="W17" s="19"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="18"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="3:26">
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="3"/>
       <c r="Z19" s="1" t="s">
         <v>21</v>
       </c>
@@ -11622,31 +11698,31 @@
       <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="16"/>
       <c r="Z22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="18"/>
+      <c r="W23" s="19"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="4"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="3:26">
       <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="3"/>
       <c r="Z25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11667,12 +11743,12 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11680,13 +11756,13 @@
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="3"/>
       <c r="Z32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11793,7 +11869,7 @@
       <c r="C13" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="W13" s="12" t="s">
+      <c r="W13" s="6" t="s">
         <v>344</v>
       </c>
     </row>
@@ -11803,7 +11879,7 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="6" t="s">
         <v>346</v>
       </c>
     </row>
@@ -12014,7 +12090,7 @@
       <c r="R13" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="W13" s="12"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -12022,7 +12098,7 @@
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="12"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:1025">
       <c r="A17" s="1"/>
@@ -12052,7 +12128,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="13"/>
+      <c r="Z17" s="14"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -13059,7 +13135,7 @@
       <c r="C18" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -16161,7 +16237,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="5"/>
+      <c r="S21" s="8"/>
       <c r="T21" s="1" t="s">
         <v>392</v>
       </c>
@@ -17175,7 +17251,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>393</v>
       </c>
       <c r="E22" s="1"/>
@@ -18204,7 +18280,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -20282,7 +20358,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="11"/>
+      <c r="V25" s="13"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -21299,7 +21375,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="7"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -24377,7 +24453,7 @@
     <row r="29" s="2" customFormat="1" spans="1:1025">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -30562,7 +30638,7 @@
   <sheetPr/>
   <dimension ref="B2:AB34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
@@ -30591,24 +30667,24 @@
       <c r="C4" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="T4" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="7"/>
       <c r="T7" s="1" t="s">
         <v>412</v>
       </c>
@@ -30632,29 +30708,29 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="3:20">
       <c r="C13" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="T13" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>419</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>420</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="18"/>
+      <c r="X14" s="19"/>
     </row>
     <row r="15" spans="4:21">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>421</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -30673,43 +30749,43 @@
       <c r="T17" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="W17" s="18"/>
+      <c r="W17" s="19"/>
     </row>
     <row r="18" spans="4:28">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>426</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="15"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="3:24">
       <c r="C20" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="T20" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="X20" s="18"/>
+      <c r="X20" s="19"/>
     </row>
     <row r="21" spans="4:24">
-      <c r="D21" s="16"/>
+      <c r="D21" s="17"/>
       <c r="U21" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="X21" s="18"/>
+      <c r="X21" s="19"/>
     </row>
     <row r="22" spans="3:21">
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="1" t="s">
         <v>430</v>
       </c>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="4:19">
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="F23" s="2"/>
       <c r="S23" s="1" t="s">
         <v>431</v>
@@ -30719,7 +30795,7 @@
       <c r="C24" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="3"/>
       <c r="T24" s="1" t="s">
         <v>433</v>
       </c>
@@ -30780,7 +30856,7 @@
   <sheetPr/>
   <dimension ref="C2:AQ34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A14" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -30806,13 +30882,13 @@
       <c r="C4" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="V4" s="1" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="5" ht="19.6" customHeight="1" spans="4:23">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>447</v>
       </c>
       <c r="W5" s="1" t="s">
@@ -30820,14 +30896,14 @@
       </c>
     </row>
     <row r="6" spans="4:27">
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>449</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="AA6" s="20"/>
+      <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>450</v>
       </c>
     </row>
@@ -30857,12 +30933,12 @@
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>458</v>
       </c>
     </row>
@@ -30870,26 +30946,26 @@
       <c r="C13" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="V13" s="1" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="15" spans="4:26">
-      <c r="D15" s="4"/>
+      <c r="D15" s="3"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="18"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="3:22">
       <c r="C16" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="7"/>
       <c r="V16" s="1" t="s">
         <v>463</v>
       </c>
@@ -30925,16 +31001,16 @@
       <c r="W20" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="Y20" s="18"/>
+      <c r="Y20" s="19"/>
     </row>
     <row r="21" spans="4:30">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="7" t="s">
         <v>472</v>
       </c>
       <c r="AD21" s="2"/>
     </row>
     <row r="22" spans="4:30">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>473</v>
       </c>
       <c r="AD22" s="2"/>
@@ -30946,14 +31022,14 @@
       <c r="AD23" s="2"/>
     </row>
     <row r="24" spans="4:30">
-      <c r="D24" s="3"/>
+      <c r="D24" s="7"/>
       <c r="AD24" s="2"/>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="4:26">
       <c r="D26" s="2" t="s">
@@ -30962,10 +31038,10 @@
       <c r="V26" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="Z26" s="18"/>
+      <c r="Z26" s="19"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="7" t="s">
         <v>478</v>
       </c>
     </row>
@@ -30973,17 +31049,17 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="3"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="18"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="42:43">
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="18"/>
+      <c r="D34" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -31055,13 +31131,13 @@
       <c r="X7" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="9"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="2" t="s">
@@ -31080,7 +31156,7 @@
       <c r="D11" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="X11" s="12" t="s">
         <v>493</v>
       </c>
     </row>
@@ -31112,7 +31188,7 @@
       <c r="X16" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="14"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="2" t="s">
@@ -31131,7 +31207,7 @@
       <c r="D19" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="U19" s="7"/>
+      <c r="U19" s="9"/>
       <c r="X19" s="2" t="s">
         <v>505</v>
       </c>
@@ -31164,7 +31240,7 @@
       <c r="C25" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="V25" s="11"/>
+      <c r="V25" s="13"/>
       <c r="W25" s="1" t="s">
         <v>512</v>
       </c>
@@ -31173,7 +31249,7 @@
       <c r="D26" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="9"/>
       <c r="X26" s="2" t="s">
         <v>514</v>
       </c>
@@ -31182,7 +31258,7 @@
       <c r="D27" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="9"/>
       <c r="X27" s="1" t="s">
         <v>516</v>
       </c>
@@ -31231,7 +31307,7 @@
   <sheetPr/>
   <dimension ref="C1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -31282,11 +31358,11 @@
         <v>529</v>
       </c>
       <c r="X7" s="2"/>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="2"/>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="9"/>
     </row>
     <row r="9" spans="3:23">
       <c r="C9" s="1" t="s">
@@ -31310,7 +31386,7 @@
       <c r="D11" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="X11" s="10"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="2" t="s">
@@ -31338,7 +31414,7 @@
         <v>539</v>
       </c>
       <c r="X16" s="2"/>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="14"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="2" t="s">
@@ -31352,7 +31428,7 @@
       <c r="C19" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="U19" s="7"/>
+      <c r="U19" s="9"/>
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="3:23">
@@ -31365,7 +31441,7 @@
       </c>
     </row>
     <row r="21" ht="15" spans="4:4">
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="4" t="s">
         <v>544</v>
       </c>
     </row>
@@ -31394,7 +31470,7 @@
       <c r="D25" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="V25" s="11"/>
+      <c r="V25" s="13"/>
       <c r="X25" s="1" t="s">
         <v>550</v>
       </c>
@@ -31403,14 +31479,14 @@
       <c r="D26" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="9"/>
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="4:24">
       <c r="D27" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="9"/>
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="3:23">
@@ -31418,7 +31494,7 @@
         <v>553</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="L28" s="7"/>
+      <c r="L28" s="9"/>
       <c r="W28" s="1" t="s">
         <v>554</v>
       </c>
@@ -31453,7 +31529,7 @@
   <sheetPr/>
   <dimension ref="C2:AQ39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -31479,7 +31555,7 @@
       <c r="C4" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="U4" s="1" t="s">
         <v>558</v>
       </c>
@@ -31490,15 +31566,15 @@
       </c>
     </row>
     <row r="6" spans="4:27">
-      <c r="D6" s="18"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="2"/>
-      <c r="AA6" s="20"/>
+      <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="3:21">
       <c r="C7" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="7"/>
       <c r="U7" s="1" t="s">
         <v>561</v>
       </c>
@@ -31507,7 +31583,7 @@
       <c r="D8" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="U8" s="18"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="1" t="s">
         <v>563</v>
       </c>
@@ -31533,7 +31609,7 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>568</v>
       </c>
     </row>
@@ -31541,13 +31617,13 @@
       <c r="C13" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="U13" s="1" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>571</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -31563,15 +31639,15 @@
       <c r="C16" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
       <c r="U16" s="1" t="s">
         <v>575</v>
       </c>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="18"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="4:22">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="7" t="s">
         <v>576</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -31579,7 +31655,7 @@
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>578</v>
       </c>
     </row>
@@ -31599,14 +31675,14 @@
     </row>
     <row r="21" spans="4:25">
       <c r="D21" s="2"/>
-      <c r="Y21" s="18"/>
+      <c r="Y21" s="19"/>
     </row>
     <row r="22" spans="4:30">
-      <c r="D22" s="3"/>
+      <c r="D22" s="7"/>
       <c r="AD22" s="2"/>
     </row>
     <row r="23" spans="4:30">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>582</v>
       </c>
       <c r="AD23" s="2"/>
@@ -31615,7 +31691,7 @@
       <c r="C24" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="7"/>
       <c r="V24" s="1" t="s">
         <v>584</v>
       </c>
@@ -31631,7 +31707,7 @@
       <c r="AD25" s="2"/>
     </row>
     <row r="26" spans="4:30">
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="7" t="s">
         <v>587</v>
       </c>
       <c r="AD26" s="2"/>
@@ -31640,7 +31716,7 @@
       <c r="C27" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="7"/>
       <c r="V27" s="1" t="s">
         <v>589</v>
       </c>
@@ -31652,10 +31728,10 @@
       <c r="W28" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="Z28" s="18"/>
+      <c r="Z28" s="19"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="3"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="3:22">
       <c r="C30" s="1" t="s">
@@ -31667,7 +31743,7 @@
       </c>
     </row>
     <row r="31" spans="4:23">
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="7" t="s">
         <v>594</v>
       </c>
       <c r="W31" s="1" t="s">
@@ -31675,7 +31751,7 @@
       </c>
     </row>
     <row r="32" spans="4:23">
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="7" t="s">
         <v>596</v>
       </c>
       <c r="W32" s="1" t="s">
@@ -31683,14 +31759,14 @@
       </c>
     </row>
     <row r="33" spans="4:43">
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="7" t="s">
         <v>598</v>
       </c>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2"/>
     </row>
     <row r="34" spans="4:43">
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="7" t="s">
         <v>599</v>
       </c>
       <c r="AP34" s="2"/>
@@ -31708,12 +31784,12 @@
       <c r="D36" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="W36" s="18" t="s">
+      <c r="W36" s="19" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="19" t="s">
         <v>604</v>
       </c>
     </row>
@@ -31742,8 +31818,8 @@
   <sheetPr/>
   <dimension ref="B2:AB40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -31768,7 +31844,7 @@
       <c r="C4" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="AA4" s="1" t="s">
         <v>610</v>
       </c>
@@ -31782,11 +31858,11 @@
       </c>
     </row>
     <row r="6" spans="4:28">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>613</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="AA6" s="20"/>
+      <c r="AA6" s="21"/>
       <c r="AB6" s="1" t="s">
         <v>614</v>
       </c>
@@ -31798,7 +31874,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
         <v>616</v>
       </c>
@@ -31808,7 +31884,7 @@
         <v>617</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="U9" s="18"/>
+      <c r="U9" s="19"/>
       <c r="AA9" s="1" t="s">
         <v>618</v>
       </c>
@@ -31837,13 +31913,13 @@
       <c r="C13" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="AA13" s="1" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="14" spans="4:28">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>625</v>
       </c>
       <c r="AB14" s="1" t="s">
@@ -31864,20 +31940,20 @@
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>630</v>
       </c>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="18"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="3"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="3:27">
       <c r="C19" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="7"/>
       <c r="AA19" s="1" t="s">
         <v>632</v>
       </c>
@@ -31886,7 +31962,7 @@
       <c r="D20" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="AB20" s="19" t="s">
+      <c r="AB20" s="20" t="s">
         <v>634</v>
       </c>
     </row>
@@ -31902,7 +31978,7 @@
       <c r="D23" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="Y23" s="18"/>
+      <c r="Y23" s="19"/>
     </row>
     <row r="24" spans="3:28">
       <c r="C24" s="2" t="s">
@@ -31927,7 +32003,7 @@
       <c r="AA24" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="AB24" s="3"/>
+      <c r="AB24" s="7"/>
     </row>
     <row r="25" spans="3:28">
       <c r="C25" s="2"/>
@@ -31949,7 +32025,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="AB25" s="3" t="s">
+      <c r="AB25" s="7" t="s">
         <v>640</v>
       </c>
     </row>
@@ -31973,7 +32049,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="AB26" s="3"/>
+      <c r="AB26" s="7"/>
     </row>
     <row r="27" spans="3:28">
       <c r="C27" s="2"/>
@@ -32020,7 +32096,7 @@
       <c r="AA28" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AB28" s="3"/>
+      <c r="AB28" s="7"/>
     </row>
     <row r="29" spans="3:28">
       <c r="C29" s="2"/>
@@ -32042,7 +32118,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="AB29" s="3"/>
+      <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="3:28">
       <c r="C30" s="2"/>
@@ -32062,7 +32138,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="Z30" s="18"/>
+      <c r="Z30" s="19"/>
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="3:28">
@@ -32088,7 +32164,7 @@
       <c r="AA31" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AB31" s="3"/>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="3:28">
       <c r="C32" s="2"/>
@@ -32130,7 +32206,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="AB33" s="3"/>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" spans="3:28">
       <c r="C34" s="2" t="s">
@@ -32155,7 +32231,7 @@
       <c r="AA34" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="AB34" s="3"/>
+      <c r="AB34" s="7"/>
     </row>
     <row r="35" spans="3:28">
       <c r="C35" s="2"/>
@@ -32177,7 +32253,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="AB35" s="3"/>
+      <c r="AB35" s="7"/>
     </row>
     <row r="36" spans="3:28">
       <c r="C36" s="2"/>
@@ -32197,7 +32273,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="AB36" s="3"/>
+      <c r="AB36" s="7"/>
     </row>
     <row r="37" spans="3:28">
       <c r="C37" s="2" t="s">
@@ -32222,7 +32298,7 @@
       <c r="AA37" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="AB37" s="18"/>
+      <c r="AB37" s="19"/>
     </row>
     <row r="38" spans="3:28">
       <c r="C38" s="2"/>
@@ -32244,7 +32320,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="AB38" s="19" t="s">
+      <c r="AB38" s="20" t="s">
         <v>655</v>
       </c>
     </row>
@@ -32254,7 +32330,7 @@
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="20" t="s">
         <v>657</v>
       </c>
     </row>
@@ -32270,7 +32346,7 @@
   <sheetPr/>
   <dimension ref="C2:AA42"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -32296,24 +32372,24 @@
       <c r="C4" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="T4" s="1" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="7"/>
       <c r="T7" s="1" t="s">
         <v>663</v>
       </c>
@@ -32337,25 +32413,25 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="T13" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="W13" s="18"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="5"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="1" t="s">
@@ -32366,35 +32442,35 @@
       </c>
     </row>
     <row r="17" spans="4:27">
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>673</v>
       </c>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="3:23">
       <c r="C19" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
       <c r="T19" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="W19" s="18"/>
+      <c r="W19" s="19"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="1" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="4"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
@@ -32410,34 +32486,34 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="4"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="3:20">
       <c r="C26" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="T26" s="1" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="27" spans="4:27">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>682</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="AA27" s="17"/>
+      <c r="AA27" s="18"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="3:20">
       <c r="C29" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="T29" s="1" t="s">
         <v>685</v>
       </c>
@@ -32472,7 +32548,7 @@
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="15" t="s">
         <v>693</v>
       </c>
     </row>
@@ -32508,7 +32584,7 @@
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="15" t="s">
         <v>701</v>
       </c>
     </row>
@@ -32547,7 +32623,7 @@
       <c r="D2" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="AA2" s="5"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="3:21">
       <c r="C3" s="1" t="s">
@@ -32569,22 +32645,22 @@
       <c r="C6" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="7"/>
       <c r="U6" s="1" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>708</v>
       </c>
       <c r="S7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="AB7" s="7"/>
+      <c r="AB7" s="9"/>
     </row>
     <row r="8" spans="4:28">
       <c r="D8" s="2"/>
-      <c r="AB8" s="7"/>
+      <c r="AB8" s="9"/>
     </row>
     <row r="9" spans="3:21">
       <c r="C9" s="1" t="s">
@@ -32602,14 +32678,14 @@
     </row>
     <row r="11" spans="20:25">
       <c r="T11" s="2"/>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="3:21">
       <c r="C12" s="1" t="s">
         <v>712</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="10"/>
       <c r="U12" s="1" t="s">
         <v>713</v>
       </c>
@@ -32618,7 +32694,7 @@
       <c r="D13" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="T13" s="9"/>
+      <c r="T13" s="11"/>
       <c r="V13" s="1" t="s">
         <v>715</v>
       </c>
@@ -32627,15 +32703,15 @@
       <c r="D14" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
       <c r="V14" s="1" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>718</v>
       </c>
     </row>
@@ -32647,10 +32723,10 @@
       <c r="U16" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="AA16" s="13"/>
+      <c r="AA16" s="14"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>721</v>
       </c>
       <c r="S17" s="2"/>
@@ -32674,7 +32750,7 @@
         <v>724</v>
       </c>
       <c r="S20" s="2"/>
-      <c r="T20" s="5"/>
+      <c r="T20" s="8"/>
       <c r="V20" s="1" t="s">
         <v>725</v>
       </c>
@@ -32686,7 +32762,7 @@
       <c r="C22" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="8"/>
       <c r="U22" s="1" t="s">
         <v>727</v>
       </c>
@@ -32697,20 +32773,20 @@
         <v>728</v>
       </c>
       <c r="S23" s="2"/>
-      <c r="U23" s="5"/>
-      <c r="Z23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="Z23" s="10"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="W24" s="11"/>
+      <c r="W24" s="13"/>
     </row>
     <row r="25" spans="4:12">
       <c r="D25" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="1" t="s">
@@ -32729,16 +32805,16 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="1" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="12"/>
+      <c r="T34" s="6"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -32776,7 +32852,7 @@
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="5"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="3:19">
       <c r="C3" s="1" t="s">
@@ -32803,15 +32879,15 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="3:27">
       <c r="C8" s="1" t="s">
@@ -32821,7 +32897,7 @@
       <c r="S8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="9"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="2" t="s">
@@ -32829,7 +32905,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="5"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
@@ -32838,7 +32914,7 @@
       <c r="S11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="X11" s="10"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="2" t="s">
@@ -32853,8 +32929,8 @@
         <v>53</v>
       </c>
       <c r="D14" s="37"/>
-      <c r="M14" s="5"/>
-      <c r="Q14" s="10"/>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="12"/>
       <c r="S14" s="1" t="s">
         <v>54</v>
       </c>
@@ -32866,13 +32942,13 @@
     </row>
     <row r="16" spans="4:26">
       <c r="D16" s="2"/>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="14"/>
     </row>
     <row r="17" spans="3:19">
       <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="8"/>
       <c r="S17" s="2" t="s">
         <v>57</v>
       </c>
@@ -32894,7 +32970,7 @@
       <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S20" s="5"/>
+      <c r="S20" s="8"/>
       <c r="T20" s="1" t="s">
         <v>62</v>
       </c>
@@ -32903,7 +32979,7 @@
       <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="8"/>
       <c r="S22" s="1" t="s">
         <v>64</v>
       </c>
@@ -32912,22 +32988,22 @@
       <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="T23" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="V24" s="11"/>
+      <c r="V24" s="13"/>
     </row>
     <row r="25" spans="3:19">
       <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="9"/>
       <c r="S25" s="1" t="s">
         <v>69</v>
       </c>
@@ -32946,7 +33022,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
@@ -32981,7 +33057,7 @@
       <c r="C35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="I35" s="1" t="s">
         <v>81</v>
       </c>
@@ -33022,7 +33098,7 @@
   <sheetPr/>
   <dimension ref="C1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
@@ -33045,7 +33121,7 @@
       <c r="D2" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="AA2" s="5"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
@@ -33067,13 +33143,13 @@
       <c r="C6" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="7"/>
       <c r="T6" s="1" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>742</v>
       </c>
       <c r="S7" s="2"/>
@@ -33081,13 +33157,13 @@
         <v>743</v>
       </c>
       <c r="Y7" s="2"/>
-      <c r="AB7" s="7"/>
+      <c r="AB7" s="9"/>
     </row>
     <row r="8" spans="4:28">
       <c r="D8" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="AB8" s="7"/>
+      <c r="AB8" s="9"/>
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="1" t="s">
@@ -33105,44 +33181,44 @@
     </row>
     <row r="11" spans="20:25">
       <c r="T11" s="2"/>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="4:20">
       <c r="D12" s="2"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="10"/>
     </row>
     <row r="13" spans="4:20">
       <c r="D13" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="T13" s="9"/>
+      <c r="T13" s="11"/>
     </row>
     <row r="14" spans="3:20">
       <c r="C14" s="1" t="s">
         <v>749</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="M14" s="5"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
       <c r="T14" s="1" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="16" spans="4:27">
       <c r="D16" s="2"/>
-      <c r="AA16" s="13"/>
+      <c r="AA16" s="14"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="3"/>
       <c r="S17" s="2"/>
       <c r="T17" s="1" t="s">
         <v>753</v>
@@ -33164,7 +33240,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="4" t="s">
+      <c r="T20" s="3" t="s">
         <v>756</v>
       </c>
     </row>
@@ -33175,7 +33251,7 @@
     </row>
     <row r="22" spans="3:25">
       <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="8"/>
       <c r="Y22" s="2"/>
     </row>
     <row r="23" spans="3:26">
@@ -33187,29 +33263,173 @@
       <c r="T23" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="U23" s="5"/>
-      <c r="Z23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="Z23" s="10"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="W24" s="11"/>
+      <c r="W24" s="13"/>
     </row>
     <row r="25" spans="4:12">
       <c r="D25" s="2"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="34" spans="20:20">
-      <c r="T34" s="12"/>
+      <c r="T34" s="6"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:U24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="3:20">
+      <c r="C4" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="5" spans="4:21">
+      <c r="D5" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="4:4">
+      <c r="D6" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="4:4">
+      <c r="D7" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20">
+      <c r="C8" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="4:21">
+      <c r="D9" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="3:20">
+      <c r="C11" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="12" spans="4:21">
+      <c r="D12" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20">
+      <c r="C14" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="15" spans="4:21">
+      <c r="D15" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="20" ht="14.4" spans="3:10">
+      <c r="C20" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J20" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" ht="17.85" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -33245,7 +33465,7 @@
       <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="5"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="3:18">
       <c r="C3" s="1" t="s">
@@ -33283,14 +33503,14 @@
       <c r="R7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="3:27">
       <c r="C8" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="9"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="2" t="s">
@@ -33301,7 +33521,7 @@
       <c r="C10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="8"/>
       <c r="R10" s="1" t="s">
         <v>100</v>
       </c>
@@ -33310,10 +33530,10 @@
       <c r="D11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="X11" s="10"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="1" t="s">
@@ -33332,8 +33552,8 @@
         <v>105</v>
       </c>
       <c r="D14" s="37"/>
-      <c r="M14" s="5"/>
-      <c r="Q14" s="10"/>
+      <c r="M14" s="8"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="1" t="s">
         <v>106</v>
       </c>
@@ -33346,13 +33566,13 @@
     </row>
     <row r="16" spans="4:26">
       <c r="D16" s="2"/>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="14"/>
     </row>
     <row r="17" spans="3:18">
       <c r="C17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="8"/>
       <c r="R17" s="2" t="s">
         <v>109</v>
       </c>
@@ -33374,7 +33594,7 @@
       <c r="D20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -33382,13 +33602,13 @@
       <c r="C21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="3:18">
       <c r="C23" s="1" t="s">
@@ -33402,11 +33622,11 @@
       <c r="C24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="V24" s="11"/>
+      <c r="V24" s="13"/>
     </row>
     <row r="25" spans="4:12">
       <c r="D25" s="2"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="3:18">
       <c r="C26" s="1" t="s">
@@ -33425,7 +33645,7 @@
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -33442,7 +33662,7 @@
   <sheetPr/>
   <dimension ref="C2:AB25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -33468,13 +33688,13 @@
       <c r="C4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="V4" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="4:23">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>128</v>
       </c>
       <c r="W5" s="1" t="s">
@@ -33482,13 +33702,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="7"/>
       <c r="V7" s="1" t="s">
         <v>131</v>
       </c>
@@ -33520,7 +33740,7 @@
       </c>
     </row>
     <row r="12" spans="4:23">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>138</v>
       </c>
       <c r="W12" s="1" t="s">
@@ -33528,17 +33748,17 @@
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="W13" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>141</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="18"/>
+      <c r="X14" s="19"/>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="35" t="s">
@@ -33549,7 +33769,7 @@
       <c r="C16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="8"/>
       <c r="V16" s="1" t="s">
         <v>144</v>
       </c>
@@ -33558,18 +33778,18 @@
       <c r="D17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="W17" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="18" spans="4:28">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>147</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -33577,27 +33797,27 @@
       <c r="C20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="V20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="18"/>
+      <c r="X20" s="19"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="3:22">
       <c r="C23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="3"/>
       <c r="V23" s="1" t="s">
         <v>153</v>
       </c>
@@ -33624,7 +33844,7 @@
   <sheetPr/>
   <dimension ref="B1:AA33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -33704,7 +33924,7 @@
       <c r="T13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="W13" s="12"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="3:21">
       <c r="C14" s="1" t="s">
@@ -33872,17 +34092,17 @@
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="3"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="3:29">
       <c r="C5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="7"/>
       <c r="T5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AC5" s="7"/>
+      <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="4:29">
       <c r="D6" s="2" t="s">
@@ -33891,7 +34111,7 @@
       <c r="U6" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="9"/>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="2" t="s">
@@ -33911,13 +34131,13 @@
         <v>207</v>
       </c>
       <c r="U9" s="2"/>
-      <c r="Z9" s="10"/>
+      <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="4:21">
       <c r="D10" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="U10" s="10" t="s">
         <v>209</v>
       </c>
     </row>
@@ -33925,7 +34145,7 @@
       <c r="D11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="11" t="s">
         <v>211</v>
       </c>
     </row>
@@ -33933,8 +34153,8 @@
       <c r="D12" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="S12" s="10"/>
+      <c r="M12" s="8"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" s="2" t="s">
@@ -33945,13 +34165,13 @@
       <c r="D14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AB14" s="13"/>
+      <c r="AB14" s="14"/>
     </row>
     <row r="15" spans="3:20">
       <c r="C15" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="8"/>
       <c r="T15" s="2" t="s">
         <v>216</v>
       </c>
@@ -33977,7 +34197,7 @@
       <c r="T18" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="U18" s="5"/>
+      <c r="U18" s="8"/>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="2" t="s">
@@ -33986,7 +34206,7 @@
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="3:22">
       <c r="C21" s="1" t="s">
@@ -33995,17 +34215,17 @@
       <c r="T21" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="V21" s="5"/>
+      <c r="V21" s="8"/>
     </row>
     <row r="22" spans="4:24">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="X22" s="11"/>
+      <c r="X22" s="13"/>
     </row>
     <row r="23" spans="4:12">
       <c r="D23" s="2"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="3:20">
       <c r="C24" s="1" t="s">
@@ -34024,7 +34244,7 @@
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="4"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="1" t="s">
         <v>230</v>
       </c>
@@ -34059,7 +34279,7 @@
       <c r="D32" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="U32" s="12" t="s">
+      <c r="U32" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -34067,7 +34287,7 @@
       <c r="D33" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:20">
       <c r="C34" s="1" t="s">
@@ -34095,8 +34315,8 @@
   <sheetPr/>
   <dimension ref="C1:AC47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AV28" sqref="AV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -34129,14 +34349,14 @@
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="4:29">
-      <c r="D5" s="3"/>
+      <c r="D5" s="7"/>
       <c r="T5" s="2"/>
-      <c r="AC5" s="7"/>
+      <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="3:29">
       <c r="C6" s="1" t="s">
@@ -34146,7 +34366,7 @@
       <c r="W6" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="9"/>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="2" t="s">
@@ -34164,13 +34384,13 @@
       <c r="W9" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="Z9" s="10"/>
+      <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="4:24">
       <c r="D10" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="U10" s="8"/>
+      <c r="U10" s="10"/>
       <c r="X10" s="1" t="s">
         <v>253</v>
       </c>
@@ -34179,15 +34399,15 @@
       <c r="D11" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="U11" s="9"/>
+      <c r="U11" s="11"/>
     </row>
     <row r="12" spans="3:23">
       <c r="C12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="M12" s="5"/>
-      <c r="S12" s="10"/>
+      <c r="M12" s="8"/>
+      <c r="S12" s="12"/>
       <c r="W12" s="1" t="s">
         <v>256</v>
       </c>
@@ -34201,13 +34421,13 @@
       <c r="D14" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AB14" s="13"/>
+      <c r="AB14" s="14"/>
     </row>
     <row r="15" spans="3:23">
       <c r="C15" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="8"/>
       <c r="T15" s="2"/>
       <c r="W15" s="1" t="s">
         <v>260</v>
@@ -34227,7 +34447,7 @@
         <v>262</v>
       </c>
       <c r="T18" s="2"/>
-      <c r="U18" s="5"/>
+      <c r="U18" s="8"/>
     </row>
     <row r="19" spans="3:23">
       <c r="C19" s="1" t="s">
@@ -34240,29 +34460,29 @@
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="2"/>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="21" spans="20:22">
       <c r="T21" s="2"/>
-      <c r="V21" s="5"/>
+      <c r="V21" s="8"/>
     </row>
     <row r="22" spans="3:24">
       <c r="C22" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="7"/>
       <c r="W22" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="X22" s="11"/>
+      <c r="X22" s="13"/>
     </row>
     <row r="23" spans="4:12">
       <c r="D23" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="25" spans="3:23">
       <c r="C25" s="1" t="s">
@@ -34273,7 +34493,7 @@
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="4"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="1" t="s">
         <v>271</v>
       </c>
@@ -34297,10 +34517,10 @@
       </c>
     </row>
     <row r="32" spans="21:21">
-      <c r="U32" s="12"/>
+      <c r="U32" s="6"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="6"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="47" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -34548,24 +34768,24 @@
       <c r="C4" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="V4" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="7"/>
       <c r="V7" s="1" t="s">
         <v>283</v>
       </c>
@@ -34589,28 +34809,28 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="3:22">
       <c r="C13" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="V13" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>290</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="X14" s="18"/>
+      <c r="X14" s="19"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>292</v>
       </c>
     </row>
@@ -34626,16 +34846,16 @@
       <c r="V17" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="W17" s="18"/>
+      <c r="W17" s="19"/>
     </row>
     <row r="18" spans="4:28">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>296</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="4:20">
-      <c r="D19" s="15"/>
+      <c r="D19" s="16"/>
       <c r="T19" s="1" t="s">
         <v>297</v>
       </c>
@@ -34644,20 +34864,20 @@
       <c r="C20" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="V20" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="X20" s="18"/>
+      <c r="X20" s="19"/>
     </row>
     <row r="21" spans="4:24">
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="X21" s="18"/>
+      <c r="X21" s="19"/>
     </row>
     <row r="22" spans="3:21">
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
       <c r="H22" s="1" t="s">
         <v>301</v>
       </c>
@@ -34667,13 +34887,13 @@
       <c r="C23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="3"/>
       <c r="V23" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>304</v>
       </c>
       <c r="W24" s="1" t="s">
@@ -34699,7 +34919,7 @@
       <c r="C28" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="18"/>
       <c r="V28" s="1" t="s">
         <v>310</v>
       </c>
@@ -34722,7 +34942,7 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>314</v>
       </c>
     </row>

--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="16" activeTab="23"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="20250810" sheetId="26" r:id="rId22"/>
     <sheet name="20250817" sheetId="27" r:id="rId23"/>
     <sheet name="20250824" sheetId="29" r:id="rId24"/>
+    <sheet name="20251019" sheetId="30" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="936">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -11780,6 +11781,96 @@
   </si>
   <si>
     <t>xiè xiè ，tài gǎn xiè le</t>
+  </si>
+  <si>
+    <t>Chinese wedding</t>
+  </si>
+  <si>
+    <t>A: 你好！听说你很快要参加一场中国婚礼，能介绍一下吗？</t>
+  </si>
+  <si>
+    <t>A: Hi! I heard you're attending a Chinese wedding soon. Could you tell me about it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nǐ hǎo! Tīng shuō nǐ he3n kuài yào cān jiā yī chǎng Zhōng guó hūn lǐ, </t>
+  </si>
+  <si>
+    <t>néng jiè shào yī xià ma?</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>B: 当然！中国婚礼非常热闹，充满传统习俗。</t>
+  </si>
+  <si>
+    <t>B: Of course! Chinese weddings are very colorful and full of traditions.</t>
+  </si>
+  <si>
+    <t>Dāngrán! Zhōngguó hūnlǐ fēicháng rènao, chōngmǎn chuántǒng xísú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷清 </t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>A:有哪些常见的习俗呢？</t>
+  </si>
+  <si>
+    <t>A: What are some common customs?</t>
+  </si>
+  <si>
+    <t>Yǒu nǎxiē chángjiàn de xísú ne?</t>
+  </si>
+  <si>
+    <t>B:比如有敬茶仪式，新人向父母敬茶表示尊敬。</t>
+  </si>
+  <si>
+    <t>B: Well, there’s usually a tea ceremony where the couple serves tea to their parents as a sign of respect.</t>
+  </si>
+  <si>
+    <t>Bǐrú yǒu jìngchá yíshì, xīnrén xiàng fùmǔ jìngchá biǎoshì zūnjìng.</t>
+  </si>
+  <si>
+    <t>A: 听起来很有趣！</t>
+  </si>
+  <si>
+    <t>A: That sounds interesting!</t>
+  </si>
+  <si>
+    <t>Tīng qǐlái he3n yǒuqù!</t>
+  </si>
+  <si>
+    <t>B: 是的！新娘通常穿红色礼服，因为红色象征好运和幸福</t>
+  </si>
+  <si>
+    <t>B: Yes! And brides often wear red dresses because red symbolizes luck and happiness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shì de! Xīnniáng tōngcháng chuān hóngsè lǐfú, </t>
+  </si>
+  <si>
+    <t>yīnwèi hóngsè xiàngzhēng hǎoyùn hé xìngfú</t>
+  </si>
+  <si>
+    <t>A: 像西方婚礼一样交换戒指吗？</t>
+  </si>
+  <si>
+    <t>A: Do they exchange rings like in Western weddings?</t>
+  </si>
+  <si>
+    <t>Xiàng Xīfāng hūnlǐ yīyàng jiāohuàn jièzhī ma?</t>
+  </si>
+  <si>
+    <t>B: 是的，但还有红枣、莲子等象征多子多福的物品</t>
+  </si>
+  <si>
+    <t>B: Yes, but they also have other symbolic items like dates and lotus seeds for fertility.</t>
+  </si>
+  <si>
+    <t>Shì de, dàn hái yǒu hóngzǎo、liánzi děng xiàngzhēng duōzǐ duōfú de wùpǐn.</t>
   </si>
 </sst>
 </file>
@@ -12118,13 +12209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00864B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00A933"/>
+      <color rgb="FF62A73B"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12136,19 +12221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="-0.25"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B274"/>
+      <color rgb="FF00A933"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12166,8 +12239,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF5E8AC7"/>
+      <color rgb="FF579835"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0066B3"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <name val="Ubuntu"/>
       <charset val="134"/>
     </font>
     <font>
@@ -12183,14 +12267,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF579835"/>
+      <color rgb="FF5E8AC7"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12198,11 +12276,11 @@
       <sz val="11"/>
       <color rgb="FF62A73B"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFF58220"/>
+      <color rgb="FF00B274"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12220,15 +12298,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0066B3"/>
+      <color theme="9"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF62A73B"/>
+      <color rgb="FF00864B"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12237,8 +12315,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="6.4"/>
-      <name val="Ubuntu"/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.25"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF58220"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -35458,7 +35549,7 @@
   <sheetPr/>
   <dimension ref="B2:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
@@ -35588,6 +35679,193 @@
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="4"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:AA27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="B4" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="W4" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="B7" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="W7" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="9" spans="10:13">
+      <c r="J9" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="W13" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23">
+      <c r="C14" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="W16" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22">
+      <c r="C17" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="V17" s="10"/>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="C18" s="6"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="W19" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23">
+      <c r="C20" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="3:23">
+      <c r="C21" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="W22" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="9"/>

--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="17" activeTab="24"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="20250817" sheetId="27" r:id="rId23"/>
     <sheet name="20250824" sheetId="29" r:id="rId24"/>
     <sheet name="20251019" sheetId="30" r:id="rId25"/>
+    <sheet name="20251228" sheetId="31" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="965">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -11871,6 +11872,103 @@
   </si>
   <si>
     <t>Shì de, dàn hái yǒu hóngzǎo、liánzi děng xiàngzhēng duōzǐ duōfú de wùpǐn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: 小李，你开始养猫啦？ </t>
+  </si>
+  <si>
+    <t>Xiao Li, have you started raising a cat?</t>
+  </si>
+  <si>
+    <t>Xiǎo Lǐ, nǐ kāishǐ yǎng māo la?</t>
+  </si>
+  <si>
+    <t>B: 对呀！我上周领养了一只三个月大的英短，叫 “糯米”。</t>
+  </si>
+  <si>
+    <t>Yes! I adopted a 3-month-old British Shorthair last week, named "Nuomi" (Glutinous Rice).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duì ya! Wǒ shàng zhōu lǐngyǎng le yī zhī </t>
+  </si>
+  <si>
+    <t>sān ge yuè dà de Yīngduǎn, jiào "Nuòmǐ".</t>
+  </si>
+  <si>
+    <t>A: 真可爱！它是公猫还是母猫？</t>
+  </si>
+  <si>
+    <t>So cute! Is it a male cat or a female cat?</t>
+  </si>
+  <si>
+    <t>Zhēn kě'ài! Tā shì gōngmāo hái shì mǔmāo?</t>
+  </si>
+  <si>
+    <t>B: 是小公猫。但它半夜总跑酷，我睡不着，该怎么办？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a little male cat. But it always runs around wildly at night; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shì xiǎo gōngmāo. Dàn tā bànyè zǒng pǎokù, </t>
+  </si>
+  <si>
+    <t>I can't sleep. What should I do?</t>
+  </si>
+  <si>
+    <t>wǒ shuì bù zháo, gāi zěnmebàn?</t>
+  </si>
+  <si>
+    <t>A: 白天多陪它玩，用逗猫棒或小球消耗它的体力，晚上就安静了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play with it more during the day—use a cat teaser or a small ball to tire it out, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Báitiān duō péi tā wán, yòng dòumāobàng huò xiǎo qiú </t>
+  </si>
+  <si>
+    <t>and it will be quiet at night.</t>
+  </si>
+  <si>
+    <t>xiāohào tā de tǐlì, wǎnshàng jiù ānjìng le.</t>
+  </si>
+  <si>
+    <t>B: 好的！那饮食要注意什么？我喂它幼猫粮。</t>
+  </si>
+  <si>
+    <t>Got it! What should I pay attention to with its diet? I feed it kitten food.</t>
+  </si>
+  <si>
+    <t>Hǎo de! Nà yǐnshí yào zhùyì shénme? Wǒ wèi tā māoliáng.</t>
+  </si>
+  <si>
+    <t>A: 要喂温水，别喂牛奶，会拉肚子。</t>
+  </si>
+  <si>
+    <t>Feed it warm water, don't give it milk—it will have diarrhea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yào wèi wēn shuǐ, bié wèi niúnǎi, huì lā dùzi. </t>
+  </si>
+  <si>
+    <t>墨影</t>
+  </si>
+  <si>
+    <r>
+      <t>mò yǐng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‌</t>
+    </r>
+  </si>
+  <si>
+    <t>Ink shadow (as deep as ink, as agile as shadow)</t>
   </si>
 </sst>
 </file>
@@ -11883,7 +11981,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="70">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11927,6 +12025,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF1C1C1C"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -11940,12 +12044,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006C3B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -11975,6 +12073,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF407927"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="1"/>
@@ -11987,7 +12091,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF407927"/>
+      <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -11999,19 +12103,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFED1C24"/>
+      <color rgb="FF0066B3"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0066B3"/>
+      <color rgb="FFED1C24"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12209,31 +12307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF62A73B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1B75BC"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00A933"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006C3B"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -12242,53 +12316,6 @@
       <color rgb="FF579835"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0066B3"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6.4"/>
-      <name val="Ubuntu"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF72BF44"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF5E8AC7"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B274"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12309,6 +12336,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF58220"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B274"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5E8AC7"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B75BC"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF72BF44"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <name val="Ubuntu"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A933"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0066B3"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="7" tint="-0.25"/>
       <name val="等线"/>
@@ -12319,18 +12434,6 @@
       <color theme="7" tint="-0.25"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFF58220"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -12819,9 +12922,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -13151,12 +13254,12 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:27">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:26">
+    <row r="4" spans="3:27">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -13164,15 +13267,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="3:27">
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="3:27">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="3:26">
+    <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -13180,7 +13283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:27">
+    <row r="8" spans="3:27">
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
@@ -13188,12 +13291,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="3:27">
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:26">
+    <row r="10" spans="3:27">
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -13201,7 +13304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="4:27">
+    <row r="11" spans="3:27">
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
@@ -13209,12 +13312,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="3:27">
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="3:26">
+    <row r="13" spans="3:27">
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -13222,12 +13325,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="3:27">
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:26">
+    <row r="16" spans="3:27">
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
@@ -13236,16 +13339,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="4:23">
+    <row r="17" spans="3:27">
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="10"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="3:26">
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="3:27">
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
@@ -13254,33 +13357,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="3:27">
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="27:27">
+    <row r="21" spans="3:27">
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="3:26">
+    <row r="22" spans="3:27">
       <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="8"/>
       <c r="Z22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="4:23">
-      <c r="D23" s="8" t="s">
+    <row r="23" spans="3:27">
+      <c r="D23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="10"/>
-    </row>
-    <row r="24" spans="3:3">
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="3:27">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="3:26">
+    <row r="25" spans="3:27">
       <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
@@ -13289,12 +13392,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="3:27">
       <c r="D26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="3:26">
+    <row r="28" spans="3:27">
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -13302,7 +13405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="4:27">
+    <row r="29" spans="3:27">
       <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
@@ -13310,17 +13413,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="3:27">
       <c r="D30" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="3:27">
       <c r="D31" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="3:26">
+    <row r="32" spans="3:27">
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
@@ -13360,17 +13463,17 @@
     <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
+    <row r="2" spans="2:23">
       <c r="C2" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:23">
       <c r="B3" s="1" t="s">
         <v>328</v>
       </c>
@@ -13378,7 +13481,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="3:23">
+    <row r="4" spans="2:23">
       <c r="C4" s="1" t="s">
         <v>330</v>
       </c>
@@ -13386,17 +13489,17 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="2:23">
       <c r="C5" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="2:23">
       <c r="C6" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:23">
       <c r="B7" s="1" t="s">
         <v>334</v>
       </c>
@@ -13404,12 +13507,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="2:23">
       <c r="C8" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:23">
       <c r="B10" s="1" t="s">
         <v>337</v>
       </c>
@@ -13417,7 +13520,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="3:23">
+    <row r="11" spans="2:23">
       <c r="C11" s="1" t="s">
         <v>339</v>
       </c>
@@ -13425,7 +13528,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="3:23">
+    <row r="12" spans="2:23">
       <c r="C12" s="1" t="s">
         <v>341</v>
       </c>
@@ -13433,7 +13536,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="3:23">
+    <row r="13" spans="2:23">
       <c r="C13" s="1" t="s">
         <v>343</v>
       </c>
@@ -13441,17 +13544,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="2:23">
       <c r="C14" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="2:23">
       <c r="C15" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:23">
       <c r="B16" s="1" t="s">
         <v>347</v>
       </c>
@@ -13459,15 +13562,15 @@
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="2:27">
       <c r="C17" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="27:27">
+    <row r="18" spans="2:27">
       <c r="AA18" s="25"/>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:27">
       <c r="B19" s="1" t="s">
         <v>350</v>
       </c>
@@ -13476,7 +13579,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="20" spans="3:23">
+    <row r="20" spans="2:27">
       <c r="C20" s="1" t="s">
         <v>352</v>
       </c>
@@ -13484,17 +13587,17 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="2:27">
       <c r="C21" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="2:27">
       <c r="C22" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:27">
       <c r="B24" s="1" t="s">
         <v>356</v>
       </c>
@@ -13502,7 +13605,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="3:23">
+    <row r="25" spans="2:27">
       <c r="C25" s="1" t="s">
         <v>358</v>
       </c>
@@ -13510,7 +13613,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="3:23">
+    <row r="26" spans="2:27">
       <c r="C26" s="1" t="s">
         <v>360</v>
       </c>
@@ -13518,13 +13621,13 @@
         <v>361</v>
       </c>
     </row>
-    <row r="27" spans="3:25">
+    <row r="27" spans="2:27">
       <c r="C27" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Y27" s="25"/>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:27">
       <c r="B28" s="1" t="s">
         <v>363</v>
       </c>
@@ -13532,7 +13635,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="3:23">
+    <row r="29" spans="2:27">
       <c r="C29" s="1" t="s">
         <v>365</v>
       </c>
@@ -13540,7 +13643,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:27">
       <c r="B31" s="1" t="s">
         <v>367</v>
       </c>
@@ -13549,7 +13652,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="32" spans="3:19">
+    <row r="32" spans="2:27">
       <c r="C32" s="1" t="s">
         <v>369</v>
       </c>
@@ -13584,17 +13687,17 @@
     <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
+    <row r="2" spans="2:23">
       <c r="C2" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:23">
       <c r="B3" s="1" t="s">
         <v>371</v>
       </c>
@@ -13602,17 +13705,17 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="2:23">
       <c r="C4" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="12:12">
+    <row r="5" spans="2:23">
       <c r="L5" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:23">
       <c r="B6" s="1" t="s">
         <v>375</v>
       </c>
@@ -13620,7 +13723,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="3:19">
+    <row r="7" spans="2:23">
       <c r="C7" s="1" t="s">
         <v>377</v>
       </c>
@@ -13628,17 +13731,17 @@
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="2:23">
       <c r="C8" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="2:23">
       <c r="C9" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:23">
       <c r="B10" s="1" t="s">
         <v>381</v>
       </c>
@@ -13646,7 +13749,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="2:23">
       <c r="C11" s="1" t="s">
         <v>383</v>
       </c>
@@ -13660,15 +13763,15 @@
       </c>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="2:23">
       <c r="C14" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="2:23">
       <c r="C16" s="12"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1025">
+    <row r="17" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -13696,7 +13799,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="19"/>
+      <c r="Z17" s="18"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -14697,7 +14800,7 @@
       <c r="AMJ17" s="1"/>
       <c r="AMK17" s="1"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:1025">
+    <row r="18" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -15728,7 +15831,7 @@
       <c r="AMJ18" s="1"/>
       <c r="AMK18" s="1"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:1025">
+    <row r="19" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -16757,7 +16860,7 @@
       <c r="AMJ19" s="1"/>
       <c r="AMK19" s="1"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:1025">
+    <row r="20" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17784,7 +17887,7 @@
       <c r="AMJ20" s="1"/>
       <c r="AMK20" s="1"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:1025">
+    <row r="21" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -18815,7 +18918,7 @@
       <c r="AMJ21" s="1"/>
       <c r="AMK21" s="1"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:1025">
+    <row r="22" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -19844,7 +19947,7 @@
       <c r="AMJ22" s="1"/>
       <c r="AMK22" s="1"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:1025">
+    <row r="23" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -20871,7 +20974,7 @@
       <c r="AMJ23" s="1"/>
       <c r="AMK23" s="1"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:1025">
+    <row r="24" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -21902,7 +22005,7 @@
       <c r="AMJ24" s="1"/>
       <c r="AMK24" s="1"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:1025">
+    <row r="25" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -21926,7 +22029,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="18"/>
+      <c r="V25" s="19"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -22931,7 +23034,7 @@
       <c r="AMJ25" s="1"/>
       <c r="AMK25" s="1"/>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:1025">
+    <row r="26" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -23958,7 +24061,7 @@
       <c r="AMJ26" s="1"/>
       <c r="AMK26" s="1"/>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:1025">
+    <row r="27" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -24989,7 +25092,7 @@
       <c r="AMJ27" s="1"/>
       <c r="AMK27" s="1"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1025">
+    <row r="28" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -26018,7 +26121,7 @@
       <c r="AMJ28" s="1"/>
       <c r="AMK28" s="1"/>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:1025">
+    <row r="29" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="4"/>
@@ -27047,7 +27150,7 @@
       <c r="AMJ29" s="1"/>
       <c r="AMK29" s="1"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:1025">
+    <row r="30" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -28078,7 +28181,7 @@
       <c r="AMJ30" s="1"/>
       <c r="AMK30" s="1"/>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:1025">
+    <row r="31" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -29107,7 +29210,7 @@
       <c r="AMJ31" s="1"/>
       <c r="AMK31" s="1"/>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:1025">
+    <row r="32" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -30134,7 +30237,7 @@
       <c r="AMJ32" s="1"/>
       <c r="AMK32" s="1"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:1025">
+    <row r="33" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -31165,7 +31268,7 @@
       <c r="AMJ33" s="1"/>
       <c r="AMK33" s="1"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:1025">
+    <row r="34" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -32218,7 +32321,7 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:24">
       <c r="B2" s="1" t="s">
         <v>155</v>
       </c>
@@ -32226,12 +32329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="2:24">
       <c r="D3" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="3:20">
+    <row r="4" spans="2:24">
       <c r="C4" s="1" t="s">
         <v>408</v>
       </c>
@@ -32240,15 +32343,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="2:24">
       <c r="D5" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="2:24">
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="3:20">
+    <row r="7" spans="2:24">
       <c r="C7" s="1" t="s">
         <v>411</v>
       </c>
@@ -32257,12 +32360,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="4:4">
+    <row r="8" spans="2:24">
       <c r="D8" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="3:20">
+    <row r="10" spans="2:24">
       <c r="C10" s="1" t="s">
         <v>414</v>
       </c>
@@ -32270,15 +32373,15 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="2:24">
       <c r="D11" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="2:24">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="3:20">
+    <row r="13" spans="2:24">
       <c r="C13" s="1" t="s">
         <v>417</v>
       </c>
@@ -32287,7 +32390,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="4:24">
+    <row r="14" spans="2:24">
       <c r="D14" s="4" t="s">
         <v>419</v>
       </c>
@@ -32295,9 +32398,9 @@
         <v>420</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="4:21">
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="2:24">
       <c r="D15" s="3" t="s">
         <v>421</v>
       </c>
@@ -32305,61 +32408,61 @@
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="2:24">
       <c r="D16" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="3:23">
+    <row r="17" spans="3:28">
       <c r="C17" s="1" t="s">
         <v>424</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="W17" s="10"/>
-    </row>
-    <row r="18" spans="4:28">
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="3:28">
       <c r="D18" s="6" t="s">
         <v>426</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="3:24">
+    <row r="19" spans="3:28">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="3:28">
       <c r="C20" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="T20" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="4:24">
-      <c r="D21" s="8"/>
+      <c r="X20" s="7"/>
+    </row>
+    <row r="21" spans="3:28">
+      <c r="D21" s="9"/>
       <c r="U21" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="X21" s="10"/>
-    </row>
-    <row r="22" spans="3:21">
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="3:28">
       <c r="C22" s="4"/>
       <c r="D22" s="1" t="s">
         <v>430</v>
       </c>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="4:19">
+    <row r="23" spans="3:28">
       <c r="D23" s="5"/>
       <c r="F23" s="2"/>
       <c r="S23" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="24" spans="3:20">
+    <row r="24" spans="3:28">
       <c r="C24" s="1" t="s">
         <v>432</v>
       </c>
@@ -32368,12 +32471,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="3:28">
       <c r="D25" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="27" spans="3:20">
+    <row r="27" spans="3:28">
       <c r="C27" s="1" t="s">
         <v>435</v>
       </c>
@@ -32381,12 +32484,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="3:28">
       <c r="D28" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="30" spans="3:20">
+    <row r="30" spans="3:28">
       <c r="C30" s="1" t="s">
         <v>438</v>
       </c>
@@ -32394,7 +32497,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="3:28">
       <c r="D31" s="1" t="s">
         <v>440</v>
       </c>
@@ -32407,7 +32510,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="3:20">
       <c r="D34" s="1" t="s">
         <v>443</v>
       </c>
@@ -32436,17 +32539,17 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:27">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="3:27">
       <c r="D3" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="3:22">
+    <row r="4" spans="3:27">
       <c r="C4" s="1" t="s">
         <v>445</v>
       </c>
@@ -32455,7 +32558,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" ht="19.6" customHeight="1" spans="4:23">
+    <row r="5" ht="19.6" customHeight="1" spans="3:27">
       <c r="D5" s="4" t="s">
         <v>447</v>
       </c>
@@ -32463,19 +32566,19 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="4:27">
-      <c r="D6" s="10" t="s">
+    <row r="6" spans="3:27">
+      <c r="D6" s="7" t="s">
         <v>449</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="AA6" s="21"/>
-    </row>
-    <row r="7" spans="4:4">
+      <c r="AA6" s="20"/>
+    </row>
+    <row r="7" spans="3:27">
       <c r="D7" s="6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="3:22">
+    <row r="8" spans="3:27">
       <c r="C8" s="1" t="s">
         <v>451</v>
       </c>
@@ -32484,7 +32587,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="4:23">
+    <row r="9" spans="3:27">
       <c r="D9" s="1" t="s">
         <v>453</v>
       </c>
@@ -32492,7 +32595,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="4:23">
+    <row r="10" spans="3:27">
       <c r="D10" s="1" t="s">
         <v>455</v>
       </c>
@@ -32500,17 +32603,17 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="3:27">
       <c r="D11" s="4" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="3:27">
       <c r="D12" s="4" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="3:22">
+    <row r="13" spans="3:27">
       <c r="C13" s="1" t="s">
         <v>459</v>
       </c>
@@ -32519,17 +32622,17 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="3:27">
       <c r="D14" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="4:26">
+    <row r="15" spans="3:27">
       <c r="D15" s="4"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="10"/>
-    </row>
-    <row r="16" spans="3:22">
+      <c r="Z15" s="7"/>
+    </row>
+    <row r="16" spans="3:27">
       <c r="C16" s="1" t="s">
         <v>462</v>
       </c>
@@ -32538,7 +32641,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="4:23">
+    <row r="17" spans="3:43">
       <c r="D17" s="2" t="s">
         <v>464</v>
       </c>
@@ -32546,7 +32649,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="4:23">
+    <row r="18" spans="3:43">
       <c r="D18" s="2" t="s">
         <v>466</v>
       </c>
@@ -32554,7 +32657,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="4:23">
+    <row r="19" spans="3:43">
       <c r="D19" s="24" t="s">
         <v>468</v>
       </c>
@@ -32562,72 +32665,72 @@
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="4:25">
+    <row r="20" spans="3:43">
       <c r="D20" s="2" t="s">
         <v>470</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="Y20" s="10"/>
-    </row>
-    <row r="21" spans="4:30">
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="3:43">
       <c r="D21" s="6" t="s">
         <v>472</v>
       </c>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="4:30">
+    <row r="22" spans="3:43">
       <c r="D22" s="6" t="s">
         <v>473</v>
       </c>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="4:30">
+    <row r="23" spans="3:43">
       <c r="D23" s="2" t="s">
         <v>474</v>
       </c>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="4:30">
+    <row r="24" spans="3:43">
       <c r="D24" s="6"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:43">
       <c r="C25" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="4:26">
+    <row r="26" spans="3:43">
       <c r="D26" s="2" t="s">
         <v>476</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="Z26" s="10"/>
-    </row>
-    <row r="27" spans="4:4">
+      <c r="Z26" s="7"/>
+    </row>
+    <row r="27" spans="3:43">
       <c r="D27" s="6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="3:43">
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="3:43">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="42:43">
+    <row r="30" spans="3:43">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="3:43">
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="10"/>
+      <c r="D34" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -32655,17 +32758,17 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:27">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="4:4">
+    <row r="2" spans="3:27">
       <c r="D2" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="3:23">
+    <row r="3" spans="3:27">
       <c r="C3" s="1" t="s">
         <v>480</v>
       </c>
@@ -32673,17 +32776,17 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="3:27">
       <c r="D4" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="6:6">
+    <row r="5" spans="3:27">
       <c r="F5" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="3:23">
+    <row r="6" spans="3:27">
       <c r="C6" s="1" t="s">
         <v>484</v>
       </c>
@@ -32692,7 +32795,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="4:27">
+    <row r="7" spans="3:27">
       <c r="D7" s="1" t="s">
         <v>486</v>
       </c>
@@ -32701,18 +32804,18 @@
       </c>
       <c r="AA7" s="14"/>
     </row>
-    <row r="8" spans="4:27">
+    <row r="8" spans="3:27">
       <c r="D8" s="2" t="s">
         <v>488</v>
       </c>
       <c r="AA8" s="14"/>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="3:27">
       <c r="D9" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="10" spans="3:23">
+    <row r="10" spans="3:27">
       <c r="C10" s="1" t="s">
         <v>490</v>
       </c>
@@ -32720,15 +32823,15 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="4:24">
+    <row r="11" spans="3:27">
       <c r="D11" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="X11" s="17" t="s">
+      <c r="X11" s="15" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="4:24">
+    <row r="12" spans="3:27">
       <c r="D12" s="2" t="s">
         <v>494</v>
       </c>
@@ -32736,12 +32839,12 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="3:27">
       <c r="D13" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="3:23">
+    <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
         <v>497</v>
       </c>
@@ -32749,21 +32852,21 @@
         <v>498</v>
       </c>
     </row>
-    <row r="16" spans="4:26">
+    <row r="16" spans="3:27">
       <c r="D16" s="2" t="s">
         <v>499</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="4:4">
+      <c r="Z16" s="18"/>
+    </row>
+    <row r="17" spans="3:24">
       <c r="D17" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="3:23">
+    <row r="18" spans="3:24">
       <c r="C18" s="1" t="s">
         <v>502</v>
       </c>
@@ -32771,7 +32874,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="4:24">
+    <row r="19" spans="3:24">
       <c r="D19" s="1" t="s">
         <v>504</v>
       </c>
@@ -32780,17 +32883,17 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="3:24">
       <c r="D20" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="3:24">
       <c r="D21" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="3:23">
+    <row r="22" spans="3:24">
       <c r="C22" s="1" t="s">
         <v>508</v>
       </c>
@@ -32799,21 +32902,21 @@
         <v>509</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="3:24">
       <c r="D23" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="25" spans="3:23">
+    <row r="25" spans="3:24">
       <c r="C25" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="V25" s="18"/>
+      <c r="V25" s="19"/>
       <c r="W25" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="26" spans="4:24">
+    <row r="26" spans="3:24">
       <c r="D26" s="2" t="s">
         <v>513</v>
       </c>
@@ -32822,7 +32925,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="4:24">
+    <row r="27" spans="3:24">
       <c r="D27" s="2" t="s">
         <v>515</v>
       </c>
@@ -32831,17 +32934,17 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="3:24">
       <c r="D28" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="3:24">
       <c r="D29" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="3:23">
+    <row r="30" spans="3:24">
       <c r="C30" s="1" t="s">
         <v>519</v>
       </c>
@@ -32849,12 +32952,12 @@
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="3:24">
       <c r="D31" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="3:24">
       <c r="D32" s="2" t="s">
         <v>522</v>
       </c>
@@ -32889,17 +32992,17 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:27">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="4:4">
+    <row r="2" spans="3:27">
       <c r="D2" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="3:23">
+    <row r="3" spans="3:27">
       <c r="C3" s="1" t="s">
         <v>524</v>
       </c>
@@ -32907,12 +33010,12 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="3:27">
       <c r="D4" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="3:23">
+    <row r="6" spans="3:27">
       <c r="C6" s="1" t="s">
         <v>527</v>
       </c>
@@ -32921,18 +33024,18 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="4:27">
+    <row r="7" spans="3:27">
       <c r="D7" s="1" t="s">
         <v>529</v>
       </c>
       <c r="X7" s="2"/>
       <c r="AA7" s="14"/>
     </row>
-    <row r="8" spans="4:27">
+    <row r="8" spans="3:27">
       <c r="D8" s="2"/>
       <c r="AA8" s="14"/>
     </row>
-    <row r="9" spans="3:23">
+    <row r="9" spans="3:27">
       <c r="C9" s="1" t="s">
         <v>530</v>
       </c>
@@ -32941,7 +33044,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="4:24">
+    <row r="10" spans="3:27">
       <c r="D10" s="1" t="s">
         <v>532</v>
       </c>
@@ -32950,21 +33053,21 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="4:24">
+    <row r="11" spans="3:27">
       <c r="D11" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="X11" s="17"/>
-    </row>
-    <row r="12" spans="4:4">
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="3:27">
       <c r="D12" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="3:27">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:23">
+    <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>536</v>
       </c>
@@ -32972,24 +33075,24 @@
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="3:27">
       <c r="D15" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="16" spans="4:26">
+    <row r="16" spans="3:27">
       <c r="D16" s="2" t="s">
         <v>539</v>
       </c>
       <c r="X16" s="2"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="4:4">
+      <c r="Z16" s="18"/>
+    </row>
+    <row r="17" spans="3:24">
       <c r="D17" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="18" spans="23:23">
+    <row r="18" spans="3:24">
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="3:24">
@@ -32999,7 +33102,7 @@
       <c r="U19" s="14"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="3:23">
+    <row r="20" spans="3:24">
       <c r="C20" s="1" t="s">
         <v>542</v>
       </c>
@@ -33008,16 +33111,16 @@
         <v>543</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="4:4">
+    <row r="21" ht="15" spans="3:24">
       <c r="D21" s="11" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="22" spans="4:23">
+    <row r="22" spans="3:24">
       <c r="D22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="3:23">
+    <row r="23" spans="3:24">
       <c r="C23" s="1" t="s">
         <v>545</v>
       </c>
@@ -33026,7 +33129,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="24" spans="4:24">
+    <row r="24" spans="3:24">
       <c r="D24" s="1" t="s">
         <v>547</v>
       </c>
@@ -33034,30 +33137,30 @@
         <v>548</v>
       </c>
     </row>
-    <row r="25" spans="4:24">
+    <row r="25" spans="3:24">
       <c r="D25" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="V25" s="18"/>
+      <c r="V25" s="19"/>
       <c r="X25" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="4:24">
+    <row r="26" spans="3:24">
       <c r="D26" s="2" t="s">
         <v>551</v>
       </c>
       <c r="L26" s="14"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="4:24">
+    <row r="27" spans="3:24">
       <c r="D27" s="2" t="s">
         <v>552</v>
       </c>
       <c r="L27" s="14"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="3:23">
+    <row r="28" spans="3:24">
       <c r="C28" s="1" t="s">
         <v>553</v>
       </c>
@@ -33067,15 +33170,15 @@
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="3:24">
       <c r="D29" s="23" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="3:24">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="23:23">
+    <row r="31" spans="3:24">
       <c r="W31" s="2"/>
     </row>
     <row r="33" spans="4:4">
@@ -33109,17 +33212,17 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:27">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="3:27">
       <c r="D3" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="3:21">
+    <row r="4" spans="3:27">
       <c r="C4" s="1" t="s">
         <v>557</v>
       </c>
@@ -33128,17 +33231,17 @@
         <v>558</v>
       </c>
     </row>
-    <row r="5" ht="14.4" customHeight="1" spans="4:4">
+    <row r="5" ht="14.4" customHeight="1" spans="3:27">
       <c r="D5" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="4:27">
-      <c r="D6" s="10"/>
+    <row r="6" spans="3:27">
+      <c r="D6" s="7"/>
       <c r="E6" s="2"/>
-      <c r="AA6" s="21"/>
-    </row>
-    <row r="7" spans="3:21">
+      <c r="AA6" s="20"/>
+    </row>
+    <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>560</v>
       </c>
@@ -33147,16 +33250,16 @@
         <v>561</v>
       </c>
     </row>
-    <row r="8" spans="4:22">
+    <row r="8" spans="3:27">
       <c r="D8" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="U8" s="10"/>
+      <c r="U8" s="7"/>
       <c r="V8" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="3:22">
+    <row r="9" spans="3:27">
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>564</v>
@@ -33165,23 +33268,23 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:27">
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="3:27">
       <c r="D11" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="3:27">
       <c r="D12" s="4" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="3:21">
+    <row r="13" spans="3:27">
       <c r="C13" s="1" t="s">
         <v>569</v>
       </c>
@@ -33190,7 +33293,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="14" spans="4:22">
+    <row r="14" spans="3:27">
       <c r="D14" s="22" t="s">
         <v>571</v>
       </c>
@@ -33198,12 +33301,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="3:27">
       <c r="D15" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="3:26">
+    <row r="16" spans="3:27">
       <c r="C16" s="1" t="s">
         <v>574</v>
       </c>
@@ -33212,9 +33315,9 @@
         <v>575</v>
       </c>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="10"/>
-    </row>
-    <row r="17" spans="4:22">
+      <c r="Z16" s="7"/>
+    </row>
+    <row r="17" spans="3:30">
       <c r="D17" s="6" t="s">
         <v>576</v>
       </c>
@@ -33222,12 +33325,12 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="3:30">
       <c r="D18" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="3:21">
+    <row r="19" spans="3:30">
       <c r="C19" s="1" t="s">
         <v>579</v>
       </c>
@@ -33236,20 +33339,20 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="3:30">
       <c r="D20" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="21" spans="4:25">
+    <row r="21" spans="3:30">
       <c r="D21" s="2"/>
-      <c r="Y21" s="10"/>
-    </row>
-    <row r="22" spans="4:30">
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="3:30">
       <c r="D22" s="6"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="4:30">
+    <row r="23" spans="3:30">
       <c r="D23" s="6" t="s">
         <v>582</v>
       </c>
@@ -33265,7 +33368,7 @@
       </c>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="4:30">
+    <row r="25" spans="3:30">
       <c r="D25" s="2" t="s">
         <v>585</v>
       </c>
@@ -33274,13 +33377,13 @@
       </c>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="4:30">
+    <row r="26" spans="3:30">
       <c r="D26" s="6" t="s">
         <v>587</v>
       </c>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="3:22">
+    <row r="27" spans="3:30">
       <c r="C27" s="1" t="s">
         <v>588</v>
       </c>
@@ -33289,19 +33392,19 @@
         <v>589</v>
       </c>
     </row>
-    <row r="28" spans="4:26">
+    <row r="28" spans="3:30">
       <c r="D28" s="2" t="s">
         <v>590</v>
       </c>
       <c r="W28" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="Z28" s="10"/>
-    </row>
-    <row r="29" spans="4:4">
+      <c r="Z28" s="7"/>
+    </row>
+    <row r="29" spans="3:30">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="3:22">
+    <row r="30" spans="3:30">
       <c r="C30" s="1" t="s">
         <v>592</v>
       </c>
@@ -33310,7 +33413,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="31" spans="4:23">
+    <row r="31" spans="3:30">
       <c r="D31" s="6" t="s">
         <v>594</v>
       </c>
@@ -33318,7 +33421,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="32" spans="4:23">
+    <row r="32" spans="3:30">
       <c r="D32" s="6" t="s">
         <v>596</v>
       </c>
@@ -33326,21 +33429,21 @@
         <v>597</v>
       </c>
     </row>
-    <row r="33" spans="4:43">
+    <row r="33" spans="3:43">
       <c r="D33" s="6" t="s">
         <v>598</v>
       </c>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2"/>
     </row>
-    <row r="34" spans="4:43">
+    <row r="34" spans="3:43">
       <c r="D34" s="6" t="s">
         <v>599</v>
       </c>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
     </row>
-    <row r="35" spans="3:22">
+    <row r="35" spans="3:43">
       <c r="C35" s="1" t="s">
         <v>600</v>
       </c>
@@ -33348,20 +33451,20 @@
         <v>601</v>
       </c>
     </row>
-    <row r="36" spans="4:23">
+    <row r="36" spans="3:43">
       <c r="D36" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="W36" s="10" t="s">
+      <c r="W36" s="7" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="10" t="s">
+    <row r="37" spans="3:43">
+      <c r="D37" s="7" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="38" spans="3:22">
+    <row r="38" spans="3:43">
       <c r="C38" s="1" t="s">
         <v>605</v>
       </c>
@@ -33369,7 +33472,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="3:43">
       <c r="D39" s="1" t="s">
         <v>607</v>
       </c>
@@ -33398,17 +33501,17 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="2:28">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="2:28">
       <c r="D3" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="3:27">
+    <row r="4" spans="2:28">
       <c r="C4" s="1" t="s">
         <v>609</v>
       </c>
@@ -33417,7 +33520,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="5" ht="14.4" customHeight="1" spans="4:28">
+    <row r="5" ht="14.4" customHeight="1" spans="2:28">
       <c r="D5" s="2" t="s">
         <v>611</v>
       </c>
@@ -33425,39 +33528,39 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="4:28">
+    <row r="6" spans="2:28">
       <c r="D6" s="6" t="s">
         <v>613</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="AA6" s="21"/>
+      <c r="AA6" s="20"/>
       <c r="AB6" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="7" spans="4:4">
+    <row r="7" spans="2:28">
       <c r="D7" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:28">
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="9" spans="3:27">
+    <row r="9" spans="2:28">
       <c r="C9" s="1" t="s">
         <v>617</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="U9" s="10"/>
+      <c r="U9" s="7"/>
       <c r="AA9" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="3:28">
+    <row r="10" spans="2:28">
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>619</v>
@@ -33466,18 +33569,18 @@
         <v>620</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="2:28">
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="2:28">
       <c r="D12" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="3:27">
+    <row r="13" spans="2:28">
       <c r="C13" s="1" t="s">
         <v>623</v>
       </c>
@@ -33486,7 +33589,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="14" spans="4:28">
+    <row r="14" spans="2:28">
       <c r="D14" s="4" t="s">
         <v>625</v>
       </c>
@@ -33494,12 +33597,12 @@
         <v>626</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="2:28">
       <c r="D15" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="16" spans="3:27">
+    <row r="16" spans="2:28">
       <c r="C16" s="1" t="s">
         <v>628</v>
       </c>
@@ -33507,17 +33610,17 @@
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="4:26">
+    <row r="17" spans="3:28">
       <c r="D17" s="4" t="s">
         <v>630</v>
       </c>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="10"/>
-    </row>
-    <row r="18" spans="4:4">
+      <c r="Z17" s="7"/>
+    </row>
+    <row r="18" spans="3:28">
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="3:27">
+    <row r="19" spans="3:28">
       <c r="C19" s="1" t="s">
         <v>631</v>
       </c>
@@ -33526,27 +33629,27 @@
         <v>632</v>
       </c>
     </row>
-    <row r="20" spans="4:28">
+    <row r="20" spans="3:28">
       <c r="D20" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="AB20" s="20" t="s">
+      <c r="AB20" s="21" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="3:28">
       <c r="D21" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="3:28">
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="4:25">
+    <row r="23" spans="3:28">
       <c r="D23" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="Y23" s="10"/>
+      <c r="Y23" s="7"/>
     </row>
     <row r="24" spans="3:28">
       <c r="C24" s="2" t="s">
@@ -33706,7 +33809,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="Z30" s="10"/>
+      <c r="Z30" s="7"/>
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="3:28">
@@ -33866,7 +33969,7 @@
       <c r="AA37" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="AB37" s="10"/>
+      <c r="AB37" s="7"/>
     </row>
     <row r="38" spans="3:28">
       <c r="C38" s="2"/>
@@ -33888,17 +33991,17 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="AB38" s="20" t="s">
+      <c r="AB38" s="21" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="3:28">
       <c r="D39" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="20" t="s">
+    <row r="40" spans="3:28">
+      <c r="D40" s="21" t="s">
         <v>657</v>
       </c>
     </row>
@@ -33926,17 +34029,17 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:23">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="3:23">
       <c r="D3" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="4" spans="3:20">
+    <row r="4" spans="3:23">
       <c r="C4" s="1" t="s">
         <v>659</v>
       </c>
@@ -33945,15 +34048,15 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="3:23">
       <c r="D5" s="4" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="3:23">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="3:20">
+    <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
         <v>662</v>
       </c>
@@ -33962,12 +34065,12 @@
         <v>663</v>
       </c>
     </row>
-    <row r="8" spans="4:4">
+    <row r="8" spans="3:23">
       <c r="D8" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="10" spans="3:20">
+    <row r="10" spans="3:23">
       <c r="C10" s="1" t="s">
         <v>665</v>
       </c>
@@ -33975,12 +34078,12 @@
         <v>666</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="3:23">
       <c r="D11" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="3:23">
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="3:23">
@@ -33991,17 +34094,17 @@
       <c r="T13" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="W13" s="10"/>
-    </row>
-    <row r="14" spans="4:4">
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="3:23">
       <c r="D14" s="6" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="3:23">
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="3:20">
+    <row r="16" spans="3:23">
       <c r="C16" s="1" t="s">
         <v>671</v>
       </c>
@@ -34009,38 +34112,38 @@
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="4:27">
+    <row r="17" spans="3:27">
       <c r="D17" s="3" t="s">
         <v>673</v>
       </c>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="3:23">
+    <row r="18" spans="3:27">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="3:27">
       <c r="C19" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="T19" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="W19" s="10"/>
-    </row>
-    <row r="20" spans="3:4">
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="3:27">
       <c r="C20" s="4"/>
       <c r="D20" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="3:27">
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="3:27">
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="3:20">
+    <row r="23" spans="3:27">
       <c r="C23" s="1" t="s">
         <v>677</v>
       </c>
@@ -34048,15 +34151,15 @@
         <v>678</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="3:27">
       <c r="D24" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="3:27">
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="3:20">
+    <row r="26" spans="3:27">
       <c r="C26" s="1" t="s">
         <v>680</v>
       </c>
@@ -34065,33 +34168,33 @@
         <v>681</v>
       </c>
     </row>
-    <row r="27" spans="4:27">
+    <row r="27" spans="3:27">
       <c r="D27" s="4" t="s">
         <v>682</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="AA27" s="9"/>
-    </row>
-    <row r="28" spans="4:4">
+      <c r="AA27" s="10"/>
+    </row>
+    <row r="28" spans="3:27">
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="3:20">
+    <row r="29" spans="3:27">
       <c r="C29" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="10"/>
       <c r="T29" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="3:27">
       <c r="D30" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="32" spans="3:20">
+    <row r="32" spans="3:27">
       <c r="C32" s="1" t="s">
         <v>687</v>
       </c>
@@ -34099,7 +34202,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="33" spans="4:21">
+    <row r="33" spans="3:21">
       <c r="D33" s="1" t="s">
         <v>689</v>
       </c>
@@ -34107,7 +34210,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="34" spans="4:21">
+    <row r="34" spans="3:21">
       <c r="D34" s="1" t="s">
         <v>691</v>
       </c>
@@ -34115,22 +34218,22 @@
         <v>692</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="3:21">
       <c r="D35" s="3" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="3:21">
       <c r="D36" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="3:21">
       <c r="D37" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="38" spans="3:20">
+    <row r="38" spans="3:21">
       <c r="C38" s="1" t="s">
         <v>696</v>
       </c>
@@ -34138,12 +34241,12 @@
         <v>697</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="3:21">
       <c r="D39" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="41" spans="3:20">
+    <row r="41" spans="3:21">
       <c r="C41" s="1" t="s">
         <v>699</v>
       </c>
@@ -34151,7 +34254,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="3:21">
       <c r="D42" s="3" t="s">
         <v>701</v>
       </c>
@@ -34182,18 +34285,18 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:28">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="4:27">
+    <row r="2" spans="3:28">
       <c r="D2" s="1" t="s">
         <v>702</v>
       </c>
       <c r="AA2" s="13"/>
     </row>
-    <row r="3" spans="3:21">
+    <row r="3" spans="3:28">
       <c r="C3" s="1" t="s">
         <v>703</v>
       </c>
@@ -34201,15 +34304,15 @@
         <v>704</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="3:28">
       <c r="D4" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="3:28">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="3:21">
+    <row r="6" spans="3:28">
       <c r="C6" s="1" t="s">
         <v>706</v>
       </c>
@@ -34218,7 +34321,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="7" spans="4:28">
+    <row r="7" spans="3:28">
       <c r="D7" s="6" t="s">
         <v>708</v>
       </c>
@@ -34226,11 +34329,11 @@
       <c r="Y7" s="2"/>
       <c r="AB7" s="14"/>
     </row>
-    <row r="8" spans="4:28">
+    <row r="8" spans="3:28">
       <c r="D8" s="2"/>
       <c r="AB8" s="14"/>
     </row>
-    <row r="9" spans="3:21">
+    <row r="9" spans="3:28">
       <c r="C9" s="1" t="s">
         <v>709</v>
       </c>
@@ -34239,51 +34342,51 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="3:28">
       <c r="D10" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="11" spans="20:25">
+    <row r="11" spans="3:28">
       <c r="T11" s="2"/>
-      <c r="Y11" s="17"/>
-    </row>
-    <row r="12" spans="3:21">
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="3:28">
       <c r="C12" s="1" t="s">
         <v>712</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="T12" s="15"/>
+      <c r="T12" s="16"/>
       <c r="U12" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="13" spans="4:22">
+    <row r="13" spans="3:28">
       <c r="D13" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="T13" s="16"/>
+      <c r="T13" s="17"/>
       <c r="V13" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="14" spans="4:22">
+    <row r="14" spans="3:28">
       <c r="D14" s="2" t="s">
         <v>716</v>
       </c>
       <c r="M14" s="13"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
       <c r="V14" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="3:28">
       <c r="D15" s="6" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="16" spans="3:27">
+    <row r="16" spans="3:28">
       <c r="C16" s="1" t="s">
         <v>719</v>
       </c>
@@ -34291,19 +34394,19 @@
       <c r="U16" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="AA16" s="19"/>
-    </row>
-    <row r="17" spans="4:19">
+      <c r="AA16" s="18"/>
+    </row>
+    <row r="17" spans="3:26">
       <c r="D17" s="4" t="s">
         <v>721</v>
       </c>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="4:20">
+    <row r="18" spans="3:26">
       <c r="D18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="3:25">
+    <row r="19" spans="3:26">
       <c r="C19" s="1" t="s">
         <v>722</v>
       </c>
@@ -34313,7 +34416,7 @@
       </c>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="4:22">
+    <row r="20" spans="3:26">
       <c r="D20" s="2" t="s">
         <v>724</v>
       </c>
@@ -34323,10 +34426,10 @@
         <v>725</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="3:26">
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="3:25">
+    <row r="22" spans="3:26">
       <c r="C22" s="2" t="s">
         <v>726</v>
       </c>
@@ -34336,27 +34439,27 @@
       </c>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="4:26">
+    <row r="23" spans="3:26">
       <c r="D23" s="2" t="s">
         <v>728</v>
       </c>
       <c r="S23" s="2"/>
       <c r="U23" s="13"/>
-      <c r="Z23" s="15"/>
-    </row>
-    <row r="24" spans="4:23">
+      <c r="Z23" s="16"/>
+    </row>
+    <row r="24" spans="3:26">
       <c r="D24" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="W24" s="18"/>
-    </row>
-    <row r="25" spans="4:12">
+      <c r="W24" s="19"/>
+    </row>
+    <row r="25" spans="3:26">
       <c r="D25" s="2" t="s">
         <v>730</v>
       </c>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="3:21">
+    <row r="26" spans="3:26">
       <c r="C26" s="1" t="s">
         <v>731</v>
       </c>
@@ -34364,7 +34467,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="27" spans="4:22">
+    <row r="27" spans="3:26">
       <c r="D27" s="1" t="s">
         <v>733</v>
       </c>
@@ -34372,16 +34475,16 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:26">
       <c r="C28" s="4"/>
       <c r="D28" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="34" spans="20:20">
+    <row r="34" spans="5:20">
       <c r="T34" s="12"/>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="5:20">
       <c r="E35" s="5"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
@@ -34411,18 +34514,18 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:27">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:26">
+    <row r="2" spans="3:27">
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Z2" s="13"/>
     </row>
-    <row r="3" spans="3:19">
+    <row r="3" spans="3:27">
       <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
@@ -34430,7 +34533,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="4:20">
+    <row r="4" spans="3:27">
       <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
@@ -34438,7 +34541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="4:20">
+    <row r="5" spans="3:27">
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
@@ -34446,12 +34549,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="3:27">
       <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="4:27">
+    <row r="7" spans="3:27">
       <c r="D7" s="6" t="s">
         <v>46</v>
       </c>
@@ -34467,52 +34570,52 @@
       </c>
       <c r="AA8" s="14"/>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="3:27">
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="3:27">
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="3:24">
+    <row r="11" spans="3:27">
       <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="X11" s="17"/>
-    </row>
-    <row r="12" spans="4:4">
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="3:27">
       <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="3:27">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:19">
+    <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="37"/>
       <c r="M14" s="13"/>
-      <c r="Q14" s="17"/>
+      <c r="Q14" s="15"/>
       <c r="S14" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="3:27">
       <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="4:26">
+    <row r="16" spans="3:27">
       <c r="D16" s="2"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="3:19">
+      <c r="Z16" s="18"/>
+    </row>
+    <row r="17" spans="3:22">
       <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
@@ -34521,7 +34624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="4:20">
+    <row r="18" spans="3:22">
       <c r="D18" s="1" t="s">
         <v>58</v>
       </c>
@@ -34529,12 +34632,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="3:22">
       <c r="D19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="4:20">
+    <row r="20" spans="3:22">
       <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
@@ -34543,7 +34646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="3:19">
+    <row r="22" spans="3:22">
       <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
@@ -34552,7 +34655,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="4:20">
+    <row r="23" spans="3:22">
       <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
@@ -34560,13 +34663,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="4:22">
+    <row r="24" spans="3:22">
       <c r="D24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="V24" s="18"/>
-    </row>
-    <row r="25" spans="3:19">
+      <c r="V24" s="19"/>
+    </row>
+    <row r="25" spans="3:22">
       <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
@@ -34576,7 +34679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="4:20">
+    <row r="26" spans="3:22">
       <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
@@ -34584,18 +34687,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="3:22">
       <c r="D27" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:22">
       <c r="C28" s="4"/>
       <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="3:19">
+    <row r="29" spans="3:22">
       <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
@@ -34603,12 +34706,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="3:22">
       <c r="D30" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="3:19">
+    <row r="32" spans="3:22">
       <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
@@ -34616,7 +34719,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="3:19">
       <c r="D33" s="1" t="s">
         <v>79</v>
       </c>
@@ -34636,7 +34739,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="3:19">
       <c r="D36" s="1" t="s">
         <v>84</v>
       </c>
@@ -34649,7 +34752,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="3:19">
       <c r="D39" s="1" t="s">
         <v>87</v>
       </c>
@@ -34680,18 +34783,18 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:28">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="4:27">
+    <row r="2" spans="3:28">
       <c r="D2" s="1" t="s">
         <v>736</v>
       </c>
       <c r="AA2" s="13"/>
     </row>
-    <row r="3" spans="3:20">
+    <row r="3" spans="3:28">
       <c r="C3" s="1" t="s">
         <v>737</v>
       </c>
@@ -34699,15 +34802,15 @@
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="3:28">
       <c r="D4" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="3:28">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="3:20">
+    <row r="6" spans="3:28">
       <c r="C6" s="1" t="s">
         <v>740</v>
       </c>
@@ -34716,7 +34819,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="7" spans="4:28">
+    <row r="7" spans="3:28">
       <c r="D7" s="6" t="s">
         <v>742</v>
       </c>
@@ -34727,13 +34830,13 @@
       <c r="Y7" s="2"/>
       <c r="AB7" s="14"/>
     </row>
-    <row r="8" spans="4:28">
+    <row r="8" spans="3:28">
       <c r="D8" s="2" t="s">
         <v>744</v>
       </c>
       <c r="AB8" s="14"/>
     </row>
-    <row r="9" spans="3:20">
+    <row r="9" spans="3:28">
       <c r="C9" s="1" t="s">
         <v>745</v>
       </c>
@@ -34742,47 +34845,47 @@
         <v>746</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="3:28">
       <c r="D10" s="2" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="11" spans="20:25">
+    <row r="11" spans="3:28">
       <c r="T11" s="2"/>
-      <c r="Y11" s="17"/>
-    </row>
-    <row r="12" spans="4:20">
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="3:28">
       <c r="D12" s="2"/>
-      <c r="T12" s="15"/>
-    </row>
-    <row r="13" spans="4:20">
+      <c r="T12" s="16"/>
+    </row>
+    <row r="13" spans="3:28">
       <c r="D13" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="T13" s="16"/>
-    </row>
-    <row r="14" spans="3:20">
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="3:28">
       <c r="C14" s="1" t="s">
         <v>749</v>
       </c>
       <c r="D14" s="2"/>
       <c r="M14" s="13"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
       <c r="T14" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="3:28">
       <c r="D15" s="6" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="16" spans="4:27">
+    <row r="16" spans="3:28">
       <c r="D16" s="2"/>
-      <c r="AA16" s="19"/>
-    </row>
-    <row r="17" spans="3:20">
+      <c r="AA16" s="18"/>
+    </row>
+    <row r="17" spans="3:26">
       <c r="C17" s="1" t="s">
         <v>752</v>
       </c>
@@ -34792,17 +34895,17 @@
         <v>753</v>
       </c>
     </row>
-    <row r="18" spans="4:20">
+    <row r="18" spans="3:26">
       <c r="D18" s="2" t="s">
         <v>754</v>
       </c>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="4:25">
+    <row r="19" spans="3:26">
       <c r="D19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="3:20">
+    <row r="20" spans="3:26">
       <c r="C20" s="1" t="s">
         <v>755</v>
       </c>
@@ -34812,12 +34915,12 @@
         <v>756</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="3:26">
       <c r="D21" s="2" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="22" spans="3:25">
+    <row r="22" spans="3:26">
       <c r="C22" s="2"/>
       <c r="D22" s="13"/>
       <c r="Y22" s="2"/>
@@ -34832,25 +34935,25 @@
         <v>759</v>
       </c>
       <c r="U23" s="13"/>
-      <c r="Z23" s="15"/>
-    </row>
-    <row r="24" spans="4:23">
+      <c r="Z23" s="16"/>
+    </row>
+    <row r="24" spans="3:26">
       <c r="D24" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="W24" s="18"/>
-    </row>
-    <row r="25" spans="4:12">
+      <c r="W24" s="19"/>
+    </row>
+    <row r="25" spans="3:26">
       <c r="D25" s="2"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:26">
       <c r="C28" s="4"/>
     </row>
-    <row r="34" spans="20:20">
+    <row r="34" spans="5:20">
       <c r="T34" s="12"/>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="5:20">
       <c r="E35" s="5"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
@@ -34880,20 +34983,20 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:21">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:21">
       <c r="C2" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:21">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="3:20">
+    <row r="4" spans="3:21">
       <c r="C4" s="1" t="s">
         <v>762</v>
       </c>
@@ -34901,7 +35004,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="5" spans="4:21">
+    <row r="5" spans="3:21">
       <c r="D5" s="1" t="s">
         <v>764</v>
       </c>
@@ -34909,17 +35012,17 @@
         <v>765</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="4:4">
+    <row r="6" ht="15" spans="3:21">
       <c r="D6" s="11" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="4:4">
+    <row r="7" ht="15" spans="3:21">
       <c r="D7" s="11" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="8" spans="3:20">
+    <row r="8" spans="3:21">
       <c r="C8" s="1" t="s">
         <v>768</v>
       </c>
@@ -34927,7 +35030,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="9" spans="4:21">
+    <row r="9" spans="3:21">
       <c r="D9" s="1" t="s">
         <v>770</v>
       </c>
@@ -34936,13 +35039,13 @@
         <v>771</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="3:21">
       <c r="D10" s="1" t="s">
         <v>772</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="3:20">
+    <row r="11" spans="3:21">
       <c r="C11" s="1" t="s">
         <v>773</v>
       </c>
@@ -34950,7 +35053,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="12" spans="4:21">
+    <row r="12" spans="3:21">
       <c r="D12" s="1" t="s">
         <v>775</v>
       </c>
@@ -34958,12 +35061,12 @@
         <v>776</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="3:21">
       <c r="D13" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="14" spans="3:20">
+    <row r="14" spans="3:21">
       <c r="C14" s="1" t="s">
         <v>778</v>
       </c>
@@ -34971,7 +35074,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="15" spans="4:21">
+    <row r="15" spans="3:21">
       <c r="D15" s="1" t="s">
         <v>780</v>
       </c>
@@ -34979,7 +35082,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="3:21">
       <c r="D16" s="1" t="s">
         <v>782</v>
       </c>
@@ -34992,7 +35095,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:10">
       <c r="C21" s="1" t="s">
         <v>785</v>
       </c>
@@ -35022,17 +35125,17 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:23">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="3:23">
       <c r="D3" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="4" spans="3:22">
+    <row r="4" spans="3:23">
       <c r="C4" s="1" t="s">
         <v>787</v>
       </c>
@@ -35040,7 +35143,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="5" spans="4:23">
+    <row r="5" spans="3:23">
       <c r="D5" s="1" t="s">
         <v>789</v>
       </c>
@@ -35048,17 +35151,17 @@
         <v>790</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="3:23">
       <c r="D6" s="4" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="7" spans="4:4">
+    <row r="7" spans="3:23">
       <c r="D7" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="8" spans="3:22">
+    <row r="8" spans="3:23">
       <c r="C8" s="1" t="s">
         <v>793</v>
       </c>
@@ -35066,7 +35169,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="9" spans="4:23">
+    <row r="9" spans="3:23">
       <c r="D9" s="1" t="s">
         <v>795</v>
       </c>
@@ -35074,17 +35177,17 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="3:23">
       <c r="D10" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="10" t="s">
+    <row r="11" spans="3:23">
+      <c r="D11" s="7" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="12" spans="3:22">
+    <row r="12" spans="3:23">
       <c r="C12" s="1" t="s">
         <v>799</v>
       </c>
@@ -35093,7 +35196,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="4:23">
+    <row r="13" spans="3:23">
       <c r="D13" s="1" t="s">
         <v>801</v>
       </c>
@@ -35101,17 +35204,17 @@
         <v>802</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="3:23">
       <c r="D14" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="3:23">
       <c r="D15" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="16" spans="3:22">
+    <row r="16" spans="3:23">
       <c r="C16" s="1" t="s">
         <v>805</v>
       </c>
@@ -35120,20 +35223,20 @@
         <v>806</v>
       </c>
     </row>
-    <row r="17" spans="4:23">
+    <row r="17" spans="3:27">
       <c r="D17" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="W17" s="7" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="10" t="s">
+    <row r="18" spans="3:27">
+      <c r="D18" s="7" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="19" spans="3:22">
+    <row r="19" spans="3:27">
       <c r="C19" s="1" t="s">
         <v>810</v>
       </c>
@@ -35142,32 +35245,32 @@
         <v>811</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="3:27">
       <c r="D20" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="21" spans="27:27">
+    <row r="21" spans="3:27">
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="3:22">
+    <row r="22" spans="3:27">
       <c r="C22" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="8"/>
       <c r="V22" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="23" spans="4:23">
-      <c r="D23" s="8" t="s">
+    <row r="23" spans="3:27">
+      <c r="D23" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="W23" s="10" t="s">
+      <c r="W23" s="7" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="24" spans="3:23">
+    <row r="24" spans="3:27">
       <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
         <v>817</v>
@@ -35176,17 +35279,17 @@
         <v>818</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="3:27">
       <c r="D25" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="3:27">
       <c r="D26" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="27" spans="3:22">
+    <row r="27" spans="3:27">
       <c r="C27" s="1" t="s">
         <v>821</v>
       </c>
@@ -35194,7 +35297,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="28" spans="4:22">
+    <row r="28" spans="3:27">
       <c r="D28" s="1" t="s">
         <v>823</v>
       </c>
@@ -35202,7 +35305,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="29" spans="4:23">
+    <row r="29" spans="3:27">
       <c r="D29" s="1" t="s">
         <v>825</v>
       </c>
@@ -35210,22 +35313,22 @@
         <v>826</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="3:27">
       <c r="D30" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="3:27">
       <c r="D31" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="3:27">
       <c r="D32" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="33" spans="3:22">
+    <row r="33" spans="3:30">
       <c r="C33" s="1" t="s">
         <v>830</v>
       </c>
@@ -35234,11 +35337,11 @@
         <v>831</v>
       </c>
     </row>
-    <row r="34" spans="4:30">
+    <row r="34" spans="3:30">
       <c r="D34" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="AD34" s="10"/>
+      <c r="AD34" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -35264,17 +35367,17 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:24">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="3:24">
       <c r="D3" s="1" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="3:21">
+    <row r="4" spans="3:24">
       <c r="C4" s="1" t="s">
         <v>834</v>
       </c>
@@ -35283,15 +35386,15 @@
         <v>835</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="3:24">
       <c r="D5" s="4" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="3:24">
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="3:21">
+    <row r="7" spans="3:24">
       <c r="C7" s="1" t="s">
         <v>837</v>
       </c>
@@ -35300,12 +35403,12 @@
         <v>838</v>
       </c>
     </row>
-    <row r="8" spans="4:4">
+    <row r="8" spans="3:24">
       <c r="D8" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="10" spans="3:21">
+    <row r="10" spans="3:24">
       <c r="C10" s="1" t="s">
         <v>840</v>
       </c>
@@ -35313,15 +35416,15 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="3:24">
       <c r="D11" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="3:24">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="3:21">
+    <row r="13" spans="3:24">
       <c r="C13" s="1" t="s">
         <v>843</v>
       </c>
@@ -35330,17 +35433,17 @@
         <v>844</v>
       </c>
     </row>
-    <row r="14" spans="4:24">
+    <row r="14" spans="3:24">
       <c r="D14" s="4" t="s">
         <v>845</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="4:4">
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="3:24">
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="3:21">
+    <row r="16" spans="3:24">
       <c r="C16" s="1" t="s">
         <v>846</v>
       </c>
@@ -35349,24 +35452,24 @@
         <v>847</v>
       </c>
     </row>
-    <row r="17" spans="4:23">
+    <row r="17" spans="3:28">
       <c r="D17" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="W17" s="10"/>
-    </row>
-    <row r="18" spans="4:28">
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="3:28">
       <c r="D18" s="6"/>
       <c r="M18" s="1" t="s">
         <v>849</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="3:21">
+    <row r="19" spans="3:28">
       <c r="C19" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="M19" s="1" t="s">
         <v>851</v>
       </c>
@@ -35374,20 +35477,20 @@
         <v>852</v>
       </c>
     </row>
-    <row r="20" spans="4:24">
-      <c r="D20" s="8" t="s">
+    <row r="20" spans="3:28">
+      <c r="D20" s="9" t="s">
         <v>853</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="4:24">
-      <c r="D21" s="8"/>
-      <c r="X21" s="10"/>
-    </row>
-    <row r="22" spans="3:21">
+      <c r="X20" s="7"/>
+    </row>
+    <row r="21" spans="3:28">
+      <c r="D21" s="9"/>
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="3:28">
       <c r="C22" s="4" t="s">
         <v>855</v>
       </c>
@@ -35395,20 +35498,20 @@
         <v>856</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="3:28">
       <c r="D23" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="3:28">
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:28">
       <c r="C25" s="1" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="26" spans="3:21">
+    <row r="26" spans="3:28">
       <c r="C26" s="1" t="s">
         <v>859</v>
       </c>
@@ -35416,12 +35519,12 @@
         <v>860</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="9" t="s">
+    <row r="27" spans="3:28">
+      <c r="D27" s="10" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="29" spans="3:21">
+    <row r="29" spans="3:28">
       <c r="C29" s="1" t="s">
         <v>862</v>
       </c>
@@ -35429,17 +35532,17 @@
         <v>863</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="3:28">
       <c r="D30" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="31" spans="26:26">
+    <row r="31" spans="3:28">
       <c r="Z31" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="32" spans="3:21">
+    <row r="32" spans="3:28">
       <c r="C32" s="1" t="s">
         <v>866</v>
       </c>
@@ -35447,7 +35550,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="3:21">
       <c r="D33" s="1" t="s">
         <v>868</v>
       </c>
@@ -35460,7 +35563,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="3:21">
       <c r="D36" s="1" t="s">
         <v>871</v>
       </c>
@@ -35473,7 +35576,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="3:21">
       <c r="D39" s="1" t="s">
         <v>874</v>
       </c>
@@ -35486,7 +35589,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="3:21">
       <c r="D42" s="1" t="s">
         <v>877</v>
       </c>
@@ -35499,7 +35602,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="3:21">
       <c r="D45" s="1" t="s">
         <v>880</v>
       </c>
@@ -35561,12 +35664,12 @@
     <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:23">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:23">
       <c r="B4" s="1" t="s">
         <v>888</v>
       </c>
@@ -35575,15 +35678,15 @@
         <v>889</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="2:23">
       <c r="C5" s="4" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="2:23">
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:23">
       <c r="B7" s="1" t="s">
         <v>891</v>
       </c>
@@ -35592,12 +35695,12 @@
         <v>892</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="2:23">
       <c r="C8" s="2" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:23">
       <c r="B10" s="1" t="s">
         <v>894</v>
       </c>
@@ -35605,15 +35708,15 @@
         <v>895</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="2:23">
       <c r="C11" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="2:23">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:23">
       <c r="B13" s="1" t="s">
         <v>897</v>
       </c>
@@ -35622,17 +35725,17 @@
         <v>898</v>
       </c>
     </row>
-    <row r="14" spans="3:23">
+    <row r="14" spans="2:23">
       <c r="C14" s="4" t="s">
         <v>899</v>
       </c>
       <c r="V14" s="2"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="3:3">
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="2:23">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:23">
       <c r="B16" s="1" t="s">
         <v>900</v>
       </c>
@@ -35641,47 +35744,47 @@
         <v>901</v>
       </c>
     </row>
-    <row r="17" spans="3:22">
+    <row r="17" spans="2:27">
       <c r="C17" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="V17" s="10"/>
-    </row>
-    <row r="18" spans="3:27">
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="2:27">
       <c r="C18" s="6"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:27">
       <c r="B19" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="P19" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="20" spans="3:23">
-      <c r="C20" s="8" t="s">
+    <row r="20" spans="2:27">
+      <c r="C20" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="W20" s="10"/>
-    </row>
-    <row r="21" spans="3:23">
-      <c r="C21" s="8"/>
-      <c r="W21" s="10"/>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="2:27">
+      <c r="C21" s="9"/>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="2:27">
       <c r="B22" s="4"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="2:27">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="2:27">
       <c r="C24" s="4"/>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="9"/>
+    <row r="27" spans="2:27">
+      <c r="C27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -35695,8 +35798,8 @@
   <sheetPr/>
   <dimension ref="B2:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -35707,12 +35810,12 @@
     <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:23">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="2:23">
       <c r="C3" s="1" t="s">
         <v>906</v>
       </c>
@@ -35726,12 +35829,12 @@
         <v>908</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="2:23">
       <c r="C5" s="4" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="2:23">
       <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
         <v>910</v>
@@ -35749,12 +35852,12 @@
         <v>913</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="2:23">
       <c r="C8" s="2" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="9" spans="10:13">
+    <row r="9" spans="2:23">
       <c r="J9" s="1" t="s">
         <v>915</v>
       </c>
@@ -35770,12 +35873,12 @@
         <v>918</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="2:23">
       <c r="C11" s="1" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="2:23">
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="2:23">
@@ -35787,14 +35890,14 @@
         <v>921</v>
       </c>
     </row>
-    <row r="14" spans="3:23">
+    <row r="14" spans="2:23">
       <c r="C14" s="4" t="s">
         <v>922</v>
       </c>
       <c r="V14" s="2"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="3:3">
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="2:23">
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:23">
@@ -35806,38 +35909,38 @@
         <v>924</v>
       </c>
     </row>
-    <row r="17" spans="3:22">
+    <row r="17" spans="2:27">
       <c r="C17" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="V17" s="10"/>
-    </row>
-    <row r="18" spans="3:27">
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="2:27">
       <c r="C18" s="6"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:27">
       <c r="B19" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="W19" s="1" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="20" spans="3:23">
-      <c r="C20" s="8" t="s">
+    <row r="20" spans="2:27">
+      <c r="C20" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="W20" s="10"/>
-    </row>
-    <row r="21" spans="3:23">
-      <c r="C21" s="8" t="s">
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="2:27">
+      <c r="C21" s="9" t="s">
         <v>929</v>
       </c>
-      <c r="W21" s="10"/>
-    </row>
-    <row r="22" spans="2:23">
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="2:27">
       <c r="B22" s="4" t="s">
         <v>930</v>
       </c>
@@ -35846,15 +35949,15 @@
         <v>931</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="2:27">
       <c r="C23" s="4" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="2:27">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" spans="2:27">
       <c r="B25" s="1" t="s">
         <v>933</v>
       </c>
@@ -35862,13 +35965,192 @@
         <v>934</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="2:27">
       <c r="C26" s="1" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="9"/>
+    <row r="27" spans="2:27">
+      <c r="C27" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:AA28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25">
+      <c r="B2" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25">
+      <c r="C3" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="2:25">
+      <c r="B5" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="W5" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="B6" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:25">
+      <c r="B7" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:25">
+      <c r="B9" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25">
+      <c r="C10" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25">
+      <c r="B12" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="W12" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25">
+      <c r="C13" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25">
+      <c r="C14" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="2:25">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="2:25">
+      <c r="B16" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="Y16" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="C17" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="V17" s="7"/>
+      <c r="Y17" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27">
+      <c r="C18" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="2:27">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="2:27">
+      <c r="B20" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="W20" s="7"/>
+      <c r="Y20" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27">
+      <c r="C21" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="B22" s="4"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="2:27">
+      <c r="B23" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="Y23" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27">
+      <c r="C24" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" ht="14.4" spans="2:27">
+      <c r="B28" t="s">
+        <v>962</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>964</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -35896,18 +36178,18 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:27">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:26">
+    <row r="2" spans="3:27">
       <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="Z2" s="13"/>
     </row>
-    <row r="3" spans="3:18">
+    <row r="3" spans="3:27">
       <c r="C3" s="1" t="s">
         <v>89</v>
       </c>
@@ -35915,7 +36197,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="4:19">
+    <row r="4" spans="3:27">
       <c r="D4" s="1" t="s">
         <v>91</v>
       </c>
@@ -35923,13 +36205,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:27">
       <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:27">
       <c r="C6" s="2" t="s">
         <v>94</v>
       </c>
@@ -35952,12 +36234,12 @@
       <c r="D8" s="2"/>
       <c r="AA8" s="14"/>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="3:27">
       <c r="D9" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="3:18">
+    <row r="10" spans="3:27">
       <c r="C10" s="1" t="s">
         <v>99</v>
       </c>
@@ -35966,49 +36248,49 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="4:24">
+    <row r="11" spans="3:27">
       <c r="D11" s="2" t="s">
         <v>101</v>
       </c>
       <c r="S11" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="X11" s="17"/>
-    </row>
-    <row r="12" spans="3:4">
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="3:27">
       <c r="C12" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="3:27">
       <c r="C13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:18">
+    <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D14" s="37"/>
       <c r="M14" s="13"/>
-      <c r="Q14" s="17"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="4:26">
+    <row r="16" spans="3:27">
       <c r="D16" s="2"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="3:18">
+      <c r="Z16" s="18"/>
+    </row>
+    <row r="17" spans="3:22">
       <c r="C17" s="1" t="s">
         <v>108</v>
       </c>
@@ -36017,12 +36299,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:22">
       <c r="C18" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="3:18">
+    <row r="19" spans="3:22">
       <c r="C19" s="1" t="s">
         <v>111</v>
       </c>
@@ -36030,7 +36312,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="4:19">
+    <row r="20" spans="3:22">
       <c r="D20" s="2" t="s">
         <v>113</v>
       </c>
@@ -36038,19 +36320,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:22">
       <c r="C21" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:22">
       <c r="C22" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="3:18">
+    <row r="23" spans="3:22">
       <c r="C23" s="1" t="s">
         <v>117</v>
       </c>
@@ -36062,13 +36344,13 @@
       <c r="C24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="V24" s="18"/>
-    </row>
-    <row r="25" spans="4:12">
+      <c r="V24" s="19"/>
+    </row>
+    <row r="25" spans="3:22">
       <c r="D25" s="2"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="3:18">
+    <row r="26" spans="3:22">
       <c r="C26" s="1" t="s">
         <v>120</v>
       </c>
@@ -36076,7 +36358,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="3:19">
+    <row r="27" spans="3:22">
       <c r="C27" s="1" t="s">
         <v>122</v>
       </c>
@@ -36084,7 +36366,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:22">
       <c r="C28" s="4" t="s">
         <v>124</v>
       </c>
@@ -36114,17 +36396,17 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:24">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="3:24">
       <c r="D3" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="3:22">
+    <row r="4" spans="3:24">
       <c r="C4" s="1" t="s">
         <v>126</v>
       </c>
@@ -36133,7 +36415,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="4:23">
+    <row r="5" spans="3:24">
       <c r="D5" s="4" t="s">
         <v>128</v>
       </c>
@@ -36141,10 +36423,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="3:24">
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="3:22">
+    <row r="7" spans="3:24">
       <c r="C7" s="1" t="s">
         <v>130</v>
       </c>
@@ -36153,7 +36435,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="4:22">
+    <row r="8" spans="3:24">
       <c r="D8" s="2" t="s">
         <v>132</v>
       </c>
@@ -36161,17 +36443,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="3:24">
       <c r="D9" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="3:24">
       <c r="D10" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="3:22">
+    <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
         <v>136</v>
       </c>
@@ -36179,7 +36461,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="4:23">
+    <row r="12" spans="3:24">
       <c r="D12" s="4" t="s">
         <v>138</v>
       </c>
@@ -36187,25 +36469,25 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="4:23">
+    <row r="13" spans="3:24">
       <c r="D13" s="4"/>
       <c r="W13" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="4:24">
+    <row r="14" spans="3:24">
       <c r="D14" s="4" t="s">
         <v>141</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="4:4">
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="3:24">
       <c r="D15" s="35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="3:22">
+    <row r="16" spans="3:24">
       <c r="C16" s="1" t="s">
         <v>143</v>
       </c>
@@ -36214,46 +36496,46 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="4:23">
+    <row r="17" spans="3:28">
       <c r="D17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="W17" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="4:28">
+    <row r="18" spans="3:28">
       <c r="D18" s="6" t="s">
         <v>147</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="7" t="s">
+    <row r="19" spans="3:28">
+      <c r="D19" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="3:24">
+    <row r="20" spans="3:28">
       <c r="C20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="V20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="3:4">
+      <c r="X20" s="7"/>
+    </row>
+    <row r="21" spans="3:28">
       <c r="C21" s="4"/>
       <c r="D21" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="4:6">
+    <row r="22" spans="3:28">
       <c r="D22" s="5"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="3:22">
+    <row r="23" spans="3:28">
       <c r="C23" s="1" t="s">
         <v>152</v>
       </c>
@@ -36262,12 +36544,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="3:28">
       <c r="D24" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="3:28">
       <c r="D25" s="1" t="s">
         <v>155</v>
       </c>
@@ -36298,17 +36580,17 @@
     <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
+    <row r="2" spans="2:23">
       <c r="C2" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:23">
       <c r="B3" s="1" t="s">
         <v>157</v>
       </c>
@@ -36316,12 +36598,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="2:23">
       <c r="C4" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:23">
       <c r="B6" s="1" t="s">
         <v>160</v>
       </c>
@@ -36329,22 +36611,22 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="2:23">
       <c r="C7" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="2:23">
       <c r="C8" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="2:23">
       <c r="C9" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:23">
       <c r="B10" s="1" t="s">
         <v>165</v>
       </c>
@@ -36352,7 +36634,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="2:23">
       <c r="C11" s="1" t="s">
         <v>167</v>
       </c>
@@ -36366,7 +36648,7 @@
       </c>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="3:21">
+    <row r="14" spans="2:23">
       <c r="C14" s="1" t="s">
         <v>170</v>
       </c>
@@ -36374,17 +36656,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="2:23">
       <c r="C15" s="25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="2:23">
       <c r="C16" s="34" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:27">
       <c r="B17" s="1" t="s">
         <v>174</v>
       </c>
@@ -36392,7 +36674,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="3:27">
+    <row r="18" spans="2:27">
       <c r="C18" s="1" t="s">
         <v>176</v>
       </c>
@@ -36401,17 +36683,17 @@
       </c>
       <c r="AA18" s="25"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="2:27">
       <c r="C19" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="2:27">
       <c r="C20" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:27">
       <c r="B21" s="1" t="s">
         <v>180</v>
       </c>
@@ -36419,7 +36701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="3:21">
+    <row r="22" spans="2:27">
       <c r="C22" s="1" t="s">
         <v>182</v>
       </c>
@@ -36427,17 +36709,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="2:27">
       <c r="C23" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="2:27">
       <c r="C24" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:27">
       <c r="B25" s="1" t="s">
         <v>186</v>
       </c>
@@ -36445,12 +36727,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="2:27">
       <c r="C26" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="2:25">
+    <row r="28" spans="2:27">
       <c r="B28" s="1" t="s">
         <v>189</v>
       </c>
@@ -36459,7 +36741,7 @@
       </c>
       <c r="Y28" s="25"/>
     </row>
-    <row r="29" spans="3:21">
+    <row r="29" spans="2:27">
       <c r="C29" s="1" t="s">
         <v>191</v>
       </c>
@@ -36467,12 +36749,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="2:27">
       <c r="C30" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:27">
       <c r="B32" s="1" t="s">
         <v>194</v>
       </c>
@@ -36513,12 +36795,12 @@
     <col min="1028" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:29">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:20">
+    <row r="2" spans="3:29">
       <c r="C2" s="1" t="s">
         <v>197</v>
       </c>
@@ -36526,12 +36808,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="3:29">
       <c r="D3" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="3:29">
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="3:29">
@@ -36544,7 +36826,7 @@
       </c>
       <c r="AC5" s="14"/>
     </row>
-    <row r="6" spans="4:29">
+    <row r="6" spans="3:29">
       <c r="D6" s="2" t="s">
         <v>202</v>
       </c>
@@ -36553,17 +36835,17 @@
       </c>
       <c r="AC6" s="14"/>
     </row>
-    <row r="7" spans="4:4">
+    <row r="7" spans="3:29">
       <c r="D7" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="4:4">
+    <row r="8" spans="3:29">
       <c r="D8" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="3:26">
+    <row r="9" spans="3:29">
       <c r="C9" s="1" t="s">
         <v>206</v>
       </c>
@@ -36571,43 +36853,43 @@
         <v>207</v>
       </c>
       <c r="U9" s="2"/>
-      <c r="Z9" s="17"/>
-    </row>
-    <row r="10" spans="4:21">
+      <c r="Z9" s="15"/>
+    </row>
+    <row r="10" spans="3:29">
       <c r="D10" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="4:21">
+    <row r="11" spans="3:29">
       <c r="D11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="U11" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="4:19">
+    <row r="12" spans="3:29">
       <c r="D12" s="2" t="s">
         <v>212</v>
       </c>
       <c r="M12" s="13"/>
-      <c r="S12" s="17"/>
-    </row>
-    <row r="13" spans="4:4">
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" spans="3:29">
       <c r="D13" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="4:28">
+    <row r="14" spans="3:29">
       <c r="D14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AB14" s="19"/>
-    </row>
-    <row r="15" spans="3:20">
+      <c r="AB14" s="18"/>
+    </row>
+    <row r="15" spans="3:29">
       <c r="C15" s="1" t="s">
         <v>215</v>
       </c>
@@ -36616,7 +36898,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="4:21">
+    <row r="16" spans="3:29">
       <c r="D16" s="2" t="s">
         <v>217</v>
       </c>
@@ -36624,12 +36906,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="3:24">
       <c r="D17" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="3:21">
+    <row r="18" spans="3:24">
       <c r="C18" s="1" t="s">
         <v>220</v>
       </c>
@@ -36639,16 +36921,16 @@
       </c>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="3:24">
       <c r="D19" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:24">
       <c r="C20" s="2"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="3:22">
+    <row r="21" spans="3:24">
       <c r="C21" s="1" t="s">
         <v>223</v>
       </c>
@@ -36657,17 +36939,17 @@
       </c>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="4:24">
+    <row r="22" spans="3:24">
       <c r="D22" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="X22" s="18"/>
-    </row>
-    <row r="23" spans="4:12">
+      <c r="X22" s="19"/>
+    </row>
+    <row r="23" spans="3:24">
       <c r="D23" s="2"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="3:20">
+    <row r="24" spans="3:24">
       <c r="C24" s="1" t="s">
         <v>226</v>
       </c>
@@ -36675,7 +36957,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="3:21">
+    <row r="25" spans="3:24">
       <c r="C25" s="1" t="s">
         <v>228</v>
       </c>
@@ -36683,18 +36965,18 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:24">
       <c r="C26" s="4"/>
       <c r="D26" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="3:24">
       <c r="D27" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="3:20">
+    <row r="28" spans="3:24">
       <c r="C28" s="1" t="s">
         <v>232</v>
       </c>
@@ -36702,12 +36984,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="3:24">
       <c r="D29" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="3:20">
+    <row r="31" spans="3:24">
       <c r="C31" s="1" t="s">
         <v>235</v>
       </c>
@@ -36715,7 +36997,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="4:21">
+    <row r="32" spans="3:24">
       <c r="D32" s="1" t="s">
         <v>237</v>
       </c>
@@ -36723,7 +37005,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="3:20">
       <c r="D33" s="1" t="s">
         <v>239</v>
       </c>
@@ -36737,7 +37019,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="3:20">
       <c r="D35" s="1" t="s">
         <v>242</v>
       </c>
@@ -36769,17 +37051,17 @@
     <col min="1028" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:29">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="4:4">
+    <row r="2" spans="3:29">
       <c r="D2" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="3:23">
+    <row r="3" spans="3:29">
       <c r="C3" s="1" t="s">
         <v>244</v>
       </c>
@@ -36788,12 +37070,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="3:29">
       <c r="D4" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="4:29">
+    <row r="5" spans="3:29">
       <c r="D5" s="6"/>
       <c r="T5" s="2"/>
       <c r="AC5" s="14"/>
@@ -36808,15 +37090,15 @@
       </c>
       <c r="AC6" s="14"/>
     </row>
-    <row r="7" spans="4:4">
+    <row r="7" spans="3:29">
       <c r="D7" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="4:4">
+    <row r="8" spans="3:29">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:26">
+    <row r="9" spans="3:29">
       <c r="C9" s="1" t="s">
         <v>250</v>
       </c>
@@ -36824,46 +37106,46 @@
       <c r="W9" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="Z9" s="17"/>
-    </row>
-    <row r="10" spans="4:24">
+      <c r="Z9" s="15"/>
+    </row>
+    <row r="10" spans="3:29">
       <c r="D10" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="U10" s="15"/>
+      <c r="U10" s="16"/>
       <c r="X10" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="4:21">
+    <row r="11" spans="3:29">
       <c r="D11" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="U11" s="16"/>
-    </row>
-    <row r="12" spans="3:23">
+      <c r="U11" s="17"/>
+    </row>
+    <row r="12" spans="3:29">
       <c r="C12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D12" s="2"/>
       <c r="M12" s="13"/>
-      <c r="S12" s="17"/>
+      <c r="S12" s="15"/>
       <c r="W12" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="3:29">
       <c r="D13" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="4:28">
+    <row r="14" spans="3:29">
       <c r="D14" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AB14" s="19"/>
-    </row>
-    <row r="15" spans="3:23">
+      <c r="AB14" s="18"/>
+    </row>
+    <row r="15" spans="3:29">
       <c r="C15" s="1" t="s">
         <v>259</v>
       </c>
@@ -36873,23 +37155,23 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="4:21">
+    <row r="16" spans="3:29">
       <c r="D16" s="2" t="s">
         <v>261</v>
       </c>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="3:24">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="4:21">
+    <row r="18" spans="3:24">
       <c r="D18" s="2" t="s">
         <v>262</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="3:23">
+    <row r="19" spans="3:24">
       <c r="C19" s="1" t="s">
         <v>263</v>
       </c>
@@ -36898,13 +37180,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:24">
       <c r="C20" s="2"/>
       <c r="D20" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="20:22">
+    <row r="21" spans="3:24">
       <c r="T21" s="2"/>
       <c r="V21" s="13"/>
     </row>
@@ -36916,15 +37198,15 @@
       <c r="W22" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="X22" s="18"/>
-    </row>
-    <row r="23" spans="4:12">
+      <c r="X22" s="19"/>
+    </row>
+    <row r="23" spans="3:24">
       <c r="D23" s="2" t="s">
         <v>268</v>
       </c>
       <c r="L23" s="14"/>
     </row>
-    <row r="25" spans="3:23">
+    <row r="25" spans="3:24">
       <c r="C25" s="1" t="s">
         <v>269</v>
       </c>
@@ -36932,18 +37214,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:24">
       <c r="C26" s="4"/>
       <c r="D26" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="3:24">
       <c r="D27" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="3:23">
+    <row r="28" spans="3:24">
       <c r="C28" s="1" t="s">
         <v>273</v>
       </c>
@@ -36951,12 +37233,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="3:24">
       <c r="D29" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="21:21">
+    <row r="32" spans="3:24">
       <c r="U32" s="12"/>
     </row>
     <row r="33" spans="5:5">
@@ -36987,12 +37269,12 @@
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:27">
       <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:26">
+    <row r="4" spans="3:27">
       <c r="C4" s="26" t="s">
         <v>1</v>
       </c>
@@ -37000,15 +37282,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="3:27">
       <c r="D5" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="3:27">
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="3:26">
+    <row r="7" spans="3:27">
       <c r="C7" s="26" t="s">
         <v>4</v>
       </c>
@@ -37016,7 +37298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:27">
+    <row r="8" spans="3:27">
       <c r="D8" s="26" t="s">
         <v>6</v>
       </c>
@@ -37024,12 +37306,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="3:27">
       <c r="D9" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:26">
+    <row r="10" spans="3:27">
       <c r="C10" s="26" t="s">
         <v>9</v>
       </c>
@@ -37037,7 +37319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="4:27">
+    <row r="11" spans="3:27">
       <c r="D11" s="30" t="s">
         <v>276</v>
       </c>
@@ -37045,12 +37327,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="3:27">
       <c r="D12" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="3:26">
+    <row r="13" spans="3:27">
       <c r="C13" s="26" t="s">
         <v>14</v>
       </c>
@@ -37058,12 +37340,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="3:27">
       <c r="D14" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:26">
+    <row r="16" spans="3:27">
       <c r="C16" s="26" t="s">
         <v>17</v>
       </c>
@@ -37072,16 +37354,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="4:23">
+    <row r="17" spans="3:27">
       <c r="D17" s="26" t="s">
         <v>19</v>
       </c>
       <c r="W17" s="31"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="3:27">
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="3:26">
+    <row r="19" spans="3:27">
       <c r="C19" s="26" t="s">
         <v>20</v>
       </c>
@@ -37090,15 +37372,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="3:27">
       <c r="D20" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="27:27">
+    <row r="21" spans="3:27">
       <c r="AA21" s="27"/>
     </row>
-    <row r="22" spans="3:26">
+    <row r="22" spans="3:27">
       <c r="C22" s="26" t="s">
         <v>23</v>
       </c>
@@ -37107,16 +37389,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="4:23">
+    <row r="23" spans="3:27">
       <c r="D23" s="33" t="s">
         <v>25</v>
       </c>
       <c r="W23" s="31"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:27">
       <c r="C24" s="29"/>
     </row>
-    <row r="25" spans="3:26">
+    <row r="25" spans="3:27">
       <c r="C25" s="26" t="s">
         <v>26</v>
       </c>
@@ -37125,12 +37407,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="3:27">
       <c r="D26" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="3:26">
+    <row r="28" spans="3:27">
       <c r="C28" s="26" t="s">
         <v>29</v>
       </c>
@@ -37138,7 +37420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="4:27">
+    <row r="29" spans="3:27">
       <c r="D29" s="26" t="s">
         <v>31</v>
       </c>
@@ -37146,17 +37428,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="3:27">
       <c r="D30" s="29" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="3:27">
       <c r="D31" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="3:26">
+    <row r="32" spans="3:27">
       <c r="C32" s="26" t="s">
         <v>35</v>
       </c>
@@ -37194,17 +37476,17 @@
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:24">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="3:24">
       <c r="D3" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="3:22">
+    <row r="4" spans="3:24">
       <c r="C4" s="1" t="s">
         <v>279</v>
       </c>
@@ -37213,15 +37495,15 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="4:4">
+    <row r="5" ht="15" customHeight="1" spans="3:24">
       <c r="D5" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="3:24">
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="3:22">
+    <row r="7" spans="3:24">
       <c r="C7" s="1" t="s">
         <v>282</v>
       </c>
@@ -37230,12 +37512,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="4:4">
+    <row r="8" spans="3:24">
       <c r="D8" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="3:22">
+    <row r="10" spans="3:24">
       <c r="C10" s="1" t="s">
         <v>285</v>
       </c>
@@ -37243,15 +37525,15 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="3:24">
       <c r="D11" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="3:24">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="3:22">
+    <row r="13" spans="3:24">
       <c r="C13" s="1" t="s">
         <v>288</v>
       </c>
@@ -37260,70 +37542,70 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="4:24">
+    <row r="14" spans="3:24">
       <c r="D14" s="4" t="s">
         <v>290</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="10" t="s">
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="3:24">
+      <c r="D15" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="3:24">
       <c r="D16" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="3:23">
+    <row r="17" spans="3:41">
       <c r="C17" s="1" t="s">
         <v>294</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="W17" s="10"/>
-    </row>
-    <row r="18" spans="4:28">
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="3:41">
       <c r="D18" s="6" t="s">
         <v>296</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="4:20">
-      <c r="D19" s="7"/>
+    <row r="19" spans="3:41">
+      <c r="D19" s="8"/>
       <c r="T19" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="3:24">
+    <row r="20" spans="3:41">
       <c r="C20" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="V20" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="4:24">
-      <c r="D21" s="8" t="s">
+      <c r="X20" s="7"/>
+    </row>
+    <row r="21" spans="3:41">
+      <c r="D21" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="X21" s="10"/>
-    </row>
-    <row r="22" spans="3:21">
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="3:41">
       <c r="C22" s="4"/>
       <c r="H22" s="1" t="s">
         <v>301</v>
       </c>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="3:22">
+    <row r="23" spans="3:41">
       <c r="C23" s="1" t="s">
         <v>302</v>
       </c>
@@ -37332,7 +37614,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="4:23">
+    <row r="24" spans="3:41">
       <c r="D24" s="4" t="s">
         <v>304</v>
       </c>
@@ -37340,53 +37622,53 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="3:41">
       <c r="D25" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="3:41">
       <c r="D26" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="3:41">
       <c r="D27" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="3:22">
+    <row r="28" spans="3:41">
       <c r="C28" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="V28" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="4:41">
+    <row r="29" spans="3:41">
       <c r="D29" s="1" t="s">
         <v>311</v>
       </c>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="3:41">
       <c r="D30" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="3:41">
       <c r="D31" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="10" t="s">
+    <row r="32" spans="3:41">
+      <c r="D32" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="3:22">
+    <row r="33" spans="3:23">
       <c r="C33" s="1" t="s">
         <v>315</v>
       </c>
@@ -37394,7 +37676,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="4:23">
+    <row r="34" spans="3:23">
       <c r="D34" s="1" t="s">
         <v>317</v>
       </c>
@@ -37402,17 +37684,17 @@
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="3:23">
       <c r="D35" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="3:23">
       <c r="D36" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="3:22">
+    <row r="37" spans="3:23">
       <c r="C37" s="1" t="s">
         <v>321</v>
       </c>
@@ -37420,12 +37702,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="3:23">
       <c r="D38" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="3:22">
+    <row r="40" spans="3:23">
       <c r="C40" s="1" t="s">
         <v>324</v>
       </c>
@@ -37433,7 +37715,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="3:23">
       <c r="D41" s="1" t="s">
         <v>326</v>
       </c>

--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="18" activeTab="25"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="19" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="20250824" sheetId="29" r:id="rId24"/>
     <sheet name="20251019" sheetId="30" r:id="rId25"/>
     <sheet name="20251228" sheetId="31" r:id="rId26"/>
+    <sheet name="20260111" sheetId="32" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="990">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -11956,6 +11957,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>mò yǐng</t>
     </r>
     <r>
@@ -11969,6 +11975,92 @@
   </si>
   <si>
     <t>Ink shadow (as deep as ink, as agile as shadow)</t>
+  </si>
+  <si>
+    <t>A: 哇，外面下雪了！你看，地上白茫茫的。</t>
+  </si>
+  <si>
+    <t>A: Wow, it's snowing outside! Look, the ground is covered in white.</t>
+  </si>
+  <si>
+    <t>Wā wàimian xiàxuě le! Nǐ kàn dìshang baimangmang de.</t>
+  </si>
+  <si>
+    <t>B: 是啊，雪花真漂亮。我们可以堆雪人吗？</t>
+  </si>
+  <si>
+    <t>B: Yes, the snowflakes are so beautiful. Can we build a snowman?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shì a xuěhuā zhēn piàoliang. Wǒmen kěyǐ duī xuěrén ma?</t>
+  </si>
+  <si>
+    <t>A: 当然可以！我带了铲子，你去找点树枝当手臂。</t>
+  </si>
+  <si>
+    <t>A: Of course! I brought a shovel; you go find some branches for arms.</t>
+  </si>
+  <si>
+    <t>Dāngrán kěyǐ! Wǒ dàile chǎnzi nǐ qù zhǎo diǎn shùzhī dāng shǒubì.</t>
+  </si>
+  <si>
+    <t>B: 好主意！雪人肯定很有趣。</t>
+  </si>
+  <si>
+    <t>B: Good idea! The snowman will definitely be fun.</t>
+  </si>
+  <si>
+    <t>Hǎo zhuyi! Xuěrén kěndìng hěn yǒuqù.</t>
+  </si>
+  <si>
+    <t>A: 雪人堆好了！现在我们可以用剩下的雪堆个滑滑梯吗？</t>
+  </si>
+  <si>
+    <t>The snowman is done! Now can we use the remaining snow to build a slide?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xuěrén duī hǎole! Xiànzài wǒmen kěyǐ yòng shèngxià de xuě </t>
+  </si>
+  <si>
+    <t>duī gè huáhuáti ma?</t>
+  </si>
+  <si>
+    <t>B: 太棒了！我来压实雪堆，你准备滑下去。</t>
+  </si>
+  <si>
+    <t>B: Great idea! I'll pack the snow down, and you get ready to slide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tàibàng le! Wǒ lái yāshí xuěduī nǐ zhǔnbeì huá xiàqù.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小心点，别摔了！</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Be careful, don't fall!</t>
+  </si>
+  <si>
+    <t>Xiǎoxīn diǎn bié shuāi le!</t>
+  </si>
+  <si>
+    <t>B: 哈哈，准备好了！哇，滑下来真快，像飞一样！</t>
+  </si>
+  <si>
+    <t>Ha-ha, ready! Wow, sliding down is so fast, like flying!</t>
+  </si>
+  <si>
+    <t>Hāha zhǔnbeì hǎole! Wā huá xiàlái zhēn kuài xiàng fēi yīyàng!</t>
   </si>
 </sst>
 </file>
@@ -11981,7 +12073,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="71">
+  <fonts count="72">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12307,7 +12399,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="7" tint="-0.25"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B274"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B75BC"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF407927"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF58220"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A933"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <name val="Ubuntu"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5E8AC7"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.25"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -12319,102 +12511,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF407927"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00864B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFF58220"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B274"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF5E8AC7"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1B75BC"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF72BF44"/>
       <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6.4"/>
-      <name val="Ubuntu"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00A933"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0066B3"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
       <charset val="1"/>
     </font>
     <font>
@@ -12425,13 +12529,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.25"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="-0.25"/>
+      <color rgb="FF0066B3"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -35985,8 +36083,8 @@
   <sheetPr/>
   <dimension ref="B2:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -36151,6 +36249,173 @@
       <c r="I28" s="1" t="s">
         <v>964</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:AA28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26">
+      <c r="B2" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26">
+      <c r="C3" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26">
+      <c r="B4" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="Z4" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26">
+      <c r="C5" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26">
+      <c r="B6" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="Z6" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26">
+      <c r="C7" s="6" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26">
+      <c r="B8" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="Z8" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26">
+      <c r="C9" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26">
+      <c r="B11" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26">
+      <c r="C12" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26">
+      <c r="C13" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26">
+      <c r="B14" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="7"/>
+      <c r="Z14" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26">
+      <c r="C15" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26">
+      <c r="B16" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="Z16" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="C17" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="2:27">
+      <c r="B18" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="Z18" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="2:27">
+      <c r="C19" s="8" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27">
+      <c r="C20" s="9"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="2:27">
+      <c r="C21" s="9"/>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="B22" s="4"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="2:27">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="2:27">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="27" spans="2:27">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" ht="14.4" spans="2:27">
+      <c r="B28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2025.xlsx
+++ b/learn_chinese2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="19" activeTab="26"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="20" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="20250105" sheetId="4" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="20251019" sheetId="30" r:id="rId25"/>
     <sheet name="20251228" sheetId="31" r:id="rId26"/>
     <sheet name="20260111" sheetId="32" r:id="rId27"/>
+    <sheet name="20260118" sheetId="33" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="1011">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -12035,6 +12036,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: </t>
     </r>
     <r>
@@ -12061,6 +12067,116 @@
   </si>
   <si>
     <t>Hāha zhǔnbeì hǎole! Wā huá xiàlái zhēn kuài xiàng fēi yīyàng!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>马年有什么特别的？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: What makes the Year of the Horse special?</t>
+  </si>
+  <si>
+    <t>Mǎ nián yǒu shénme tèbié de?</t>
+  </si>
+  <si>
+    <t>B: 生肖第七位，出生者精力充沛、独立自主、热爱自由。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 7th in the zodiac cycle. People born then are energetic, </t>
+  </si>
+  <si>
+    <t>Shēngxiào dì qī wèi, chūshēng zhě jīnglì chōngpèi,</t>
+  </si>
+  <si>
+    <t>independent, and love freedom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dúlì zìzhǔ, rè'ài zìyóu.</t>
+  </si>
+  <si>
+    <t>A:如何庆祝？</t>
+  </si>
+  <si>
+    <t>A: How to celebrate?</t>
+  </si>
+  <si>
+    <t>Rúhé qìngzhù?</t>
+  </si>
+  <si>
+    <t>zhu ni sheng ri kuai le.</t>
+  </si>
+  <si>
+    <t>B: 摆红马雕像招财，发红包。</t>
+  </si>
+  <si>
+    <t>B: Display red horse statues for luck, give red bag.</t>
+  </si>
+  <si>
+    <t>Bǎi hóng mǎ diāoxiàng zhāocái, fā hóngbāo</t>
+  </si>
+  <si>
+    <t>A: 马还能带来好运?</t>
+  </si>
+  <si>
+    <r>
+      <t>A: Horse symbols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bring luck?</t>
+    </r>
+  </si>
+  <si>
+    <t>Mǎ hái néng dài lái hǎo yùn?</t>
+  </si>
+  <si>
+    <r>
+      <t>B: 是的！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祝你马到成功</t>
+    </r>
+  </si>
+  <si>
+    <t>B: Wishing you galloping to success.</t>
+  </si>
+  <si>
+    <t>shide, Zhù nǐ mǎdàochénggōng</t>
   </si>
 </sst>
 </file>
@@ -12073,7 +12189,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="72">
+  <fonts count="73">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12093,6 +12209,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFEF413D"/>
       <name val="等线"/>
@@ -12100,12 +12222,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6.4"/>
-      <color rgb="FF4C4C4C"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -12140,10 +12256,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="等线"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12399,7 +12515,65 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.25"/>
+      <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B274"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5E8AC7"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF579835"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <name val="Ubuntu"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B75BC"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12410,8 +12584,8 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF00B274"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12423,66 +12597,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006C3B"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1B75BC"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF407927"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFF58220"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00864B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00A933"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6.4"/>
-      <name val="Ubuntu"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -12493,7 +12609,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF5E8AC7"/>
+      <color rgb="FF00A933"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12501,13 +12617,13 @@
       <sz val="11"/>
       <color theme="7" tint="-0.25"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF579835"/>
+      <color rgb="FF72BF44"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12517,9 +12633,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF72BF44"/>
+      <color rgb="FF407927"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12530,6 +12646,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0066B3"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.25"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -12990,7 +13112,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -12998,9 +13122,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -13017,8 +13139,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -13366,12 +13488,12 @@
       </c>
     </row>
     <row r="5" spans="3:27">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:27">
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
@@ -13390,7 +13512,7 @@
       </c>
     </row>
     <row r="9" spans="3:27">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13432,7 +13554,7 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
       <c r="Z16" s="1" t="s">
         <v>18</v>
       </c>
@@ -13450,7 +13572,7 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="Z19" s="1" t="s">
         <v>21</v>
       </c>
@@ -13479,19 +13601,19 @@
       <c r="W23" s="7"/>
     </row>
     <row r="24" spans="3:27">
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="3:27">
       <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="5"/>
       <c r="Z25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="3:27">
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -13512,12 +13634,12 @@
       </c>
     </row>
     <row r="30" spans="3:27">
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="3:27">
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13525,7 +13647,7 @@
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="5"/>
       <c r="Z32" s="1" t="s">
         <v>36</v>
       </c>
@@ -19020,7 +19142,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>393</v>
       </c>
       <c r="E22" s="1"/>
@@ -26222,7 +26344,7 @@
     <row r="29" s="2" customFormat="1" spans="1:1024 1025:1025">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -32436,18 +32558,18 @@
       <c r="C4" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="T4" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="6" spans="2:24">
-      <c r="D6" s="5"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="2:24">
       <c r="C7" s="1" t="s">
@@ -32477,19 +32599,19 @@
       </c>
     </row>
     <row r="12" spans="2:24">
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="2:24">
       <c r="C13" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="T13" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="14" spans="2:24">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>419</v>
       </c>
       <c r="U14" s="1" t="s">
@@ -32499,7 +32621,7 @@
       <c r="X14" s="7"/>
     </row>
     <row r="15" spans="2:24">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>421</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -32547,14 +32669,14 @@
       <c r="X21" s="7"/>
     </row>
     <row r="22" spans="3:28">
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
         <v>430</v>
       </c>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="3:28">
-      <c r="D23" s="5"/>
+      <c r="D23" s="11"/>
       <c r="F23" s="2"/>
       <c r="S23" s="1" t="s">
         <v>431</v>
@@ -32564,7 +32686,7 @@
       <c r="C24" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="5"/>
       <c r="T24" s="1" t="s">
         <v>433</v>
       </c>
@@ -32651,13 +32773,13 @@
       <c r="C4" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="V4" s="1" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="5" ht="19.6" customHeight="1" spans="3:27">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>447</v>
       </c>
       <c r="W5" s="1" t="s">
@@ -32702,12 +32824,12 @@
       </c>
     </row>
     <row r="11" spans="3:27">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="12" spans="3:27">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>458</v>
       </c>
     </row>
@@ -32715,18 +32837,18 @@
       <c r="C13" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="V13" s="1" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="14" spans="3:27">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="15" spans="3:27">
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="7"/>
     </row>
@@ -33210,7 +33332,7 @@
       </c>
     </row>
     <row r="21" ht="15" spans="3:24">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="3" t="s">
         <v>544</v>
       </c>
     </row>
@@ -33324,7 +33446,7 @@
       <c r="C4" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="U4" s="1" t="s">
         <v>558</v>
       </c>
@@ -33378,7 +33500,7 @@
       </c>
     </row>
     <row r="12" spans="3:27">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>568</v>
       </c>
     </row>
@@ -33386,7 +33508,7 @@
       <c r="C13" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="U13" s="1" t="s">
         <v>570</v>
       </c>
@@ -33408,7 +33530,7 @@
       <c r="C16" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
       <c r="U16" s="1" t="s">
         <v>575</v>
       </c>
@@ -33613,7 +33735,7 @@
       <c r="C4" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="AA4" s="1" t="s">
         <v>610</v>
       </c>
@@ -33643,7 +33765,7 @@
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2" t="s">
         <v>616</v>
       </c>
@@ -33682,13 +33804,13 @@
       <c r="C13" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="AA13" s="1" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="14" spans="2:28">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>625</v>
       </c>
       <c r="AB14" s="1" t="s">
@@ -33709,7 +33831,7 @@
       </c>
     </row>
     <row r="17" spans="3:28">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>630</v>
       </c>
       <c r="Y17" s="2"/>
@@ -34141,18 +34263,18 @@
       <c r="C4" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="T4" s="1" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="5" spans="3:23">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="6" spans="3:23">
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
@@ -34182,13 +34304,13 @@
       </c>
     </row>
     <row r="12" spans="3:23">
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="T13" s="1" t="s">
         <v>669</v>
       </c>
@@ -34211,7 +34333,7 @@
       </c>
     </row>
     <row r="17" spans="3:27">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>673</v>
       </c>
       <c r="AA17" s="2"/>
@@ -34230,16 +34352,16 @@
       <c r="W19" s="7"/>
     </row>
     <row r="20" spans="3:27">
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="21" spans="3:27">
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="3:27">
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="3:27">
       <c r="C23" s="1" t="s">
@@ -34255,19 +34377,19 @@
       </c>
     </row>
     <row r="25" spans="3:27">
-      <c r="D25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="3:27">
       <c r="C26" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="5"/>
       <c r="T26" s="1" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="27" spans="3:27">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>682</v>
       </c>
       <c r="U27" s="1" t="s">
@@ -34276,7 +34398,7 @@
       <c r="AA27" s="10"/>
     </row>
     <row r="28" spans="3:27">
-      <c r="D28" s="4"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="3:27">
       <c r="C29" s="1" t="s">
@@ -34317,7 +34439,7 @@
       </c>
     </row>
     <row r="35" spans="3:21">
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>693</v>
       </c>
     </row>
@@ -34353,7 +34475,7 @@
       </c>
     </row>
     <row r="42" spans="3:21">
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>701</v>
       </c>
     </row>
@@ -34495,7 +34617,7 @@
       <c r="AA16" s="18"/>
     </row>
     <row r="17" spans="3:26">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>721</v>
       </c>
       <c r="S17" s="2"/>
@@ -34574,7 +34696,7 @@
       </c>
     </row>
     <row r="28" spans="3:26">
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="1" t="s">
         <v>735</v>
       </c>
@@ -34583,7 +34705,7 @@
       <c r="T34" s="12"/>
     </row>
     <row r="35" spans="5:20">
-      <c r="E35" s="5"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -34791,7 +34913,7 @@
       </c>
     </row>
     <row r="28" spans="3:22">
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
@@ -34826,7 +34948,7 @@
       <c r="C35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="11"/>
       <c r="I35" s="1" t="s">
         <v>81</v>
       </c>
@@ -34987,7 +35109,7 @@
       <c r="C17" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
       <c r="S17" s="2"/>
       <c r="T17" s="1" t="s">
         <v>753</v>
@@ -35009,7 +35131,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="4" t="s">
+      <c r="T20" s="5" t="s">
         <v>756</v>
       </c>
     </row>
@@ -35046,13 +35168,13 @@
       <c r="L25" s="14"/>
     </row>
     <row r="28" spans="3:26">
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="34" spans="5:20">
       <c r="T34" s="12"/>
     </row>
     <row r="35" spans="5:20">
-      <c r="E35" s="5"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -35092,7 +35214,7 @@
       </c>
     </row>
     <row r="3" spans="3:21">
-      <c r="C3" s="4"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="3:21">
       <c r="C4" s="1" t="s">
@@ -35111,12 +35233,12 @@
       </c>
     </row>
     <row r="6" ht="15" spans="3:21">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="3" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="7" ht="15" spans="3:21">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="3" t="s">
         <v>767</v>
       </c>
     </row>
@@ -35141,7 +35263,7 @@
       <c r="D10" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="3:21">
       <c r="C11" s="1" t="s">
@@ -35250,7 +35372,7 @@
       </c>
     </row>
     <row r="6" spans="3:23">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>791</v>
       </c>
     </row>
@@ -35316,7 +35438,7 @@
       <c r="C16" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
       <c r="V16" s="1" t="s">
         <v>806</v>
       </c>
@@ -35338,7 +35460,7 @@
       <c r="C19" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="V19" s="1" t="s">
         <v>811</v>
       </c>
@@ -35369,7 +35491,7 @@
       </c>
     </row>
     <row r="24" spans="3:27">
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
         <v>817</v>
       </c>
@@ -35479,18 +35601,18 @@
       <c r="C4" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="U4" s="1" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="5" spans="3:24">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="6" spans="3:24">
-      <c r="D6" s="5"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="3:24">
       <c r="C7" s="1" t="s">
@@ -35520,26 +35642,26 @@
       </c>
     </row>
     <row r="12" spans="3:24">
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="3:24">
       <c r="C13" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="U13" s="1" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="14" spans="3:24">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>845</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="7"/>
     </row>
     <row r="15" spans="3:24">
-      <c r="D15" s="3"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="3:24">
       <c r="C16" s="1" t="s">
@@ -35589,7 +35711,7 @@
       <c r="X21" s="7"/>
     </row>
     <row r="22" spans="3:28">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>855</v>
       </c>
       <c r="U22" s="2" t="s">
@@ -35597,12 +35719,12 @@
       </c>
     </row>
     <row r="23" spans="3:28">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="24" spans="3:28">
-      <c r="D24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="3:28">
       <c r="C25" s="1" t="s">
@@ -35771,18 +35893,18 @@
       <c r="B4" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="P4" s="1" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="5" spans="2:23">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="C6" s="5"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="2:23">
       <c r="B7" s="1" t="s">
@@ -35812,26 +35934,26 @@
       </c>
     </row>
     <row r="12" spans="2:23">
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="2:23">
       <c r="B13" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="P13" s="1" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="14" spans="2:23">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>899</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="7"/>
     </row>
     <row r="15" spans="2:23">
-      <c r="C15" s="3"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="2:23">
       <c r="B16" s="1" t="s">
@@ -35872,14 +35994,14 @@
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="2:27">
-      <c r="B22" s="4"/>
+      <c r="B22" s="5"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="2:27">
-      <c r="C23" s="4"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="2:27">
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="27" spans="2:27">
       <c r="C27" s="10"/>
@@ -35922,18 +36044,18 @@
       <c r="B4" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="W4" s="1" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="5" spans="2:23">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="C6" s="5"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1" t="s">
         <v>910</v>
       </c>
@@ -35977,26 +36099,26 @@
       </c>
     </row>
     <row r="12" spans="2:23">
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="2:23">
       <c r="B13" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="W13" s="1" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="14" spans="2:23">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>922</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="7"/>
     </row>
     <row r="15" spans="2:23">
-      <c r="C15" s="3"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="2:23">
       <c r="B16" s="1" t="s">
@@ -36039,7 +36161,7 @@
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="2:27">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>930</v>
       </c>
       <c r="T22" s="2"/>
@@ -36048,12 +36170,12 @@
       </c>
     </row>
     <row r="23" spans="2:27">
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="24" spans="2:27">
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="2:27">
       <c r="B25" s="1" t="s">
@@ -36109,13 +36231,13 @@
       </c>
     </row>
     <row r="4" spans="2:25">
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="2:25">
       <c r="B5" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="W5" s="1" t="s">
         <v>940</v>
       </c>
@@ -36124,7 +36246,7 @@
       <c r="B6" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="2:25">
       <c r="B7" s="1" t="s">
@@ -36152,13 +36274,13 @@
       <c r="B12" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="W12" s="1" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="13" spans="2:25">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>948</v>
       </c>
       <c r="W13" s="1" t="s">
@@ -36166,14 +36288,14 @@
       </c>
     </row>
     <row r="14" spans="2:25">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>950</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="7"/>
     </row>
     <row r="15" spans="2:25">
-      <c r="C15" s="3"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="2:25">
       <c r="B16" s="1" t="s">
@@ -36219,20 +36341,20 @@
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="2:27">
-      <c r="B22" s="4"/>
+      <c r="B22" s="5"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="2:27">
       <c r="B23" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="5"/>
       <c r="Y23" s="1" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="24" spans="2:27">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>961</v>
       </c>
     </row>
@@ -36262,7 +36384,7 @@
   <sheetPr/>
   <dimension ref="B2:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -36291,13 +36413,13 @@
       <c r="B4" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="Z4" s="1" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="5" spans="2:26">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>970</v>
       </c>
     </row>
@@ -36305,7 +36427,7 @@
       <c r="B6" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="11"/>
       <c r="Z6" s="1" t="s">
         <v>972</v>
       </c>
@@ -36338,12 +36460,12 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="13" spans="2:26">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>980</v>
       </c>
     </row>
@@ -36351,7 +36473,7 @@
       <c r="B14" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="V14" s="2"/>
       <c r="W14" s="7"/>
       <c r="Z14" s="1" t="s">
@@ -36402,20 +36524,171 @@
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="2:27">
-      <c r="B22" s="4"/>
+      <c r="B22" s="5"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="2:27">
-      <c r="C23" s="4"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="2:27">
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="27" spans="2:27">
       <c r="C27" s="10"/>
     </row>
     <row r="28" ht="14.4" spans="2:27">
       <c r="B28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:AA27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="15.6" spans="2:25">
+      <c r="B2" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25">
+      <c r="C3" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="2:25">
+      <c r="B5" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="X5" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="C6" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25">
+      <c r="C7" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25">
+      <c r="B9" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25">
+      <c r="C10" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:25">
+      <c r="B12" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="X12" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25">
+      <c r="C13" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="V13" s="2"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="15" spans="2:25">
+      <c r="B15" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="X15" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25">
+      <c r="C16" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="C17" s="6"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="2:27">
+      <c r="B18" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="X18" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27">
+      <c r="C19" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="2:27">
+      <c r="C20" s="9"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="2:27">
+      <c r="B21" s="5"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:27">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="26" spans="2:27">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" ht="14.4" spans="2:27">
+      <c r="B27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -36632,7 +36905,7 @@
       </c>
     </row>
     <row r="28" spans="3:22">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>124</v>
       </c>
     </row>
@@ -36675,13 +36948,13 @@
       <c r="C4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="V4" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="3:24">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>128</v>
       </c>
       <c r="W5" s="1" t="s">
@@ -36689,7 +36962,7 @@
       </c>
     </row>
     <row r="6" spans="3:24">
-      <c r="D6" s="5"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="3:24">
       <c r="C7" s="1" t="s">
@@ -36727,7 +37000,7 @@
       </c>
     </row>
     <row r="12" spans="3:24">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>138</v>
       </c>
       <c r="W12" s="1" t="s">
@@ -36735,13 +37008,13 @@
       </c>
     </row>
     <row r="13" spans="3:24">
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="W13" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="3:24">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>141</v>
       </c>
       <c r="W14" s="2"/>
@@ -36791,20 +37064,20 @@
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="3:28">
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="3:28">
-      <c r="D22" s="5"/>
+      <c r="D22" s="11"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="3:28">
       <c r="C23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="5"/>
       <c r="V23" s="1" t="s">
         <v>153</v>
       </c>
@@ -37231,7 +37504,7 @@
       </c>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
         <v>230</v>
       </c>
@@ -37274,7 +37547,7 @@
       <c r="D33" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="3:20">
       <c r="C34" s="1" t="s">
@@ -37447,7 +37720,7 @@
     </row>
     <row r="20" spans="3:24">
       <c r="C20" s="2"/>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -37480,7 +37753,7 @@
       </c>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
         <v>271</v>
       </c>
@@ -37507,7 +37780,7 @@
       <c r="U32" s="12"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="5"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="47" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -37755,18 +38028,18 @@
       <c r="C4" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="V4" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="3:24">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="6" spans="3:24">
-      <c r="D6" s="5"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="3:24">
       <c r="C7" s="1" t="s">
@@ -37796,19 +38069,19 @@
       </c>
     </row>
     <row r="12" spans="3:24">
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="3:24">
       <c r="C13" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="V13" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="3:24">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>290</v>
       </c>
       <c r="W14" s="2" t="s">
@@ -37864,7 +38137,7 @@
       <c r="X21" s="7"/>
     </row>
     <row r="22" spans="3:41">
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="H22" s="1" t="s">
         <v>301</v>
       </c>
@@ -37874,13 +38147,13 @@
       <c r="C23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="5"/>
       <c r="V23" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="24" spans="3:41">
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>304</v>
       </c>
       <c r="W24" s="1" t="s">
